--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22322390-F306-49C9-8B2F-F92C3843DB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC596C8-BEF5-40AF-B4B6-1B7CD0CE5F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29652" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>Название</t>
   </si>
@@ -213,21 +213,9 @@
     <t>Каталог данных УП</t>
   </si>
   <si>
-    <t>plans/grad</t>
-  </si>
-  <si>
-    <t>plans/spec</t>
-  </si>
-  <si>
     <t>Каталог вывода результата</t>
   </si>
   <si>
-    <t>result/grad</t>
-  </si>
-  <si>
-    <t>result/spec</t>
-  </si>
-  <si>
     <t>Названия анализируемых страниц</t>
   </si>
   <si>
@@ -295,13 +283,37 @@
   </si>
   <si>
     <t>logFile.txt</t>
+  </si>
+  <si>
+    <t>Создать новый каталог</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t>plans\grad</t>
+  </si>
+  <si>
+    <t>plans\spec</t>
+  </si>
+  <si>
+    <t>result\spec</t>
+  </si>
+  <si>
+    <t>result\grad</t>
+  </si>
+  <si>
+    <t>В полном пути не должно быть кириллицы.</t>
+  </si>
+  <si>
+    <t>Нельзя использовать кириллицу в пути и названии файла</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -314,6 +326,15 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -375,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -388,6 +409,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -717,103 +744,133 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="7">
-        <v>15</v>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="7">
-        <v>10</v>
+      <c r="A8" s="9"/>
+      <c r="B8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1082,13 +1139,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1108,10 +1165,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1131,13 +1188,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC596C8-BEF5-40AF-B4B6-1B7CD0CE5F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51986963-A7F8-4BAF-B0E0-0D70F508B21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29652" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>Название</t>
   </si>
@@ -306,7 +306,13 @@
     <t>В полном пути не должно быть кириллицы.</t>
   </si>
   <si>
-    <t>Нельзя использовать кириллицу в пути и названии файла</t>
+    <t>Не должно быть кириллицы в пути</t>
+  </si>
+  <si>
+    <t>Перезаписывать лог файл</t>
+  </si>
+  <si>
+    <t>Работает только с форматом xlsx</t>
   </si>
 </sst>
 </file>
@@ -730,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -784,93 +790,109 @@
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>84</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>87</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="7">
-        <v>15</v>
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="B13" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>80</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>81</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51986963-A7F8-4BAF-B0E0-0D70F508B21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD371446-F4CA-457E-BAD5-61742DC1F291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29652" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
   <si>
     <t>Название</t>
   </si>
@@ -313,6 +313,12 @@
   </si>
   <si>
     <t>Работает только с форматом xlsx</t>
+  </si>
+  <si>
+    <t>Регулярное выражения разбивки строки ([Компетенции(2)] Формируемые компетенции)</t>
+  </si>
+  <si>
+    <t>(.){0,}?;</t>
   </si>
 </sst>
 </file>
@@ -736,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -884,6 +890,14 @@
       </c>
       <c r="B16" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1153,9 +1167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E4D0FA-305B-412E-8789-20EE846FCAE8}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD371446-F4CA-457E-BAD5-61742DC1F291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D555512-B5D4-4CF7-A555-931D448DCB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29652" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="2" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
   <si>
     <t>Название</t>
   </si>
@@ -744,7 +744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1165,9 +1165,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E4D0FA-305B-412E-8789-20EE846FCAE8}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1182,8 +1184,14 @@
         <v>74</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D555512-B5D4-4CF7-A555-931D448DCB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA47AB3A-C4BB-421B-A44B-F9CDFAE3B056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="2" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29652" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
   <si>
     <t>Название</t>
   </si>
@@ -264,9 +264,6 @@
     <t>Формируемые компетенции</t>
   </si>
   <si>
-    <t>Содержание</t>
-  </si>
-  <si>
     <t>Считать в плане</t>
   </si>
   <si>
@@ -318,7 +315,7 @@
     <t>Регулярное выражения разбивки строки ([Компетенции(2)] Формируемые компетенции)</t>
   </si>
   <si>
-    <t>(.){0,}?;</t>
+    <t xml:space="preserve"> {0,1}(.{0,}?);</t>
   </si>
 </sst>
 </file>
@@ -744,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -782,22 +779,22 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -807,16 +804,16 @@
         <v>57</v>
       </c>
       <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -824,16 +821,16 @@
         <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -870,34 +867,34 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
         <v>78</v>
-      </c>
-      <c r="B14" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
         <v>80</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
         <v>92</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1167,7 +1164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E4D0FA-305B-412E-8789-20EE846FCAE8}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1197,20 +1194,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55C6971-C43C-4F39-A4CB-1671DB6EB818}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1230,13 +1224,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
         <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA47AB3A-C4BB-421B-A44B-F9CDFAE3B056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFD9DB9-609E-4158-8947-77D8C266B63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29652" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
   <si>
     <t>Название</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t xml:space="preserve"> {0,1}(.{0,}?);</t>
+  </si>
+  <si>
+    <t>Использовать многоуровневые индикаторы</t>
   </si>
 </sst>
 </file>
@@ -739,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -895,6 +898,14 @@
       </c>
       <c r="B17" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFD9DB9-609E-4158-8947-77D8C266B63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14719595-9D98-414F-B082-F72C33C8EA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29652" yWindow="-108" windowWidth="29760" windowHeight="17496" activeTab="4" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Компетенции" sheetId="4" r:id="rId4"/>
     <sheet name="ПланСвод" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
   <si>
     <t>Название</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Считать в плане</t>
   </si>
   <si>
-    <t>з.е.</t>
-  </si>
-  <si>
     <t>Название файла отладки</t>
   </si>
   <si>
@@ -319,6 +316,12 @@
   </si>
   <si>
     <t>Использовать многоуровневые индикаторы</t>
+  </si>
+  <si>
+    <t>Курс 1</t>
+  </si>
+  <si>
+    <t>Код</t>
   </si>
 </sst>
 </file>
@@ -744,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -782,22 +785,22 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
         <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -807,16 +810,16 @@
         <v>57</v>
       </c>
       <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
         <v>83</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -824,16 +827,16 @@
         <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -870,42 +873,42 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
         <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
         <v>79</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
         <v>91</v>
-      </c>
-      <c r="B17" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +929,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1225,15 +1228,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F546BFA9-E331-4372-933F-E90B46BAF38E}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1241,7 +1244,10 @@
         <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14719595-9D98-414F-B082-F72C33C8EA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A8DBF1-2374-4425-A5DC-A36DE729CBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29652" yWindow="-108" windowWidth="29760" windowHeight="17496" activeTab="4" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29652" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
   <si>
     <t>Название</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>Код</t>
+  </si>
+  <si>
+    <t>Сколько семестров в одном курсе</t>
   </si>
 </sst>
 </file>
@@ -745,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -909,6 +912,14 @@
       </c>
       <c r="B18" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1230,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F546BFA9-E331-4372-933F-E90B46BAF38E}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A8DBF1-2374-4425-A5DC-A36DE729CBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC617BF9-CEC4-4B4F-9A31-D4D2AAEFD202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29652" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
-    <sheet name="Псевдонимы" sheetId="2" r:id="rId2"/>
-    <sheet name="Компетенции(2)" sheetId="3" r:id="rId3"/>
-    <sheet name="Компетенции" sheetId="4" r:id="rId4"/>
-    <sheet name="ПланСвод" sheetId="5" r:id="rId5"/>
+    <sheet name="Параметры вывода" sheetId="6" r:id="rId2"/>
+    <sheet name="Псевдонимы" sheetId="2" r:id="rId3"/>
+    <sheet name="Компетенции(2)" sheetId="3" r:id="rId4"/>
+    <sheet name="Компетенции" sheetId="4" r:id="rId5"/>
+    <sheet name="ПланСвод" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
   <si>
     <t>Название</t>
   </si>
@@ -325,6 +326,45 @@
   </si>
   <si>
     <t>Сколько семестров в одном курсе</t>
+  </si>
+  <si>
+    <t>Учебный план</t>
+  </si>
+  <si>
+    <t>Вывод столбца (проблеммы с кириллицей)</t>
+  </si>
+  <si>
+    <t>Curricula Name</t>
+  </si>
+  <si>
+    <t>Название параметра</t>
+  </si>
+  <si>
+    <t>Значения параметров</t>
+  </si>
+  <si>
+    <t>Всего ЗЕ</t>
+  </si>
+  <si>
+    <t>Total credits</t>
+  </si>
+  <si>
+    <t>Кол-во дисциплин</t>
+  </si>
+  <si>
+    <t>Number of disciplines</t>
+  </si>
+  <si>
+    <t>Название ключевых столбцов</t>
+  </si>
+  <si>
+    <t>Прим. Первая строка всех страниц файла config.xlsx игнорируется</t>
+  </si>
+  <si>
+    <t>Параметры выводы</t>
+  </si>
+  <si>
+    <t>Параметры вывода</t>
   </si>
 </sst>
 </file>
@@ -356,7 +396,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +413,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -414,12 +460,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -432,6 +476,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -748,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -760,175 +816,208 @@
     <col min="2" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>85</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>68</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>66</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B13" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B14" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>76</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>78</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>88</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>90</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>92</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B20" s="5">
         <v>2</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A4:C4"/>
+  <mergeCells count="7">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A7:A8"/>
     <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -936,11 +1025,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.8984375" customWidth="1"/>
+    <col min="2" max="2" width="40.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D30513-835A-4AE6-857E-98ABAAAB41D8}">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -949,10 +1089,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -965,10 +1105,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -981,10 +1121,10 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -997,10 +1137,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1013,10 +1153,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1029,10 +1169,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1045,10 +1185,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1061,10 +1201,10 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1077,10 +1217,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1093,10 +1233,10 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1109,10 +1249,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1125,10 +1265,10 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1141,10 +1281,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1157,10 +1297,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1173,10 +1313,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1185,83 +1325,123 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E4D0FA-305B-412E-8789-20EE846FCAE8}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.296875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55C6971-C43C-4F39-A4CB-1671DB6EB818}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55C6971-C43C-4F39-A4CB-1671DB6EB818}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F546BFA9-E331-4372-933F-E90B46BAF38E}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.09765625" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC617BF9-CEC4-4B4F-9A31-D4D2AAEFD202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1AD2BC-80AC-4637-BDE8-B54BA15DE051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -469,15 +469,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,6 +480,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,7 +807,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -817,23 +817,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B2" t="s">
@@ -847,7 +847,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="12"/>
       <c r="B3" t="s">
         <v>63</v>
       </c>
@@ -867,21 +867,21 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B7" t="s">
@@ -892,13 +892,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+      <c r="A8" s="11"/>
       <c r="B8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B9" t="s">
@@ -909,7 +909,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+      <c r="A10" s="11"/>
       <c r="B10" t="s">
         <v>86</v>
       </c>
@@ -1003,11 +1003,11 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1039,10 +1039,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1089,10 +1089,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1341,11 +1341,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1383,11 +1383,11 @@
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1417,12 +1417,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1AD2BC-80AC-4637-BDE8-B54BA15DE051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59B51CF-2D84-4226-9C3C-87E0DCB2D742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
   <si>
     <t>Название</t>
   </si>
@@ -328,15 +328,6 @@
     <t>Сколько семестров в одном курсе</t>
   </si>
   <si>
-    <t>Учебный план</t>
-  </si>
-  <si>
-    <t>Вывод столбца (проблеммы с кириллицей)</t>
-  </si>
-  <si>
-    <t>Curricula Name</t>
-  </si>
-  <si>
     <t>Название параметра</t>
   </si>
   <si>
@@ -346,25 +337,46 @@
     <t>Всего ЗЕ</t>
   </si>
   <si>
-    <t>Total credits</t>
-  </si>
-  <si>
     <t>Кол-во дисциплин</t>
   </si>
   <si>
-    <t>Number of disciplines</t>
-  </si>
-  <si>
     <t>Название ключевых столбцов</t>
   </si>
   <si>
     <t>Прим. Первая строка всех страниц файла config.xlsx игнорируется</t>
   </si>
   <si>
-    <t>Параметры выводы</t>
-  </si>
-  <si>
     <t>Параметры вывода</t>
+  </si>
+  <si>
+    <t>Название ключевых столбцов (в одном столюце указываются возможные синонимы)</t>
+  </si>
+  <si>
+    <t>Название учебного плана</t>
+  </si>
+  <si>
+    <t>Вывод столбца (можно менять по необходимости)</t>
+  </si>
+  <si>
+    <t>Параметры выводы (название страницы)</t>
+  </si>
+  <si>
+    <t>Компактный вывод результата</t>
+  </si>
+  <si>
+    <t>Псевдонимы (название страницы)</t>
+  </si>
+  <si>
+    <t>Псевдонимы</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>(Расш.) Кол-во дисциплин в УП</t>
+  </si>
+  <si>
+    <t>(Расш.) Общее колв-о ЗЕ в УП</t>
   </si>
 </sst>
 </file>
@@ -460,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -478,6 +490,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,6 +503,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -818,22 +835,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+        <v>96</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B2" t="s">
@@ -847,7 +864,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="14"/>
       <c r="B3" t="s">
         <v>63</v>
       </c>
@@ -867,157 +884,173 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>85</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="5">
-        <v>15</v>
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
+        <v>71</v>
+      </c>
+      <c r="B15" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="5">
-        <v>2</v>
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="B22" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="B23" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1026,16 +1059,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.8984375" customWidth="1"/>
-    <col min="2" max="2" width="40.8984375" customWidth="1"/>
+    <col min="2" max="2" width="47.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1043,31 +1076,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1080,7 +1129,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1330,7 +1379,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1340,12 +1389,12 @@
     <col min="3" max="3" width="19.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+    <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1374,30 +1423,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55C6971-C43C-4F39-A4CB-1671DB6EB818}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1417,12 +1464,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59B51CF-2D84-4226-9C3C-87E0DCB2D742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA6CA84-17C5-4F2F-A12D-125C54FA9622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
   <si>
     <t>Название</t>
   </si>
@@ -370,20 +370,31 @@
     <t>Псевдонимы</t>
   </si>
   <si>
-    <t>нет</t>
-  </si>
-  <si>
     <t>(Расш.) Кол-во дисциплин в УП</t>
   </si>
   <si>
     <t>(Расш.) Общее колв-о ЗЕ в УП</t>
+  </si>
+  <si>
+    <t>Формула расчёта весов рёбер</t>
+  </si>
+  <si>
+    <t>((L + R) / 2) * K</t>
+  </si>
+  <si>
+    <t>В формуле расчёта весов ниже следующая легенда:
+L - ЗЕ левой вершины,
+ R - ЗЕ правой вершины,
+A - суммарное колв-о ЗЕ,
+N - суммарное кол-во дисциплин,
+K - мощность пересечения по компетенциям</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -402,6 +413,22 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -472,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -507,6 +534,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -821,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -888,7 +923,7 @@
         <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -979,7 +1014,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -987,7 +1022,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -995,7 +1030,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -1003,7 +1038,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -1011,7 +1046,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>95</v>
       </c>
@@ -1019,7 +1054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -1027,7 +1062,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -1035,15 +1070,32 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>101</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
     </row>
+    <row r="25" spans="1:5" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A2:A3"/>
@@ -1051,6 +1103,7 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1061,7 +1114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1105,18 +1158,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA6CA84-17C5-4F2F-A12D-125C54FA9622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D28A6A-7AC5-42C3-AE15-5A3C5A4AD25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Компетенции(2)" sheetId="3" r:id="rId4"/>
     <sheet name="Компетенции" sheetId="4" r:id="rId5"/>
     <sheet name="ПланСвод" sheetId="5" r:id="rId6"/>
+    <sheet name="Инструкция Пользователя" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="120">
   <si>
     <t>Название</t>
   </si>
@@ -389,12 +390,27 @@
 N - суммарное кол-во дисциплин,
 K - мощность пересечения по компетенциям</t>
   </si>
+  <si>
+    <t>Если строка начинается с +, значит УП был обработан корректно</t>
+  </si>
+  <si>
+    <t>В файле logFile.txt можно отследить аномалии в учебных планах (УП)</t>
+  </si>
+  <si>
+    <t>Если строка начинается с -, значит требуется обратить внимание на корректность УП, в нём есть недочёты. Все недочёты перечисляются строками выше до пустой строки переноса</t>
+  </si>
+  <si>
+    <t>Если строка начинается с !, то присутствовала критическая ошибка, из-за которой УП не был обработан вовсе</t>
+  </si>
+  <si>
+    <t>Игнорировать пустые строки в конце странице, если их не менее X =</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -432,6 +448,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -499,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -519,6 +542,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,17 +559,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -856,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -872,20 +896,20 @@
       <c r="A1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>59</v>
       </c>
       <c r="B2" t="s">
@@ -899,7 +923,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="17"/>
       <c r="B3" t="s">
         <v>63</v>
       </c>
@@ -927,21 +951,21 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="16" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
@@ -952,13 +976,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B10" t="s">
@@ -969,7 +993,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="9" t="s">
         <v>86</v>
       </c>
@@ -1071,39 +1095,47 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B27" s="12" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1443,11 +1475,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1517,12 +1549,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1544,4 +1576,43 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE973070-7C8A-47D0-A5B3-F5768C3C3395}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="8.796875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D28A6A-7AC5-42C3-AE15-5A3C5A4AD25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761AFBED-0463-451F-BCDD-762976008E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="6" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -391,19 +391,19 @@
 K - мощность пересечения по компетенциям</t>
   </si>
   <si>
-    <t>Если строка начинается с +, значит УП был обработан корректно</t>
-  </si>
-  <si>
     <t>В файле logFile.txt можно отследить аномалии в учебных планах (УП)</t>
   </si>
   <si>
-    <t>Если строка начинается с -, значит требуется обратить внимание на корректность УП, в нём есть недочёты. Все недочёты перечисляются строками выше до пустой строки переноса</t>
-  </si>
-  <si>
-    <t>Если строка начинается с !, то присутствовала критическая ошибка, из-за которой УП не был обработан вовсе</t>
-  </si>
-  <si>
     <t>Игнорировать пустые строки в конце странице, если их не менее X =</t>
+  </si>
+  <si>
+    <t>Если строка файла logFile.txt начинается с +, значит УП был обработан корректно</t>
+  </si>
+  <si>
+    <t>Если строка файла logFile.txt начинается с -, значит требуется обратить внимание на корректность УП, в нём есть недочёты. Все недочёты перечисляются строками выше до пустой строки переноса</t>
+  </si>
+  <si>
+    <t>Если строка файла logFile.txt начинается с !, то присутствовала критическая ошибка, из-за которой УП не был обработан вовсе</t>
   </si>
 </sst>
 </file>
@@ -547,6 +547,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,13 +563,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -882,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -896,20 +896,20 @@
       <c r="A1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B2" t="s">
@@ -923,7 +923,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
+      <c r="A3" s="19"/>
       <c r="B3" t="s">
         <v>63</v>
       </c>
@@ -951,21 +951,21 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="18" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
@@ -976,13 +976,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="18" t="s">
         <v>58</v>
       </c>
       <c r="B10" t="s">
@@ -993,7 +993,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="9" t="s">
         <v>86</v>
       </c>
@@ -1096,24 +1096,24 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B24" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:5" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -1475,11 +1475,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1549,12 +1549,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1582,33 +1582,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE973070-7C8A-47D0-A5B3-F5768C3C3395}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="20"/>
+    <col min="1" max="16384" width="8.796875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
-        <v>116</v>
+      <c r="A1" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="20" t="s">
-        <v>115</v>
+      <c r="A2" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="20" t="s">
-        <v>117</v>
+      <c r="A3" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="20" t="s">
-        <v>118</v>
+      <c r="A4" s="14" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761AFBED-0463-451F-BCDD-762976008E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BD37E8-7636-497B-ADB0-BB927F121827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="6" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-23544" yWindow="2580" windowWidth="22344" windowHeight="12660" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1099,7 +1099,7 @@
         <v>116</v>
       </c>
       <c r="B24" s="5">
-        <v>5</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1582,7 +1582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE973070-7C8A-47D0-A5B3-F5768C3C3395}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BD37E8-7636-497B-ADB0-BB927F121827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E140B612-5950-4210-A981-2C0353914542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23544" yWindow="2580" windowWidth="22344" windowHeight="12660" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="122">
   <si>
     <t>Название</t>
   </si>
@@ -380,30 +380,40 @@
     <t>Формула расчёта весов рёбер</t>
   </si>
   <si>
-    <t>((L + R) / 2) * K</t>
+    <t>В файле logFile.txt можно отследить аномалии в учебных планах (УП)</t>
+  </si>
+  <si>
+    <t>Игнорировать пустые строки в конце странице, если их не менее X =</t>
+  </si>
+  <si>
+    <t>Если строка файла logFile.txt начинается с +, значит УП был обработан корректно</t>
+  </si>
+  <si>
+    <t>Если строка файла logFile.txt начинается с -, значит требуется обратить внимание на корректность УП, в нём есть недочёты. Все недочёты перечисляются строками выше до пустой строки переноса</t>
+  </si>
+  <si>
+    <t>Если строка файла logFile.txt начинается с !, то присутствовала критическая ошибка, из-за которой УП не был обработан вовсе</t>
+  </si>
+  <si>
+    <t>((L + R) / (2 * A)) * K</t>
+  </si>
+  <si>
+    <t>Можно использовать любые формулы, например:
+1) Из SPA-SFU версии №1: ((L + R) / (2 * A)) * K
+2) Среднеарифметическое: ((L + R) / 2) * K
+3) Среднегеометрическое: ((L * R) ^ (1 / 2)) * K</t>
+  </si>
+  <si>
+    <t>Создавать ребро, если его вес больше X=</t>
   </si>
   <si>
     <t>В формуле расчёта весов ниже следующая легенда:
 L - ЗЕ левой вершины,
  R - ЗЕ правой вершины,
-A - суммарное колв-о ЗЕ,
+A - суммарное кол-во ЗЕ,
 N - суммарное кол-во дисциплин,
-K - мощность пересечения по компетенциям</t>
-  </si>
-  <si>
-    <t>В файле logFile.txt можно отследить аномалии в учебных планах (УП)</t>
-  </si>
-  <si>
-    <t>Игнорировать пустые строки в конце странице, если их не менее X =</t>
-  </si>
-  <si>
-    <t>Если строка файла logFile.txt начинается с +, значит УП был обработан корректно</t>
-  </si>
-  <si>
-    <t>Если строка файла logFile.txt начинается с -, значит требуется обратить внимание на корректность УП, в нём есть недочёты. Все недочёты перечисляются строками выше до пустой строки переноса</t>
-  </si>
-  <si>
-    <t>Если строка файла logFile.txt начинается с !, то присутствовала критическая ошибка, из-за которой УП не был обработан вовсе</t>
+K - мощность пересечения по компетенциям
+Поддерживаются операторы: + - * / (^ степень) mod abs sin cos log</t>
   </si>
 </sst>
 </file>
@@ -522,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -548,6 +558,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -880,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -896,20 +912,20 @@
       <c r="A1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B2" t="s">
@@ -923,7 +939,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="21"/>
       <c r="B3" t="s">
         <v>63</v>
       </c>
@@ -951,21 +967,21 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
@@ -976,13 +992,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>58</v>
       </c>
       <c r="B10" t="s">
@@ -993,7 +1009,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="9" t="s">
         <v>86</v>
       </c>
@@ -1096,41 +1112,59 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B24" s="5">
-        <v>5000000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-    </row>
-    <row r="26" spans="1:5" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>113</v>
+      <c r="B29" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A26:B26"/>
+  <mergeCells count="9">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A8:A9"/>
@@ -1475,11 +1509,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1549,12 +1583,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1593,22 +1627,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E140B612-5950-4210-A981-2C0353914542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E77E82-4FDF-40E2-A58A-409E826194D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="3" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
     <sheet name="Параметры вывода" sheetId="6" r:id="rId2"/>
     <sheet name="Псевдонимы" sheetId="2" r:id="rId3"/>
-    <sheet name="Компетенции(2)" sheetId="3" r:id="rId4"/>
-    <sheet name="Компетенции" sheetId="4" r:id="rId5"/>
-    <sheet name="ПланСвод" sheetId="5" r:id="rId6"/>
-    <sheet name="Инструкция Пользователя" sheetId="7" r:id="rId7"/>
+    <sheet name="Игнорируемые предметы" sheetId="8" r:id="rId4"/>
+    <sheet name="Компетенции(2)" sheetId="3" r:id="rId5"/>
+    <sheet name="Компетенции" sheetId="4" r:id="rId6"/>
+    <sheet name="ПланСвод" sheetId="5" r:id="rId7"/>
+    <sheet name="Инструкция Пользователя" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="135">
   <si>
     <t>Название</t>
   </si>
@@ -311,12 +312,6 @@
     <t>Работает только с форматом xlsx</t>
   </si>
   <si>
-    <t>Регулярное выражения разбивки строки ([Компетенции(2)] Формируемые компетенции)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {0,1}(.{0,}?);</t>
-  </si>
-  <si>
     <t>Использовать многоуровневые индикаторы</t>
   </si>
   <si>
@@ -354,9 +349,6 @@
   </si>
   <si>
     <t>Название учебного плана</t>
-  </si>
-  <si>
-    <t>Вывод столбца (можно менять по необходимости)</t>
   </si>
   <si>
     <t>Параметры выводы (название страницы)</t>
@@ -414,6 +406,54 @@
 N - суммарное кол-во дисциплин,
 K - мощность пересечения по компетенциям
 Поддерживаются операторы: + - * / (^ степень) mod abs sin cos log</t>
+  </si>
+  <si>
+    <t>Регулярное выражение разбивки строки ([Компетенции(2)] Формируемые компетенции)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {0,1}(.{0,}?);</t>
+  </si>
+  <si>
+    <t>(.{1,})-</t>
+  </si>
+  <si>
+    <t>Регулярное выражение поиска заголовка компетенции</t>
+  </si>
+  <si>
+    <t>Все, что не выделено Полужирным, это редактируемые пользователем параметры</t>
+  </si>
+  <si>
+    <t>Вывод столбца (можно менять по необходимости, например, для локализации)</t>
+  </si>
+  <si>
+    <t>Игнорируемые предметы</t>
+  </si>
+  <si>
+    <t>Игнорируемые предметы (название страницы)</t>
+  </si>
+  <si>
+    <t>выполнение и защита выпускной квалификационной работы</t>
+  </si>
+  <si>
+    <t>Преддипломная  практика</t>
+  </si>
+  <si>
+    <t>Преддипломная практика</t>
+  </si>
+  <si>
+    <t>Преддипломная</t>
+  </si>
+  <si>
+    <t>Технологическая (проектно-технологическая) практика</t>
+  </si>
+  <si>
+    <t>Модуль 1. Производственно-технологический</t>
+  </si>
+  <si>
+    <t>Модуль 2. Организационно-управленческий</t>
+  </si>
+  <si>
+    <t>Выполнение и защита выпускной квалификационной работы (Final certification)</t>
   </si>
 </sst>
 </file>
@@ -445,13 +485,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
@@ -465,6 +498,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -532,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -552,19 +594,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -576,8 +618,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -896,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -910,10 +955,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -951,7 +996,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B4" t="s">
@@ -959,8 +1004,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>107</v>
+      <c r="A5" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>81</v>
@@ -981,7 +1026,7 @@
       <c r="C7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
@@ -992,13 +1037,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="22" t="s">
         <v>58</v>
       </c>
       <c r="B10" t="s">
@@ -1009,13 +1054,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B12" t="s">
@@ -1023,7 +1068,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B13" t="s">
@@ -1031,7 +1076,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="5">
@@ -1039,7 +1084,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="5">
@@ -1047,7 +1092,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B16" t="s">
@@ -1055,7 +1100,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B17" t="s">
@@ -1063,7 +1108,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B18" t="s">
@@ -1071,100 +1116,116 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="5" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="15">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-    </row>
-    <row r="27" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>118</v>
+      <c r="B31" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A28:C28"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A8:A9"/>
@@ -1181,13 +1242,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.8984375" customWidth="1"/>
-    <col min="2" max="2" width="47.59765625" customWidth="1"/>
+    <col min="2" max="2" width="72.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1195,47 +1256,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1247,9 +1308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D30513-835A-4AE6-857E-98ABAAAB41D8}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1494,6 +1553,69 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE7B04-49FC-44AC-A9A9-144B494E3553}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E4D0FA-305B-412E-8789-20EE846FCAE8}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1509,11 +1631,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="A1" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1540,7 +1662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55C6971-C43C-4F39-A4CB-1671DB6EB818}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1555,7 +1677,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -1568,12 +1690,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F546BFA9-E331-4372-933F-E90B46BAF38E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1584,7 +1706,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1598,10 +1720,10 @@
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1612,37 +1734,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE973070-7C8A-47D0-A5B3-F5768C3C3395}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="14"/>
+    <col min="1" max="16384" width="8.796875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
-        <v>117</v>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E77E82-4FDF-40E2-A58A-409E826194D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6D4353-1FA6-4F72-B788-000B03F57B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="3" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -944,7 +944,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1241,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1556,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE7B04-49FC-44AC-A9A9-144B494E3553}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6D4353-1FA6-4F72-B788-000B03F57B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E60E9D4-C5CE-43C3-B308-BBC1251094D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="137">
   <si>
     <t>Название</t>
   </si>
@@ -454,6 +454,12 @@
   </si>
   <si>
     <t>Выполнение и защита выпускной квалификационной работы (Final certification)</t>
+  </si>
+  <si>
+    <t>Если у предмета несколько групп компетенций, учитывать пересечение дважды (для 100% суммы)</t>
+  </si>
+  <si>
+    <t>Пояснение : если следующий параметр "да", то сумма процентного соотношения УК, ПК, ОПК и т.д. будет 100%, иначе, из-за пересечений, будет не менее 100%</t>
   </si>
 </sst>
 </file>
@@ -574,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -623,6 +629,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -941,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1012,45 +1021,43 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="9" t="s">
-        <v>86</v>
-      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1060,177 +1067,195 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>68</v>
+      <c r="A12" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>85</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
+      <c r="A13" s="22"/>
+      <c r="B13" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="5">
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="5">
-        <v>10</v>
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="B16" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="B17" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="5">
-        <v>2</v>
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>106</v>
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>125</v>
+        <v>93</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="5">
-        <v>5</v>
+        <v>126</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B29" s="13">
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-    </row>
-    <row r="29" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+    </row>
+    <row r="31" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B33" s="14" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A29:B29"/>
+  <mergeCells count="10">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1241,7 +1266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1631,11 +1656,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201EB376-9A91-4C62-87A7-86CD4F21E3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683D745A-FD04-484E-8814-B22712C5D4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="140">
   <si>
     <t>Название</t>
   </si>
@@ -463,6 +463,12 @@
   </si>
   <si>
     <t>Считать компетенцию отсутсвующей, если значение меньше X=</t>
+  </si>
+  <si>
+    <t>Удалить спецсимволы из наименования компетенции</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _</t>
   </si>
 </sst>
 </file>
@@ -953,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1110,7 +1116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>71</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>76</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>78</v>
       </c>
@@ -1134,7 +1140,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>88</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>119</v>
       </c>
@@ -1150,7 +1156,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>122</v>
       </c>
@@ -1158,7 +1164,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>90</v>
       </c>
@@ -1166,7 +1172,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>93</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>105</v>
       </c>
@@ -1182,7 +1188,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>126</v>
       </c>
@@ -1190,7 +1196,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>103</v>
       </c>
@@ -1198,7 +1204,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>111</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>117</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>137</v>
       </c>
@@ -1222,45 +1228,53 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-    </row>
-    <row r="32" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="16"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B35" s="14" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A32:B32"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A10:A11"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683D745A-FD04-484E-8814-B22712C5D4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073C18CD-B249-44CB-A8CE-67BACBB34F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -17,10 +17,11 @@
     <sheet name="Параметры вывода" sheetId="6" r:id="rId2"/>
     <sheet name="Псевдонимы" sheetId="2" r:id="rId3"/>
     <sheet name="Игнорируемые предметы" sheetId="8" r:id="rId4"/>
-    <sheet name="Компетенции(2)" sheetId="3" r:id="rId5"/>
-    <sheet name="Компетенции" sheetId="4" r:id="rId6"/>
-    <sheet name="ПланСвод" sheetId="5" r:id="rId7"/>
-    <sheet name="Инструкция Пользователя" sheetId="7" r:id="rId8"/>
+    <sheet name="Игнорируемые УП" sheetId="9" r:id="rId5"/>
+    <sheet name="Компетенции(2)" sheetId="3" r:id="rId6"/>
+    <sheet name="Компетенции" sheetId="4" r:id="rId7"/>
+    <sheet name="ПланСвод" sheetId="5" r:id="rId8"/>
+    <sheet name="Инструкция Пользователя" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="143">
   <si>
     <t>Название</t>
   </si>
@@ -469,6 +470,15 @@
   </si>
   <si>
     <t xml:space="preserve"> _</t>
+  </si>
+  <si>
+    <t>0904010006_OP-20.plm.plx.xlsx</t>
+  </si>
+  <si>
+    <t>Игнорируемые УП (название страницы)</t>
+  </si>
+  <si>
+    <t>Игнорируемые УП</t>
   </si>
 </sst>
 </file>
@@ -959,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1116,7 +1126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>71</v>
       </c>
@@ -1124,7 +1134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>76</v>
       </c>
@@ -1132,7 +1142,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>78</v>
       </c>
@@ -1140,7 +1150,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>88</v>
       </c>
@@ -1148,7 +1158,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>119</v>
       </c>
@@ -1156,7 +1166,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>122</v>
       </c>
@@ -1164,7 +1174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>90</v>
       </c>
@@ -1172,7 +1182,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>93</v>
       </c>
@@ -1180,7 +1190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>105</v>
       </c>
@@ -1188,7 +1198,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>126</v>
       </c>
@@ -1196,85 +1206,93 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B29" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="B29" s="13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
-        <v>137</v>
       </c>
       <c r="B30" s="13">
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-    </row>
-    <row r="33" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+    </row>
+    <row r="34" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+    <row r="35" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B36" s="14" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A33:B33"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A10:A11"/>
@@ -1607,7 +1625,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1666,6 +1684,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AEC7CB-5979-420D-BDFA-FE936176154C}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E4D0FA-305B-412E-8789-20EE846FCAE8}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1712,7 +1758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55C6971-C43C-4F39-A4CB-1671DB6EB818}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1740,7 +1786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F546BFA9-E331-4372-933F-E90B46BAF38E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1784,7 +1830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE973070-7C8A-47D0-A5B3-F5768C3C3395}">
   <dimension ref="A1:A5"/>
   <sheetViews>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073C18CD-B249-44CB-A8CE-67BACBB34F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBDD13E-5D6D-40BE-BBE4-BC8DB3466B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="147">
   <si>
     <t>Название</t>
   </si>
@@ -479,6 +479,18 @@
   </si>
   <si>
     <t>Игнорируемые УП</t>
+  </si>
+  <si>
+    <t>Максимальное ЗЕ у дисциплины</t>
+  </si>
+  <si>
+    <t>Выводить</t>
+  </si>
+  <si>
+    <t>Максимальные значения:</t>
+  </si>
+  <si>
+    <t>Минимальные значения:</t>
   </si>
 </sst>
 </file>
@@ -599,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -628,6 +640,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -971,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -985,20 +1000,20 @@
       <c r="A1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>59</v>
       </c>
       <c r="B2" t="s">
@@ -1012,7 +1027,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" t="s">
         <v>63</v>
       </c>
@@ -1040,11 +1055,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
@@ -1055,21 +1070,21 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B10" t="s">
@@ -1080,13 +1095,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>58</v>
       </c>
       <c r="B12" t="s">
@@ -1097,7 +1112,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="9" t="s">
         <v>86</v>
       </c>
@@ -1255,26 +1270,26 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
     </row>
     <row r="34" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="16"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -1307,64 +1322,116 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.8984375" customWidth="1"/>
     <col min="2" max="2" width="72.09765625" customWidth="1"/>
+    <col min="3" max="3" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>108</v>
       </c>
       <c r="B5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1727,11 +1794,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1801,12 +1868,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBDD13E-5D6D-40BE-BBE4-BC8DB3466B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFC0EB3-0129-4050-8DB7-2B95D031864B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="5256" yWindow="2376" windowWidth="22344" windowHeight="12660" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="155">
   <si>
     <t>Название</t>
   </si>
@@ -491,6 +491,30 @@
   </si>
   <si>
     <t>Минимальные значения:</t>
+  </si>
+  <si>
+    <t>NameCur</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>ExtAmount</t>
+  </si>
+  <si>
+    <t>ExtDisc</t>
+  </si>
+  <si>
+    <t>ZU</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1349,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1351,7 +1375,7 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
         <v>81</v>
@@ -1362,7 +1386,7 @@
         <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
         <v>81</v>
@@ -1373,7 +1397,7 @@
         <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>81</v>
@@ -1384,7 +1408,7 @@
         <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
         <v>81</v>
@@ -1395,7 +1419,7 @@
         <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -1406,7 +1430,7 @@
         <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
@@ -1417,7 +1441,7 @@
         <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -1428,7 +1452,7 @@
         <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
         <v>81</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFC0EB3-0129-4050-8DB7-2B95D031864B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E500B3-FDAD-4E5D-8873-5B2E967D8A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="2376" windowWidth="22344" windowHeight="12660" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="147">
   <si>
     <t>Название</t>
   </si>
@@ -365,9 +365,6 @@
   </si>
   <si>
     <t>(Расш.) Кол-во дисциплин в УП</t>
-  </si>
-  <si>
-    <t>(Расш.) Общее колв-о ЗЕ в УП</t>
   </si>
   <si>
     <t>Формула расчёта весов рёбер</t>
@@ -493,28 +490,7 @@
     <t>Минимальные значения:</t>
   </si>
   <si>
-    <t>NameCur</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>ExtAmount</t>
-  </si>
-  <si>
-    <t>ExtDisc</t>
-  </si>
-  <si>
-    <t>ZU</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Min</t>
+    <t>(Расш.) Общее кол-во ЗЕ в УП</t>
   </si>
 </sst>
 </file>
@@ -1080,14 +1056,14 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
         <v>81</v>
@@ -1199,18 +1175,18 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
         <v>119</v>
-      </c>
-      <c r="B21" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1239,18 +1215,18 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1263,7 +1239,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29" s="5">
         <v>5</v>
@@ -1271,7 +1247,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="13">
         <v>0.01</v>
@@ -1279,7 +1255,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B31" s="13">
         <v>0.01</v>
@@ -1287,10 +1263,10 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1302,7 +1278,7 @@
     </row>
     <row r="34" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="11"/>
@@ -1311,7 +1287,7 @@
     </row>
     <row r="35" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="11"/>
@@ -1320,10 +1296,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1349,7 +1325,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1364,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1375,7 +1351,7 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
         <v>81</v>
@@ -1386,7 +1362,7 @@
         <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
         <v>81</v>
@@ -1397,7 +1373,7 @@
         <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
         <v>81</v>
@@ -1405,10 +1381,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
         <v>81</v>
@@ -1419,7 +1395,7 @@
         <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -1427,10 +1403,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
@@ -1438,10 +1414,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -1449,10 +1425,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
         <v>81</v>
@@ -1731,42 +1707,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1794,7 +1770,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1936,27 +1912,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E500B3-FDAD-4E5D-8873-5B2E967D8A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43164C3B-F46C-4532-84F5-9C8A81F6F6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="150">
   <si>
     <t>Название</t>
   </si>
@@ -491,6 +491,15 @@
   </si>
   <si>
     <t>(Расш.) Общее кол-во ЗЕ в УП</t>
+  </si>
+  <si>
+    <t>Диаметр графа по количеству рёбер</t>
+  </si>
+  <si>
+    <t>Диаметр графа по расстоянию</t>
+  </si>
+  <si>
+    <t>Количество компонент связности</t>
   </si>
 </sst>
 </file>
@@ -1322,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1414,10 +1423,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -1425,12 +1434,45 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>145</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>145</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C12" t="s">
         <v>81</v>
       </c>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43164C3B-F46C-4532-84F5-9C8A81F6F6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0717A443-DC90-485D-9292-361CB52CD260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="151">
   <si>
     <t>Название</t>
   </si>
@@ -481,9 +481,6 @@
     <t>Максимальное ЗЕ у дисциплины</t>
   </si>
   <si>
-    <t>Выводить</t>
-  </si>
-  <si>
     <t>Максимальные значения:</t>
   </si>
   <si>
@@ -500,6 +497,12 @@
   </si>
   <si>
     <t>Количество компонент связности</t>
+  </si>
+  <si>
+    <t>Выводить в общих сведениях</t>
+  </si>
+  <si>
+    <t>Выводить в подробных сведениях</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -649,6 +652,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1009,20 +1015,20 @@
       <c r="A1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>59</v>
       </c>
       <c r="B2" t="s">
@@ -1036,7 +1042,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" t="s">
         <v>63</v>
       </c>
@@ -1064,11 +1070,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
@@ -1079,21 +1085,21 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="24" t="s">
         <v>57</v>
       </c>
       <c r="B10" t="s">
@@ -1104,13 +1110,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B12" t="s">
@@ -1121,7 +1127,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="9" t="s">
         <v>86</v>
       </c>
@@ -1279,26 +1285,26 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="18"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="17"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -1331,20 +1337,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.8984375" customWidth="1"/>
     <col min="2" max="2" width="72.09765625" customWidth="1"/>
-    <col min="3" max="3" width="22.796875" customWidth="1"/>
+    <col min="3" max="3" width="26.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1352,10 +1359,13 @@
         <v>123</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -1365,8 +1375,11 @@
       <c r="C2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -1376,8 +1389,11 @@
       <c r="C3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -1387,19 +1403,25 @@
       <c r="C4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -1409,8 +1431,11 @@
       <c r="C6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -1420,59 +1445,77 @@
       <c r="C7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>148</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>148</v>
       </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" t="s">
-        <v>149</v>
-      </c>
       <c r="C10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>144</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>144</v>
       </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" t="s">
-        <v>145</v>
-      </c>
       <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1836,11 +1879,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1910,12 +1953,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0717A443-DC90-485D-9292-361CB52CD260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E15273-E6ED-4266-95D0-82C367ED7A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="151">
   <si>
     <t>Название</t>
   </si>
@@ -469,9 +469,6 @@
     <t xml:space="preserve"> _</t>
   </si>
   <si>
-    <t>0904010006_OP-20.plm.plx.xlsx</t>
-  </si>
-  <si>
     <t>Игнорируемые УП (название страницы)</t>
   </si>
   <si>
@@ -503,6 +500,9 @@
   </si>
   <si>
     <t>Выводить в подробных сведениях</t>
+  </si>
+  <si>
+    <t>Минимальное оставное дерево</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1238,10 +1238,10 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -1337,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1359,10 +1359,10 @@
         <v>123</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>149</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1409,10 +1409,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
         <v>81</v>
@@ -1437,10 +1437,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
@@ -1451,10 +1451,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
         <v>81</v>
@@ -1465,10 +1465,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
         <v>81</v>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
         <v>81</v>
@@ -1493,10 +1493,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
         <v>81</v>
@@ -1507,15 +1507,29 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
         <v>81</v>
       </c>
       <c r="D12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1837,10 +1851,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AEC7CB-5979-420D-BDFA-FE936176154C}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1851,11 +1865,6 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E15273-E6ED-4266-95D0-82C367ED7A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F2A997-6440-4303-8A2C-13640D3CE1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="164">
   <si>
     <t>Название</t>
   </si>
@@ -244,13 +244,7 @@
     <t>Заголовок файла с рёбрами</t>
   </si>
   <si>
-    <t>Source,Target,Type,Kind,Id,Label,timeset,Weight</t>
-  </si>
-  <si>
     <t>Заголовок файла с названиями вершин</t>
-  </si>
-  <si>
-    <t>Id,Label</t>
   </si>
   <si>
     <t>Макс длина названия дисциплин</t>
@@ -397,119 +391,164 @@
     <t>Создавать ребро, если его вес больше X=</t>
   </si>
   <si>
+    <t>Регулярное выражение разбивки строки ([Компетенции(2)] Формируемые компетенции)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {0,1}(.{0,}?);</t>
+  </si>
+  <si>
+    <t>(.{1,})-</t>
+  </si>
+  <si>
+    <t>Регулярное выражение поиска заголовка компетенции</t>
+  </si>
+  <si>
+    <t>Все, что не выделено Полужирным, это редактируемые пользователем параметры</t>
+  </si>
+  <si>
+    <t>Вывод столбца (можно менять по необходимости, например, для локализации)</t>
+  </si>
+  <si>
+    <t>Игнорируемые предметы</t>
+  </si>
+  <si>
+    <t>Игнорируемые предметы (название страницы)</t>
+  </si>
+  <si>
+    <t>выполнение и защита выпускной квалификационной работы</t>
+  </si>
+  <si>
+    <t>Преддипломная  практика</t>
+  </si>
+  <si>
+    <t>Преддипломная практика</t>
+  </si>
+  <si>
+    <t>Преддипломная</t>
+  </si>
+  <si>
+    <t>Технологическая (проектно-технологическая) практика</t>
+  </si>
+  <si>
+    <t>Модуль 1. Производственно-технологический</t>
+  </si>
+  <si>
+    <t>Модуль 2. Организационно-управленческий</t>
+  </si>
+  <si>
+    <t>Выполнение и защита выпускной квалификационной работы (Final certification)</t>
+  </si>
+  <si>
+    <t>Если у предмета несколько групп компетенций, учитывать пересечение дважды (для 100% суммы)</t>
+  </si>
+  <si>
+    <t>Считать компетенцию отсутсвующей, если значение меньше X=</t>
+  </si>
+  <si>
+    <t>Удалить спецсимволы из наименования компетенции</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _</t>
+  </si>
+  <si>
+    <t>Игнорируемые УП (название страницы)</t>
+  </si>
+  <si>
+    <t>Игнорируемые УП</t>
+  </si>
+  <si>
+    <t>Максимальное ЗЕ у дисциплины</t>
+  </si>
+  <si>
+    <t>Максимальные значения:</t>
+  </si>
+  <si>
+    <t>Минимальные значения:</t>
+  </si>
+  <si>
+    <t>(Расш.) Общее кол-во ЗЕ в УП</t>
+  </si>
+  <si>
+    <t>Диаметр графа по количеству рёбер</t>
+  </si>
+  <si>
+    <t>Диаметр графа по расстоянию</t>
+  </si>
+  <si>
+    <t>Количество компонент связности</t>
+  </si>
+  <si>
+    <t>Выводить в общих сведениях</t>
+  </si>
+  <si>
+    <t>Выводить в подробных сведениях</t>
+  </si>
+  <si>
+    <t>Минимальное оставное дерево</t>
+  </si>
+  <si>
+    <t>Отображать компетенции в названии</t>
+  </si>
+  <si>
+    <t>Параметры для вывода в Gephi</t>
+  </si>
+  <si>
+    <t>Выводить короткое имя для УП</t>
+  </si>
+  <si>
+    <t>Максимальное оставное дерево</t>
+  </si>
+  <si>
+    <t>Id;Label</t>
+  </si>
+  <si>
+    <t>Source;Target;Type;Weight</t>
+  </si>
+  <si>
+    <t>Физические основы передачи данных и цифровая обработка сигналов</t>
+  </si>
+  <si>
+    <t>Физ осн передачи данных и ЦОС</t>
+  </si>
+  <si>
+    <t>Программируемые логические интегральные схемы. Дополнительные главы</t>
+  </si>
+  <si>
+    <t>ПЛИС. Доп</t>
+  </si>
+  <si>
+    <t>Организация научно-исследовательской и проектной деятельности</t>
+  </si>
+  <si>
+    <t>Орг. науч-иссл. и проект. деят.</t>
+  </si>
+  <si>
+    <t>"да", то сумма процентного соотношения УК, ПК, ОПК и т.д. будет 100%, иначе, из-за пересечений, будет не менее 100%</t>
+  </si>
+  <si>
     <t>В формуле расчёта весов ниже следующая легенда:
 L - ЗЕ левой вершины,
- R - ЗЕ правой вершины,
+R - ЗЕ правой вершины,
 A - суммарное кол-во ЗЕ,
 N - суммарное кол-во дисциплин,
 K - мощность пересечения по компетенциям
 Поддерживаются операторы: + - * / (^ степень) mod abs sin cos log</t>
   </si>
   <si>
-    <t>Регулярное выражение разбивки строки ([Компетенции(2)] Формируемые компетенции)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {0,1}(.{0,}?);</t>
-  </si>
-  <si>
-    <t>(.{1,})-</t>
-  </si>
-  <si>
-    <t>Регулярное выражение поиска заголовка компетенции</t>
-  </si>
-  <si>
-    <t>Все, что не выделено Полужирным, это редактируемые пользователем параметры</t>
-  </si>
-  <si>
-    <t>Вывод столбца (можно менять по необходимости, например, для локализации)</t>
-  </si>
-  <si>
-    <t>Игнорируемые предметы</t>
-  </si>
-  <si>
-    <t>Игнорируемые предметы (название страницы)</t>
-  </si>
-  <si>
-    <t>выполнение и защита выпускной квалификационной работы</t>
-  </si>
-  <si>
-    <t>Преддипломная  практика</t>
-  </si>
-  <si>
-    <t>Преддипломная практика</t>
-  </si>
-  <si>
-    <t>Преддипломная</t>
-  </si>
-  <si>
-    <t>Технологическая (проектно-технологическая) практика</t>
-  </si>
-  <si>
-    <t>Модуль 1. Производственно-технологический</t>
-  </si>
-  <si>
-    <t>Модуль 2. Организационно-управленческий</t>
-  </si>
-  <si>
-    <t>Выполнение и защита выпускной квалификационной работы (Final certification)</t>
-  </si>
-  <si>
-    <t>Если у предмета несколько групп компетенций, учитывать пересечение дважды (для 100% суммы)</t>
-  </si>
-  <si>
-    <t>Пояснение : если следующий параметр "да", то сумма процентного соотношения УК, ПК, ОПК и т.д. будет 100%, иначе, из-за пересечений, будет не менее 100%</t>
-  </si>
-  <si>
-    <t>Считать компетенцию отсутсвующей, если значение меньше X=</t>
-  </si>
-  <si>
-    <t>Удалить спецсимволы из наименования компетенции</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _</t>
-  </si>
-  <si>
-    <t>Игнорируемые УП (название страницы)</t>
-  </si>
-  <si>
-    <t>Игнорируемые УП</t>
-  </si>
-  <si>
-    <t>Максимальное ЗЕ у дисциплины</t>
-  </si>
-  <si>
-    <t>Максимальные значения:</t>
-  </si>
-  <si>
-    <t>Минимальные значения:</t>
-  </si>
-  <si>
-    <t>(Расш.) Общее кол-во ЗЕ в УП</t>
-  </si>
-  <si>
-    <t>Диаметр графа по количеству рёбер</t>
-  </si>
-  <si>
-    <t>Диаметр графа по расстоянию</t>
-  </si>
-  <si>
-    <t>Количество компонент связности</t>
-  </si>
-  <si>
-    <t>Выводить в общих сведениях</t>
-  </si>
-  <si>
-    <t>Выводить в подробных сведениях</t>
-  </si>
-  <si>
-    <t>Минимальное оставное дерево</t>
+    <t>Тип рёбер</t>
+  </si>
+  <si>
+    <t>Undirected</t>
+  </si>
+  <si>
+    <t>Граф неориентированный</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -558,8 +597,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,8 +632,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -619,11 +673,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -658,11 +721,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -677,10 +746,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -999,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1013,22 +1082,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+        <v>92</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="29" t="s">
         <v>59</v>
       </c>
       <c r="B2" t="s">
@@ -1042,7 +1111,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="29"/>
       <c r="B3" t="s">
         <v>63</v>
       </c>
@@ -1055,280 +1124,320 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>104</v>
+      <c r="A5" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" t="s">
         <v>82</v>
       </c>
-      <c r="C10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="9" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B14" t="s">
-        <v>69</v>
+      <c r="B14" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="B15" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="5">
-        <v>15</v>
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="5">
-        <v>10</v>
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" t="s">
-        <v>120</v>
+        <v>91</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" t="s">
-        <v>81</v>
+        <v>103</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="5">
-        <v>2</v>
+        <v>122</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>140</v>
+        <v>108</v>
+      </c>
+      <c r="B27" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>100</v>
+        <v>114</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.01</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="5">
-        <v>5</v>
+        <v>132</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.01</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="13">
-        <v>0.01</v>
+        <v>133</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="13">
-        <v>0.01</v>
+        <v>149</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>138</v>
+        <v>163</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-    </row>
-    <row r="34" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>114</v>
+      <c r="A36" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+    </row>
+    <row r="39" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A34:B34"/>
+  <mergeCells count="11">
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A38:C38"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1337,10 +1446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1356,181 +1465,195 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1540,9 +1663,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D30513-835A-4AE6-857E-98ABAAAB41D8}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1779,6 +1904,30 @@
       </c>
       <c r="B29" s="4" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1806,42 +1955,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1888,21 +2037,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="A1" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1934,12 +2083,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1962,25 +2111,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="A1" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2006,27 +2155,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F2A997-6440-4303-8A2C-13640D3CE1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177627A1-CCD0-45E6-9627-F70F6BB43434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="167">
   <si>
     <t>Название</t>
   </si>
@@ -542,6 +542,15 @@
   </si>
   <si>
     <t>Граф неориентированный</t>
+  </si>
+  <si>
+    <t>ЗЕ у компетенции</t>
+  </si>
+  <si>
+    <t>Предлог перед выводом результата мин. макс.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">у УП </t>
   </si>
 </sst>
 </file>
@@ -1068,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1354,89 +1363,97 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="27" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-    </row>
-    <row r="39" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+    </row>
+    <row r="40" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
+    <row r="41" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B42" s="14" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A38:C38"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1446,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1653,6 +1670,20 @@
         <v>79</v>
       </c>
       <c r="D14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
         <v>79</v>
       </c>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177627A1-CCD0-45E6-9627-F70F6BB43434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EEC1E7-ED43-4D0F-8002-45A4198BCCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -1079,7 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -1465,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EEC1E7-ED43-4D0F-8002-45A4198BCCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD9FA2E-A069-4732-BC09-8188B5B3622D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="169">
   <si>
     <t>Название</t>
   </si>
@@ -395,9 +395,6 @@
   </si>
   <si>
     <t xml:space="preserve"> {0,1}(.{0,}?);</t>
-  </si>
-  <si>
-    <t>(.{1,})-</t>
   </si>
   <si>
     <t>Регулярное выражение поиска заголовка компетенции</t>
@@ -551,6 +548,15 @@
   </si>
   <si>
     <t xml:space="preserve">у УП </t>
+  </si>
+  <si>
+    <t>(.{1,})-(.{1,})\.(.{1,})</t>
+  </si>
+  <si>
+    <t>Первая группа - компетенция, Вторая группа - номер компетенции, Третья группа - индикатор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗЕ у компетенции </t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1150,13 +1156,13 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
         <v>79</v>
@@ -1259,80 +1265,78 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>118</v>
+      <c r="A20" s="30" t="s">
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" t="s">
-        <v>79</v>
+      <c r="A21" s="30"/>
+      <c r="B21" s="9" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="5">
-        <v>2</v>
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="5">
-        <v>5</v>
+        <v>101</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0.01</v>
+        <v>108</v>
+      </c>
+      <c r="B28" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B29" s="13">
         <v>0.01</v>
@@ -1340,23 +1344,23 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" t="s">
-        <v>79</v>
+        <v>132</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B32" t="s">
         <v>79</v>
@@ -1364,97 +1368,106 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" t="s">
         <v>161</v>
       </c>
-      <c r="B38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-    </row>
-    <row r="40" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+    </row>
+    <row r="41" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+    <row r="42" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B43" s="14" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A39:C39"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1466,7 +1479,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1482,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>144</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1535,10 +1548,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -1563,10 +1576,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -1577,10 +1590,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
@@ -1591,10 +1604,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
         <v>79</v>
@@ -1605,10 +1618,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
         <v>79</v>
@@ -1619,10 +1632,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
@@ -1633,10 +1646,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
         <v>79</v>
@@ -1647,10 +1660,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
@@ -1661,10 +1674,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
@@ -1675,10 +1688,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
         <v>79</v>
@@ -1939,26 +1952,26 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>153</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>155</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1986,42 +1999,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2186,7 +2199,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD9FA2E-A069-4732-BC09-8188B5B3622D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5696985C-21F7-4D91-B6E1-822054C9952C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -397,9 +397,6 @@
     <t xml:space="preserve"> {0,1}(.{0,}?);</t>
   </si>
   <si>
-    <t>Регулярное выражение поиска заголовка компетенции</t>
-  </si>
-  <si>
     <t>Все, что не выделено Полужирным, это редактируемые пользователем параметры</t>
   </si>
   <si>
@@ -550,13 +547,16 @@
     <t xml:space="preserve">у УП </t>
   </si>
   <si>
-    <t>(.{1,})-(.{1,})\.(.{1,})</t>
-  </si>
-  <si>
     <t>Первая группа - компетенция, Вторая группа - номер компетенции, Третья группа - индикатор</t>
   </si>
   <si>
     <t xml:space="preserve">ЗЕ у компетенции </t>
+  </si>
+  <si>
+    <t>(.{1,})-(.{1,})\.(.{0,})</t>
+  </si>
+  <si>
+    <t>Регулярное выражение разбивки индикатора</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1156,13 +1156,13 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
         <v>79</v>
@@ -1266,16 +1266,16 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="B21" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1304,18 +1304,18 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1344,7 +1344,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" s="13">
         <v>0.01</v>
@@ -1352,15 +1352,15 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>132</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
         <v>79</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
         <v>79</v>
@@ -1376,22 +1376,22 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>164</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>79</v>
@@ -1402,7 +1402,7 @@
         <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1410,15 +1410,15 @@
         <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" t="s">
         <v>160</v>
-      </c>
-      <c r="B39" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1430,7 +1430,7 @@
     </row>
     <row r="41" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -1478,7 +1478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1495,13 +1495,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>143</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1548,10 +1548,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
         <v>79</v>
@@ -1590,10 +1590,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
@@ -1604,10 +1604,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
         <v>79</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
         <v>79</v>
@@ -1632,10 +1632,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
         <v>79</v>
@@ -1646,10 +1646,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
         <v>79</v>
@@ -1660,10 +1660,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
         <v>79</v>
@@ -1952,26 +1952,26 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>152</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>154</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>156</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1999,42 +1999,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2199,7 +2199,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5696985C-21F7-4D91-B6E1-822054C9952C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3DAD16-CF31-4904-AA98-3F8B7F85A694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="171">
   <si>
     <t>Название</t>
   </si>
@@ -553,17 +553,23 @@
     <t xml:space="preserve">ЗЕ у компетенции </t>
   </si>
   <si>
-    <t>(.{1,})-(.{1,})\.(.{0,})</t>
-  </si>
-  <si>
     <t>Регулярное выражение разбивки индикатора</t>
+  </si>
+  <si>
+    <t>Регулярное выражение разбивки компетенции</t>
+  </si>
+  <si>
+    <t>(\w{1,}).{1,}-(.{1,})\.(.{0,})</t>
+  </si>
+  <si>
+    <t>(\w{1,})\W{0,}-(.{1,})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -616,6 +622,14 @@
       <b/>
       <sz val="12"/>
       <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -701,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -742,6 +756,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1083,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1099,20 +1117,20 @@
       <c r="A1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>59</v>
       </c>
       <c r="B2" t="s">
@@ -1126,7 +1144,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
+      <c r="A3" s="31"/>
       <c r="B3" t="s">
         <v>63</v>
       </c>
@@ -1146,7 +1164,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>102</v>
       </c>
       <c r="B5" t="s">
@@ -1154,7 +1172,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="23" t="s">
         <v>157</v>
       </c>
@@ -1169,21 +1187,21 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>57</v>
       </c>
       <c r="B10" t="s">
@@ -1194,13 +1212,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>58</v>
       </c>
       <c r="B12" t="s">
@@ -1211,7 +1229,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="9" t="s">
         <v>84</v>
       </c>
@@ -1265,86 +1283,86 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
-        <v>168</v>
+      <c r="A20" s="32" t="s">
+        <v>167</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="9" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" t="s">
-        <v>79</v>
+      <c r="A22" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="5">
-        <v>2</v>
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>104</v>
+        <v>91</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="5">
-        <v>5</v>
+        <v>101</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" s="13">
-        <v>0.01</v>
+        <v>108</v>
+      </c>
+      <c r="B29" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B30" s="13">
         <v>0.01</v>
@@ -1352,23 +1370,23 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B32" t="s">
-        <v>79</v>
+        <v>131</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B33" t="s">
         <v>79</v>
@@ -1376,96 +1394,104 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B35" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="31" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-    </row>
-    <row r="41" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+    </row>
+    <row r="42" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
+    <row r="43" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B44" s="14" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A40:C40"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A20:A21"/>
   </mergeCells>
@@ -2081,11 +2107,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2155,12 +2181,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3DAD16-CF31-4904-AA98-3F8B7F85A694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B236C6-5E68-4482-8DB1-C74FB82A754B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="175">
   <si>
     <t>Название</t>
   </si>
@@ -212,12 +212,6 @@
   </si>
   <si>
     <t>История</t>
-  </si>
-  <si>
-    <t>Каталог данных УП</t>
-  </si>
-  <si>
-    <t>Каталог вывода результата</t>
   </si>
   <si>
     <t>Названия анализируемых страниц</t>
@@ -563,6 +557,24 @@
   </si>
   <si>
     <t>(\w{1,})\W{0,}-(.{1,})</t>
+  </si>
+  <si>
+    <t>Каталоги данных УП</t>
+  </si>
+  <si>
+    <t>Каталоги вывода результата</t>
+  </si>
+  <si>
+    <t>Разделитель между названием дисциплины и её курсом</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Суффикс названия альтернативного графа при выводе</t>
+  </si>
+  <si>
+    <t>Alt</t>
   </si>
 </sst>
 </file>
@@ -1101,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1115,10 +1127,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -1131,112 +1143,112 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>
       <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="32"/>
       <c r="B6" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
       <c r="B11" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="32"/>
       <c r="B13" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" s="5">
         <v>15</v>
@@ -1244,7 +1256,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B15" s="5">
         <v>10</v>
@@ -1252,69 +1264,69 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" t="s">
         <v>167</v>
-      </c>
-      <c r="B20" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="32"/>
       <c r="B21" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>168</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
@@ -1322,39 +1334,39 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B29" s="5">
         <v>5</v>
@@ -1362,7 +1374,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B30" s="13">
         <v>0.01</v>
@@ -1370,7 +1382,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B31" s="13">
         <v>0.01</v>
@@ -1378,120 +1390,136 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
+      <c r="A36" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
-        <v>145</v>
+      <c r="A37" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" t="s">
-        <v>149</v>
-      </c>
+      <c r="A38" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" t="s">
-        <v>150</v>
+        <v>143</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-    </row>
-    <row r="42" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="26" t="s">
+      <c r="A41" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>112</v>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+    </row>
+    <row r="44" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A43:C43"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A20:A21"/>
   </mergeCells>
@@ -1521,209 +1549,209 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1978,26 +2006,26 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2025,42 +2053,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2108,25 +2136,25 @@
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2153,12 +2181,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2182,7 +2210,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -2190,16 +2218,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2225,27 +2253,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B236C6-5E68-4482-8DB1-C74FB82A754B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DE9A4C-4BAF-4E69-9E4D-44B896D14E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
     <sheet name="Параметры вывода" sheetId="6" r:id="rId2"/>
-    <sheet name="Псевдонимы" sheetId="2" r:id="rId3"/>
-    <sheet name="Игнорируемые предметы" sheetId="8" r:id="rId4"/>
-    <sheet name="Игнорируемые УП" sheetId="9" r:id="rId5"/>
-    <sheet name="Компетенции(2)" sheetId="3" r:id="rId6"/>
-    <sheet name="Компетенции" sheetId="4" r:id="rId7"/>
-    <sheet name="ПланСвод" sheetId="5" r:id="rId8"/>
-    <sheet name="Инструкция Пользователя" sheetId="7" r:id="rId9"/>
+    <sheet name="Параметры расширенного вывода" sheetId="10" r:id="rId3"/>
+    <sheet name="Псевдонимы" sheetId="2" r:id="rId4"/>
+    <sheet name="Игнорируемые предметы" sheetId="8" r:id="rId5"/>
+    <sheet name="Игнорируемые УП" sheetId="9" r:id="rId6"/>
+    <sheet name="Компетенции(2)" sheetId="3" r:id="rId7"/>
+    <sheet name="Компетенции" sheetId="4" r:id="rId8"/>
+    <sheet name="ПланСвод" sheetId="5" r:id="rId9"/>
+    <sheet name="Инструкция Пользователя" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="185">
   <si>
     <t>Название</t>
   </si>
@@ -553,9 +554,6 @@
     <t>Регулярное выражение разбивки компетенции</t>
   </si>
   <si>
-    <t>(\w{1,}).{1,}-(.{1,})\.(.{0,})</t>
-  </si>
-  <si>
     <t>(\w{1,})\W{0,}-(.{1,})</t>
   </si>
   <si>
@@ -575,6 +573,39 @@
   </si>
   <si>
     <t>Alt</t>
+  </si>
+  <si>
+    <t>Псевдоним</t>
+  </si>
+  <si>
+    <t>Название компетенции</t>
+  </si>
+  <si>
+    <t>Компетенция</t>
+  </si>
+  <si>
+    <t>Параметры расширенного вывода (название страницы)</t>
+  </si>
+  <si>
+    <t>Параметры расширенного вывода</t>
+  </si>
+  <si>
+    <t>Процент распределения</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>За какой курс</t>
+  </si>
+  <si>
+    <t>Все курсы</t>
+  </si>
+  <si>
+    <t>Надпись при выводе информации о всех курсах</t>
+  </si>
+  <si>
+    <t>(\w{1,}).{0,}-(.{1,})\.(.{0,})</t>
   </si>
 </sst>
 </file>
@@ -727,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -772,6 +803,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1113,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1129,20 +1161,20 @@
       <c r="A1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>57</v>
       </c>
       <c r="B2" t="s">
@@ -1156,7 +1188,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="B3" t="s">
         <v>61</v>
       </c>
@@ -1176,7 +1208,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="26" t="s">
         <v>100</v>
       </c>
       <c r="B5" t="s">
@@ -1184,37 +1216,37 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
-        <v>169</v>
+      <c r="A10" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -1224,14 +1256,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>170</v>
+      <c r="A12" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>81</v>
@@ -1241,7 +1273,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="9" t="s">
         <v>82</v>
       </c>
@@ -1295,15 +1327,15 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="9" t="s">
         <v>163</v>
       </c>
@@ -1313,7 +1345,7 @@
         <v>166</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1342,47 +1374,47 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="5">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="13">
-        <v>0.01</v>
+        <v>106</v>
+      </c>
+      <c r="B30" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B31" s="13">
         <v>0.01</v>
@@ -1390,23 +1422,23 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" t="s">
-        <v>77</v>
+        <v>129</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
@@ -1414,117 +1446,177 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" t="s">
-        <v>147</v>
-      </c>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-    </row>
-    <row r="44" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="26" t="s">
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+    </row>
+    <row r="46" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B48" s="14" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A45:C45"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A43:C43"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A40:C40"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE973070-7C8A-47D0-A5B3-F5768C3C3395}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="8.796875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1532,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1760,11 +1852,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D30513-835A-4AE6-857E-98ABAAAB41D8}">
-  <dimension ref="A1:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48B31D4-AE50-4CB5-9904-DE1BA8BD2BC3}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1777,6 +1869,73 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D30513-835A-4AE6-857E-98ABAAAB41D8}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="27.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2033,7 +2192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE7B04-49FC-44AC-A9A9-144B494E3553}">
   <dimension ref="A1:A9"/>
   <sheetViews>
@@ -2096,7 +2255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AEC7CB-5979-420D-BDFA-FE936176154C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2119,7 +2278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E4D0FA-305B-412E-8789-20EE846FCAE8}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2135,11 +2294,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2166,7 +2325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55C6971-C43C-4F39-A4CB-1671DB6EB818}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2194,7 +2353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F546BFA9-E331-4372-933F-E90B46BAF38E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2209,12 +2368,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2236,48 +2395,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE973070-7C8A-47D0-A5B3-F5768C3C3395}">
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="8.796875" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DE9A4C-4BAF-4E69-9E4D-44B896D14E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0CAFE0-FC5F-4353-818E-4DC8ACD50FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-28200" yWindow="4236" windowWidth="22344" windowHeight="12660" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="190">
   <si>
     <t>Название</t>
   </si>
@@ -578,9 +578,6 @@
     <t>Псевдоним</t>
   </si>
   <si>
-    <t>Название компетенции</t>
-  </si>
-  <si>
     <t>Компетенция</t>
   </si>
   <si>
@@ -590,9 +587,6 @@
     <t>Параметры расширенного вывода</t>
   </si>
   <si>
-    <t>Процент распределения</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -606,6 +600,27 @@
   </si>
   <si>
     <t>(\w{1,}).{0,}-(.{1,})\.(.{0,})</t>
+  </si>
+  <si>
+    <t>Процент распределения Индекса</t>
+  </si>
+  <si>
+    <t>Процент распределения Заголовка компетенции</t>
+  </si>
+  <si>
+    <t>Процент распределения Компетенции</t>
+  </si>
+  <si>
+    <t>Заголовок компетенции</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>Выводить процентную долю индикатора от всех ЗЕ УП</t>
+  </si>
+  <si>
+    <t>"да", то будет выведен % распределения индикатора относительно всех ЗЕ учебного плана, иначе, будет выведена % доля относительно компетенции (родительского тега)</t>
   </si>
 </sst>
 </file>
@@ -758,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -804,6 +819,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1145,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1161,20 +1179,20 @@
       <c r="A1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="35" t="s">
         <v>57</v>
       </c>
       <c r="B2" t="s">
@@ -1188,7 +1206,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
+      <c r="A3" s="35"/>
       <c r="B3" t="s">
         <v>61</v>
       </c>
@@ -1216,7 +1234,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>127</v>
       </c>
       <c r="B6" t="s">
@@ -1225,351 +1243,366 @@
       <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="23" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
+      <c r="B9" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B15" t="s">
         <v>78</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="9" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
+      <c r="B16" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B17" t="s">
         <v>81</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="9" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B19" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B20" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="B20" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="9" t="s">
+      <c r="B25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="36"/>
+      <c r="B26" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B27" s="25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B28" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" s="13">
-        <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>130</v>
+        <v>99</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" t="s">
-        <v>77</v>
+        <v>106</v>
+      </c>
+      <c r="B34" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B35" t="s">
-        <v>77</v>
+        <v>112</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.01</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>162</v>
+        <v>128</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.01</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B41" s="13" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="34" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" t="s">
-        <v>147</v>
-      </c>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="30" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-    </row>
-    <row r="46" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="27" t="s">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+    </row>
+    <row r="48" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-    </row>
-    <row r="47" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="28" t="s">
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B50" s="14" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A46:C46"/>
+  <mergeCells count="13">
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A47:C47"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A45:C45"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1853,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48B31D4-AE50-4CB5-9904-DE1BA8BD2BC3}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1874,42 +1907,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
+      <c r="A5" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2294,11 +2343,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2368,12 +2417,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0CAFE0-FC5F-4353-818E-4DC8ACD50FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA96E72-D778-47C3-BD0D-8F7BDC635C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28200" yWindow="4236" windowWidth="22344" windowHeight="12660" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
-    <sheet name="Параметры вывода" sheetId="6" r:id="rId2"/>
-    <sheet name="Параметры расширенного вывода" sheetId="10" r:id="rId3"/>
-    <sheet name="Псевдонимы" sheetId="2" r:id="rId4"/>
-    <sheet name="Игнорируемые предметы" sheetId="8" r:id="rId5"/>
-    <sheet name="Игнорируемые УП" sheetId="9" r:id="rId6"/>
-    <sheet name="Компетенции(2)" sheetId="3" r:id="rId7"/>
-    <sheet name="Компетенции" sheetId="4" r:id="rId8"/>
-    <sheet name="ПланСвод" sheetId="5" r:id="rId9"/>
-    <sheet name="Инструкция Пользователя" sheetId="7" r:id="rId10"/>
+    <sheet name="Инструкция Пользователя" sheetId="7" r:id="rId2"/>
+    <sheet name="Параметры вывода" sheetId="6" r:id="rId3"/>
+    <sheet name="Параметры расширенного вывода" sheetId="10" r:id="rId4"/>
+    <sheet name="Псевдонимы" sheetId="2" r:id="rId5"/>
+    <sheet name="Игнорируемые предметы" sheetId="8" r:id="rId6"/>
+    <sheet name="Игнорируемые УП" sheetId="9" r:id="rId7"/>
+    <sheet name="Компетенции(2)" sheetId="3" r:id="rId8"/>
+    <sheet name="Компетенции" sheetId="4" r:id="rId9"/>
+    <sheet name="ПланСвод" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="188">
   <si>
     <t>Название</t>
   </si>
@@ -279,12 +279,6 @@
   </si>
   <si>
     <t>plans\grad</t>
-  </si>
-  <si>
-    <t>plans\spec</t>
-  </si>
-  <si>
-    <t>result\spec</t>
   </si>
   <si>
     <t>result\grad</t>
@@ -1166,7 +1160,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1177,10 +1171,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
@@ -1227,15 +1221,15 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -1245,26 +1239,26 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="36"/>
       <c r="B7" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -1272,7 +1266,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -1280,181 +1274,175 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="A13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s">
         <v>78</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="36"/>
+      <c r="B17" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B20" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B21" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B34" s="5">
         <v>5</v>
@@ -1462,7 +1450,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B35" s="13">
         <v>0.01</v>
@@ -1470,7 +1458,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B36" s="13">
         <v>0.01</v>
@@ -1478,54 +1466,54 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>77</v>
@@ -1536,7 +1524,7 @@
         <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1544,27 +1532,27 @@
         <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
     </row>
     <row r="48" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -1573,7 +1561,7 @@
     </row>
     <row r="49" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
@@ -1582,10 +1570,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1595,10 +1583,10 @@
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A6:A7"/>
@@ -1610,6 +1598,50 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F546BFA9-E331-4372-933F-E90B46BAF38E}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.09765625" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE973070-7C8A-47D0-A5B3-F5768C3C3395}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1624,27 +1656,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +1685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -1674,21 +1706,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
@@ -1699,10 +1731,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
@@ -1713,10 +1745,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -1727,10 +1759,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -1741,10 +1773,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -1755,10 +1787,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
         <v>77</v>
@@ -1769,10 +1801,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
         <v>77</v>
@@ -1783,10 +1815,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
@@ -1797,10 +1829,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>77</v>
@@ -1811,10 +1843,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
         <v>77</v>
@@ -1825,10 +1857,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
         <v>77</v>
@@ -1839,10 +1871,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
         <v>77</v>
@@ -1853,10 +1885,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
         <v>77</v>
@@ -1867,10 +1899,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
         <v>77</v>
@@ -1884,7 +1916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48B31D4-AE50-4CB5-9904-DE1BA8BD2BC3}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -1902,47 +1934,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1955,10 +1987,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1967,7 +1999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D30513-835A-4AE6-857E-98ABAAAB41D8}">
   <dimension ref="A1:B32"/>
   <sheetViews>
@@ -2214,26 +2246,26 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2241,7 +2273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE7B04-49FC-44AC-A9A9-144B494E3553}">
   <dimension ref="A1:A9"/>
   <sheetViews>
@@ -2261,42 +2293,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2304,7 +2336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AEC7CB-5979-420D-BDFA-FE936176154C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2327,7 +2359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E4D0FA-305B-412E-8789-20EE846FCAE8}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2344,7 +2376,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -2374,7 +2406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55C6971-C43C-4F39-A4CB-1671DB6EB818}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -2389,7 +2421,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -2400,48 +2432,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F546BFA9-E331-4372-933F-E90B46BAF38E}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.09765625" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA96E72-D778-47C3-BD0D-8F7BDC635C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42569210-E79C-40F6-9F38-13055ECE0117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-28200" yWindow="4236" windowWidth="22344" windowHeight="12660" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1224,7 +1224,7 @@
         <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1285,7 +1285,7 @@
         <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42569210-E79C-40F6-9F38-13055ECE0117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287E2006-36A8-4274-92F2-C881F7DECF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28200" yWindow="4236" windowWidth="22344" windowHeight="12660" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="190">
   <si>
     <t>Название</t>
   </si>
@@ -276,12 +276,6 @@
   </si>
   <si>
     <t>да</t>
-  </si>
-  <si>
-    <t>plans\grad</t>
-  </si>
-  <si>
-    <t>result\grad</t>
   </si>
   <si>
     <t>В полном пути не должно быть кириллицы.</t>
@@ -615,6 +609,18 @@
   </si>
   <si>
     <t>"да", то будет выведен % распределения индикатора относительно всех ЗЕ учебного плана, иначе, будет выведена % доля относительно компетенции (родительского тега)</t>
+  </si>
+  <si>
+    <t>plans\test1</t>
+  </si>
+  <si>
+    <t>result\test1</t>
+  </si>
+  <si>
+    <t>plans\test2</t>
+  </si>
+  <si>
+    <t>result\test2</t>
   </si>
 </sst>
 </file>
@@ -1160,7 +1166,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1171,10 +1177,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
@@ -1221,7 +1227,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -1229,7 +1235,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -1239,26 +1245,26 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="36"/>
       <c r="B7" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
       <c r="B9" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -1266,7 +1272,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -1274,7 +1280,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -1282,7 +1288,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -1290,47 +1296,53 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
       <c r="B19" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>66</v>
       </c>
@@ -1338,7 +1350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>67</v>
       </c>
@@ -1346,7 +1358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>72</v>
       </c>
@@ -1354,7 +1366,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>74</v>
       </c>
@@ -1362,87 +1374,87 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
       <c r="B26" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B28" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B34" s="5">
         <v>5</v>
@@ -1450,7 +1462,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B35" s="13">
         <v>0.01</v>
@@ -1458,7 +1470,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B36" s="13">
         <v>0.01</v>
@@ -1466,54 +1478,54 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>77</v>
@@ -1524,7 +1536,7 @@
         <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1532,27 +1544,27 @@
         <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
     </row>
     <row r="48" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -1561,7 +1573,7 @@
     </row>
     <row r="49" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B49" s="31"/>
       <c r="C49" s="31"/>
@@ -1570,10 +1582,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +1625,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1627,10 +1639,10 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1656,27 +1668,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1706,21 +1718,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
@@ -1731,10 +1743,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
@@ -1745,10 +1757,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -1759,10 +1771,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -1773,10 +1785,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -1787,10 +1799,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
         <v>77</v>
@@ -1801,10 +1813,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
         <v>77</v>
@@ -1815,10 +1827,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
@@ -1829,10 +1841,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
         <v>77</v>
@@ -1843,10 +1855,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
         <v>77</v>
@@ -1857,10 +1869,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
         <v>77</v>
@@ -1871,10 +1883,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
         <v>77</v>
@@ -1885,10 +1897,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
         <v>77</v>
@@ -1899,10 +1911,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
         <v>77</v>
@@ -1934,47 +1946,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1987,10 +1999,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2246,26 +2258,26 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2293,42 +2305,42 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2376,7 +2388,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -2421,7 +2433,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287E2006-36A8-4274-92F2-C881F7DECF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37245173-BE2F-4CEA-AF3B-8BEB6D82172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="5" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="194">
   <si>
     <t>Название</t>
   </si>
@@ -602,9 +602,6 @@
     <t>Заголовок компетенции</t>
   </si>
   <si>
-    <t>нет</t>
-  </si>
-  <si>
     <t>Выводить процентную долю индикатора от всех ЗЕ УП</t>
   </si>
   <si>
@@ -621,13 +618,28 @@
   </si>
   <si>
     <t>result\test2</t>
+  </si>
+  <si>
+    <t>Выводить графы по курсам</t>
+  </si>
+  <si>
+    <t>Прикладные информационные системы</t>
+  </si>
+  <si>
+    <t>Информационное общество и проблемы прикладной информатики</t>
+  </si>
+  <si>
+    <t>Основы академического письма</t>
+  </si>
+  <si>
+    <t>История вычислительной техники</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -691,6 +703,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -770,8 +788,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -850,8 +869,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{E090EB5D-F7C8-4C96-B947-8D226499C445}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1163,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1234,45 +1254,45 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="36"/>
+      <c r="B8" s="23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
+      <c r="B10" s="23" t="s">
         <v>184</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="23" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -1280,7 +1300,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -1288,321 +1308,329 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" t="s">
         <v>186</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="9" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="9" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="B18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="5">
-        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="B22" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="9" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="36"/>
+      <c r="B27" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B28" s="25" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="5">
-        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>98</v>
+        <v>85</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B35" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="B35" s="13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="B36" s="13">
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B38" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B39" s="13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B40" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B41" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B42" s="13" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="37" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
+      <c r="B44" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="18" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="33" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-    </row>
-    <row r="48" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="30" t="s">
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+    </row>
+    <row r="49" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
+    <row r="50" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B51" s="14" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A47:C47"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2287,10 +2315,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE7B04-49FC-44AC-A9A9-144B494E3553}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2341,6 +2369,26 @@
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37245173-BE2F-4CEA-AF3B-8BEB6D82172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E6B691-07C2-4999-B411-82DA5F5FED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="5" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="210">
   <si>
     <t>Название</t>
   </si>
@@ -527,15 +527,9 @@
     <t>Предлог перед выводом результата мин. макс.</t>
   </si>
   <si>
-    <t xml:space="preserve">у УП </t>
-  </si>
-  <si>
     <t>Первая группа - компетенция, Вторая группа - номер компетенции, Третья группа - индикатор</t>
   </si>
   <si>
-    <t xml:space="preserve">ЗЕ у компетенции </t>
-  </si>
-  <si>
     <t>Регулярное выражение разбивки индикатора</t>
   </si>
   <si>
@@ -608,18 +602,6 @@
     <t>"да", то будет выведен % распределения индикатора относительно всех ЗЕ учебного плана, иначе, будет выведена % доля относительно компетенции (родительского тега)</t>
   </si>
   <si>
-    <t>plans\test1</t>
-  </si>
-  <si>
-    <t>result\test1</t>
-  </si>
-  <si>
-    <t>plans\test2</t>
-  </si>
-  <si>
-    <t>result\test2</t>
-  </si>
-  <si>
     <t>Выводить графы по курсам</t>
   </si>
   <si>
@@ -633,6 +615,72 @@
   </si>
   <si>
     <t>История вычислительной техники</t>
+  </si>
+  <si>
+    <t>plans\spec</t>
+  </si>
+  <si>
+    <t>result\spec</t>
+  </si>
+  <si>
+    <t>on Cur</t>
+  </si>
+  <si>
+    <t>у УП</t>
+  </si>
+  <si>
+    <t>Name Curricula</t>
+  </si>
+  <si>
+    <t>Total credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount </t>
+  </si>
+  <si>
+    <t>(Ext.) Total credit with optional</t>
+  </si>
+  <si>
+    <t>(Ext.) Amount with optional</t>
+  </si>
+  <si>
+    <t>Max credit</t>
+  </si>
+  <si>
+    <t>Graph diameter by distance</t>
+  </si>
+  <si>
+    <t>Graph diameter by ribs</t>
+  </si>
+  <si>
+    <t>Num connectivity</t>
+  </si>
+  <si>
+    <t>Min spanning tree</t>
+  </si>
+  <si>
+    <t>Max spanning tree</t>
+  </si>
+  <si>
+    <t>Max value</t>
+  </si>
+  <si>
+    <t>Min value</t>
+  </si>
+  <si>
+    <t>Credit on competence</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Competence</t>
+  </si>
+  <si>
+    <t>Index</t>
   </si>
 </sst>
 </file>
@@ -1185,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1255,7 +1303,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -1278,7 +1326,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>77</v>
@@ -1287,7 +1335,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="36"/>
       <c r="B10" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1336,41 +1384,35 @@
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>66</v>
       </c>
@@ -1378,7 +1420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>67</v>
       </c>
@@ -1386,7 +1428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>72</v>
       </c>
@@ -1394,7 +1436,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>74</v>
       </c>
@@ -1402,7 +1444,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>109</v>
       </c>
@@ -1410,29 +1452,29 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
       <c r="B27" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>85</v>
       </c>
@@ -1440,7 +1482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>97</v>
       </c>
@@ -1448,15 +1490,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>114</v>
       </c>
@@ -1517,31 +1559,34 @@
         <v>157</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>158</v>
+        <v>190</v>
+      </c>
+      <c r="C39" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1685,7 +1730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE973070-7C8A-47D0-A5B3-F5768C3C3395}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -1730,7 +1775,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1760,7 +1805,7 @@
         <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
@@ -1774,7 +1819,7 @@
         <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
@@ -1788,7 +1833,7 @@
         <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -1802,7 +1847,7 @@
         <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
@@ -1816,7 +1861,7 @@
         <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
@@ -1830,7 +1875,7 @@
         <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
         <v>77</v>
@@ -1844,7 +1889,7 @@
         <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
         <v>77</v>
@@ -1858,7 +1903,7 @@
         <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
@@ -1872,7 +1917,7 @@
         <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
         <v>77</v>
@@ -1886,7 +1931,7 @@
         <v>138</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
         <v>77</v>
@@ -1900,7 +1945,7 @@
         <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>202</v>
       </c>
       <c r="C12" t="s">
         <v>77</v>
@@ -1914,7 +1959,7 @@
         <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="C13" t="s">
         <v>77</v>
@@ -1928,7 +1973,7 @@
         <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="C14" t="s">
         <v>77</v>
@@ -1942,7 +1987,7 @@
         <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="C15" t="s">
         <v>77</v>
@@ -1961,7 +2006,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1974,47 +2019,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2022,15 +2067,15 @@
         <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2317,7 +2362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE7B04-49FC-44AC-A9A9-144B494E3553}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -2373,22 +2418,22 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E6B691-07C2-4999-B411-82DA5F5FED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3648B3-830A-40A1-8893-8BACFF974610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="996" yWindow="3948" windowWidth="22344" windowHeight="12660" activeTab="5" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="231">
   <si>
     <t>Название</t>
   </si>
@@ -617,12 +617,6 @@
     <t>История вычислительной техники</t>
   </si>
   <si>
-    <t>plans\spec</t>
-  </si>
-  <si>
-    <t>result\spec</t>
-  </si>
-  <si>
     <t>on Cur</t>
   </si>
   <si>
@@ -668,9 +662,6 @@
     <t>Min value</t>
   </si>
   <si>
-    <t>Credit on competence</t>
-  </si>
-  <si>
     <t>Course</t>
   </si>
   <si>
@@ -681,12 +672,87 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>plans\t1</t>
+  </si>
+  <si>
+    <t>result\t1</t>
+  </si>
+  <si>
+    <t>Указание подстроки, для определения основной дисциплины, дисциплины по выбору или факультатива (если не опознано, то считается основной дисциплиной по умолчанию)</t>
+  </si>
+  <si>
+    <t>Определение вида дисциплины</t>
+  </si>
+  <si>
+    <t>Основные дисциплины</t>
+  </si>
+  <si>
+    <t>Дисциплины по выбору</t>
+  </si>
+  <si>
+    <t>В</t>
+  </si>
+  <si>
+    <t>О</t>
+  </si>
+  <si>
+    <t>ФТД</t>
+  </si>
+  <si>
+    <t>Факультативы</t>
+  </si>
+  <si>
+    <t>Считать кол-во ЗЕ аномально большим, если его значение больше X=</t>
+  </si>
+  <si>
+    <t>Считать ли метрики</t>
+  </si>
+  <si>
+    <t>альтернативного графа</t>
+  </si>
+  <si>
+    <t>основного графа</t>
+  </si>
+  <si>
+    <t>графа для отдельного курса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit on competence </t>
+  </si>
+  <si>
+    <t>Минимальное ЗЕ у дисциплины</t>
+  </si>
+  <si>
+    <t>Min credit</t>
+  </si>
+  <si>
+    <t>Минимальный вес ребра</t>
+  </si>
+  <si>
+    <t>Максимальный вес ребра</t>
+  </si>
+  <si>
+    <t>Min weigth on edge</t>
+  </si>
+  <si>
+    <t>Max weigth on edge</t>
+  </si>
+  <si>
+    <t>Прикладная физическая культура  и спорт</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -840,7 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -889,6 +955,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -896,12 +971,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1231,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1247,20 +1316,20 @@
       <c r="A1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>57</v>
       </c>
       <c r="B2" t="s">
@@ -1274,7 +1343,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
+      <c r="A3" s="36"/>
       <c r="B3" t="s">
         <v>61</v>
       </c>
@@ -1310,22 +1379,22 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="37" t="s">
         <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="23" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>181</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -1333,7 +1402,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="23" t="s">
         <v>182</v>
       </c>
@@ -1371,311 +1440,379 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
+      <c r="B16" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
+      <c r="B18" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
+      <c r="B19" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="B17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="9" t="s">
+      <c r="B22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="37"/>
+      <c r="B23" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="B19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="9" t="s">
+      <c r="B24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="37"/>
+      <c r="B25" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B26" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B27" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
-      <c r="B27" s="9" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="37"/>
+      <c r="B32" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B33" s="25" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="B34" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="5">
-        <v>5</v>
+        <v>97</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="13">
-        <v>0.01</v>
+        <v>170</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" s="13">
-        <v>0.01</v>
+        <v>114</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" t="s">
-        <v>191</v>
+        <v>95</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>174</v>
+        <v>102</v>
+      </c>
+      <c r="B40" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>165</v>
+        <v>108</v>
+      </c>
+      <c r="B41" s="30">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="30">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B48" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="37" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
+      <c r="B50" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B51" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="18" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B52" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B53" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="33" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-    </row>
-    <row r="49" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="30" t="s">
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+    </row>
+    <row r="55" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="31" t="s">
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1697,12 +1834,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1730,7 +1867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE973070-7C8A-47D0-A5B3-F5768C3C3395}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -1772,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1805,13 +1942,13 @@
         <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1819,7 +1956,7 @@
         <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
@@ -1833,7 +1970,7 @@
         <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
@@ -1847,13 +1984,13 @@
         <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1861,21 +1998,21 @@
         <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C6" t="s">
         <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
         <v>77</v>
@@ -1886,10 +2023,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C8" t="s">
         <v>77</v>
@@ -1900,10 +2037,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
         <v>77</v>
@@ -1914,10 +2051,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="C10" t="s">
         <v>77</v>
@@ -1928,10 +2065,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C11" t="s">
         <v>77</v>
@@ -1942,10 +2079,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
         <v>77</v>
@@ -1956,10 +2093,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
         <v>77</v>
@@ -1970,10 +2107,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
         <v>77</v>
@@ -1984,15 +2121,57 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>156</v>
       </c>
-      <c r="B15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2027,7 +2206,7 @@
         <v>173</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2035,7 +2214,7 @@
         <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2051,7 +2230,7 @@
         <v>169</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2067,7 +2246,7 @@
         <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2360,10 +2539,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE7B04-49FC-44AC-A9A9-144B494E3553}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2436,8 +2615,19 @@
         <v>187</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2480,11 +2670,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3648B3-830A-40A1-8893-8BACFF974610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41AC2D5-BB47-4182-BF9C-D15D0AC2F3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="996" yWindow="3948" windowWidth="22344" windowHeight="12660" activeTab="5" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="235">
   <si>
     <t>Название</t>
   </si>
@@ -744,6 +744,18 @@
   </si>
   <si>
     <t>Прикладная физическая культура  и спорт</t>
+  </si>
+  <si>
+    <t>Amount of basic</t>
+  </si>
+  <si>
+    <t>Amount of elective</t>
+  </si>
+  <si>
+    <t>Amount of  optional</t>
+  </si>
+  <si>
+    <t>Названия видов дисциплин при выводе количества</t>
   </si>
 </sst>
 </file>
@@ -1300,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1498,39 +1510,51 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1540,279 +1564,294 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="5">
-        <v>15</v>
+      <c r="A26" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="5">
-        <v>10</v>
+      <c r="A27" s="37"/>
+      <c r="B27" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="B28" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" t="s">
-        <v>75</v>
+        <v>67</v>
+      </c>
+      <c r="B29" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
-      <c r="B32" s="9" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="37"/>
+      <c r="B34" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B35" s="25" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>171</v>
+        <v>85</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="5">
-        <v>5</v>
+        <v>127</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="30">
-        <v>1E-3</v>
+        <v>95</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="30">
-        <v>1E-3</v>
+        <v>102</v>
+      </c>
+      <c r="B42" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="B43" s="13">
-        <v>40</v>
+        <v>108</v>
+      </c>
+      <c r="B43" s="30">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="B44" s="30">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C45" t="s">
-        <v>189</v>
+        <v>218</v>
+      </c>
+      <c r="B45" s="13">
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>165</v>
+        <v>188</v>
+      </c>
+      <c r="C47" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B50" s="13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" t="s">
-        <v>143</v>
-      </c>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B55" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="31" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-    </row>
-    <row r="55" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="33" t="s">
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+    </row>
+    <row r="57" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-    </row>
-    <row r="56" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="34" t="s">
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="19" t="s">
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A55:C55"/>
+  <mergeCells count="16">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A56:C56"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A54:C54"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1912,7 +1951,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1952,16 +1991,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1980,16 +2019,16 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2008,16 +2047,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2036,16 +2075,16 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="C9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2064,16 +2103,16 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2092,16 +2131,16 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2120,16 +2159,16 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2148,16 +2187,16 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2185,7 +2224,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2541,7 +2580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE7B04-49FC-44AC-A9A9-144B494E3553}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41AC2D5-BB47-4182-BF9C-D15D0AC2F3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403C75D5-DF93-4EBD-8592-52E06A6DA4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="246">
   <si>
     <t>Название</t>
   </si>
@@ -308,12 +308,6 @@
     <t>Значения параметров</t>
   </si>
   <si>
-    <t>Всего ЗЕ</t>
-  </si>
-  <si>
-    <t>Кол-во дисциплин</t>
-  </si>
-  <si>
     <t>Название ключевых столбцов</t>
   </si>
   <si>
@@ -329,9 +323,6 @@
     <t>Название учебного плана</t>
   </si>
   <si>
-    <t>Параметры выводы (название страницы)</t>
-  </si>
-  <si>
     <t>Компактный вывод результата</t>
   </si>
   <si>
@@ -339,9 +330,6 @@
   </si>
   <si>
     <t>Псевдонимы</t>
-  </si>
-  <si>
-    <t>(Расш.) Кол-во дисциплин в УП</t>
   </si>
   <si>
     <t>Формула расчёта весов рёбер</t>
@@ -395,9 +383,6 @@
     <t>выполнение и защита выпускной квалификационной работы</t>
   </si>
   <si>
-    <t>Преддипломная  практика</t>
-  </si>
-  <si>
     <t>Преддипломная практика</t>
   </si>
   <si>
@@ -441,9 +426,6 @@
   </si>
   <si>
     <t>Минимальные значения:</t>
-  </si>
-  <si>
-    <t>(Расш.) Общее кол-во ЗЕ в УП</t>
   </si>
   <si>
     <t>Диаметр графа по количеству рёбер</t>
@@ -626,18 +608,6 @@
     <t>Name Curricula</t>
   </si>
   <si>
-    <t>Total credit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount </t>
-  </si>
-  <si>
-    <t>(Ext.) Total credit with optional</t>
-  </si>
-  <si>
-    <t>(Ext.) Amount with optional</t>
-  </si>
-  <si>
     <t>Max credit</t>
   </si>
   <si>
@@ -677,12 +647,6 @@
     <t>нет</t>
   </si>
   <si>
-    <t>plans\t1</t>
-  </si>
-  <si>
-    <t>result\t1</t>
-  </si>
-  <si>
     <t>Указание подстроки, для определения основной дисциплины, дисциплины по выбору или факультатива (если не опознано, то считается основной дисциплиной по умолчанию)</t>
   </si>
   <si>
@@ -743,19 +707,88 @@
     <t>Max weigth on edge</t>
   </si>
   <si>
-    <t>Прикладная физическая культура  и спорт</t>
-  </si>
-  <si>
     <t>Amount of basic</t>
   </si>
   <si>
     <t>Amount of elective</t>
   </si>
   <si>
-    <t>Amount of  optional</t>
-  </si>
-  <si>
     <t>Названия видов дисциплин при выводе количества</t>
+  </si>
+  <si>
+    <t>Всего ЗЕ в графе</t>
+  </si>
+  <si>
+    <t>Total credit in graph</t>
+  </si>
+  <si>
+    <t>Кол-во дисциплин в графе</t>
+  </si>
+  <si>
+    <t>Amount in graph</t>
+  </si>
+  <si>
+    <t>Общее кол-во ЗЕ в УП</t>
+  </si>
+  <si>
+    <t>Общее кол-во дисциплин в УП</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>Количество основных дисциплин</t>
+  </si>
+  <si>
+    <t>Количество дисциплин по выбору</t>
+  </si>
+  <si>
+    <t>Количество факультативов</t>
+  </si>
+  <si>
+    <t>Total credit in the curriculum</t>
+  </si>
+  <si>
+    <t>Total amount in the curriculum</t>
+  </si>
+  <si>
+    <t>Amount of optional</t>
+  </si>
+  <si>
+    <t>Total amount of basic in the curriculum</t>
+  </si>
+  <si>
+    <t>Total amount of optional in the curriculum</t>
+  </si>
+  <si>
+    <t>Total amount of elective in the curriculum</t>
+  </si>
+  <si>
+    <t>Перевод на другой язык указан во вкладке "Параметры вывода", для УП целиком перевод в орандевых строках и начинается со знака !</t>
+  </si>
+  <si>
+    <t>!Количество основных дисциплин</t>
+  </si>
+  <si>
+    <t>!Количество дисциплин по выбору</t>
+  </si>
+  <si>
+    <t>!Количество факультативов</t>
+  </si>
+  <si>
+    <t>Параметры вывода (название страницы)</t>
+  </si>
+  <si>
+    <t>Оранжевые строки - это метрики УП целиком</t>
+  </si>
+  <si>
+    <t>Удалить спецсимволы из названия дисциплин (не влияет на игнорируемые)</t>
+  </si>
+  <si>
+    <t>plans\grad</t>
+  </si>
+  <si>
+    <t>result\grad</t>
   </si>
 </sst>
 </file>
@@ -838,7 +871,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,6 +899,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -970,11 +1015,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -983,6 +1029,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1312,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1328,20 +1380,20 @@
       <c r="A1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="39" t="s">
         <v>57</v>
       </c>
       <c r="B2" t="s">
@@ -1355,7 +1407,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
+      <c r="A3" s="39"/>
       <c r="B3" t="s">
         <v>61</v>
       </c>
@@ -1376,7 +1428,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -1384,44 +1436,44 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>123</v>
+      <c r="A7" s="40" t="s">
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="23" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
-        <v>181</v>
+      <c r="A9" s="40" t="s">
+        <v>175</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="23" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -1429,7 +1481,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -1452,260 +1504,256 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
-        <v>219</v>
+      <c r="A15" s="15" t="s">
+        <v>243</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
       </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="40"/>
+      <c r="B17" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="40"/>
+      <c r="B19" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="B20" t="s">
-        <v>231</v>
-      </c>
-      <c r="C20" t="s">
-        <v>233</v>
-      </c>
-      <c r="D20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>217</v>
+      <c r="B21" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" t="s">
-        <v>208</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" t="s">
-        <v>209</v>
-      </c>
-    </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="40"/>
+      <c r="B28" s="9" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="5">
-        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="B30" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
-        <v>159</v>
+      <c r="A33" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
-      <c r="B34" s="9" t="s">
-        <v>158</v>
+      <c r="A34" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>161</v>
+      <c r="A35" s="40"/>
+      <c r="B35" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="5">
-        <v>2</v>
+      <c r="A36" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>98</v>
+        <v>85</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="5">
-        <v>5</v>
+        <v>241</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="30">
-        <v>1E-3</v>
+        <v>98</v>
+      </c>
+      <c r="B43" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B44" s="30">
         <v>1E-3</v>
@@ -1713,145 +1761,153 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="B45" s="13">
-        <v>40</v>
+        <v>119</v>
+      </c>
+      <c r="B45" s="30">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>126</v>
+        <v>206</v>
+      </c>
+      <c r="B46" s="13">
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C47" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>174</v>
+        <v>182</v>
+      </c>
+      <c r="C48" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
+      <c r="A51" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>77</v>
-      </c>
+      <c r="A52" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" t="s">
-        <v>143</v>
+        <v>133</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-    </row>
-    <row r="57" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-    </row>
-    <row r="58" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+    </row>
+    <row r="58" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="34" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>106</v>
+    <row r="59" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A56:C56"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1873,12 +1929,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="A1" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1917,27 +1973,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1948,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="A17:D17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1962,260 +2018,348 @@
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B12" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="C12" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C24" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="31" t="s">
         <v>227</v>
-      </c>
-      <c r="B10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2237,47 +2381,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2285,15 +2429,15 @@
         <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2549,26 +2693,26 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2578,10 +2722,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE7B04-49FC-44AC-A9A9-144B494E3553}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2596,72 +2740,62 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2709,11 +2843,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
+      <c r="A1" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2755,7 +2889,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403C75D5-DF93-4EBD-8592-52E06A6DA4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB746A1-9732-45F0-9E87-2FA2CCA078A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="2" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -1366,7 +1366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -2006,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB746A1-9732-45F0-9E87-2FA2CCA078A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D9A441-6332-4C41-B03A-C27A008963D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="2" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="252">
   <si>
     <t>Название</t>
   </si>
@@ -789,6 +789,24 @@
   </si>
   <si>
     <t>result\grad</t>
+  </si>
+  <si>
+    <t>Количество дисциплин с несколькими дисциплинами</t>
+  </si>
+  <si>
+    <t>Amount with</t>
+  </si>
+  <si>
+    <t>Считать, что у дисциплины компетенций много, если их число больше X =</t>
+  </si>
+  <si>
+    <t>Суффикс после вывода кол-во компетенций у дисциплины</t>
+  </si>
+  <si>
+    <t>компетенций</t>
+  </si>
+  <si>
+    <t>comp</t>
   </si>
 </sst>
 </file>
@@ -1364,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1665,7 +1683,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>105</v>
       </c>
@@ -1673,7 +1691,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="s">
         <v>153</v>
       </c>
@@ -1681,13 +1699,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>154</v>
       </c>
@@ -1695,7 +1713,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>85</v>
       </c>
@@ -1703,7 +1721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>94</v>
       </c>
@@ -1711,7 +1729,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>164</v>
       </c>
@@ -1719,7 +1737,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>110</v>
       </c>
@@ -1727,7 +1745,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>122</v>
       </c>
@@ -1735,7 +1753,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>241</v>
       </c>
@@ -1743,163 +1761,182 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B44" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="B44" s="30">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="B45" s="30">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="30">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B47" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B48" s="13" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>168</v>
+        <v>182</v>
+      </c>
+      <c r="C49" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B53" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="41" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" t="s">
-        <v>137</v>
-      </c>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="37" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-    </row>
-    <row r="58" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="34" t="s">
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+    </row>
+    <row r="60" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-    </row>
-    <row r="59" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="35" t="s">
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="19" t="s">
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B62" s="14" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A59:C59"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A57:C57"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A54:C54"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
@@ -2004,10 +2041,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2232,25 +2269,25 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B17" s="31" t="s">
         <v>184</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>231</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>77</v>
@@ -2261,10 +2298,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>77</v>
@@ -2275,10 +2312,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>77</v>
@@ -2289,13 +2326,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>227</v>
@@ -2303,13 +2340,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>227</v>
@@ -2317,13 +2354,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>227</v>
@@ -2331,10 +2368,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>77</v>
@@ -2345,15 +2382,29 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B25" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="31" t="s">
+      <c r="C25" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="31" t="s">
         <v>227</v>
       </c>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D9A441-6332-4C41-B03A-C27A008963D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC12A424-0453-4F85-B53B-E199F5105748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="2" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="253">
   <si>
     <t>Название</t>
   </si>
@@ -785,12 +785,6 @@
     <t>Удалить спецсимволы из названия дисциплин (не влияет на игнорируемые)</t>
   </si>
   <si>
-    <t>plans\grad</t>
-  </si>
-  <si>
-    <t>result\grad</t>
-  </si>
-  <si>
     <t>Количество дисциплин с несколькими дисциплинами</t>
   </si>
   <si>
@@ -807,6 +801,15 @@
   </si>
   <si>
     <t>comp</t>
+  </si>
+  <si>
+    <t>Технологическая (проектно-технологическая) практика (Field Internship II)</t>
+  </si>
+  <si>
+    <t>plans\t1</t>
+  </si>
+  <si>
+    <t>result\t1</t>
   </si>
 </sst>
 </file>
@@ -1384,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1628,7 +1631,7 @@
         <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1642,7 +1645,7 @@
         <v>157</v>
       </c>
       <c r="B27" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1763,7 +1766,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B43" s="5">
         <v>6</v>
@@ -1830,13 +1833,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>251</v>
-      </c>
       <c r="C51" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2043,7 +2046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -2270,10 +2273,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>77</v>
@@ -2773,10 +2776,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE7B04-49FC-44AC-A9A9-144B494E3553}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2847,6 +2850,11 @@
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC12A424-0453-4F85-B53B-E199F5105748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664E521A-43E4-433C-A50A-0F4D1A5D0228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="254">
   <si>
     <t>Название</t>
   </si>
@@ -804,6 +804,9 @@
   </si>
   <si>
     <t>Технологическая (проектно-технологическая) практика (Field Internship II)</t>
+  </si>
+  <si>
+    <t>Командный проект по разработке программного обеспечения</t>
   </si>
   <si>
     <t>plans\t1</t>
@@ -1387,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1631,7 +1634,7 @@
         <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1645,7 +1648,7 @@
         <v>157</v>
       </c>
       <c r="B27" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2776,10 +2779,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE7B04-49FC-44AC-A9A9-144B494E3553}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2855,6 +2858,11 @@
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664E521A-43E4-433C-A50A-0F4D1A5D0228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93F8FD6-E994-4BA7-AF1F-91C6A8F9F1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="260">
   <si>
     <t>Название</t>
   </si>
@@ -644,9 +644,6 @@
     <t>Index</t>
   </si>
   <si>
-    <t>нет</t>
-  </si>
-  <si>
     <t>Указание подстроки, для определения основной дисциплины, дисциплины по выбору или факультатива (если не опознано, то считается основной дисциплиной по умолчанию)</t>
   </si>
   <si>
@@ -809,10 +806,31 @@
     <t>Командный проект по разработке программного обеспечения</t>
   </si>
   <si>
+    <t>Плотность графа</t>
+  </si>
+  <si>
+    <t>Dense graph</t>
+  </si>
+  <si>
     <t>plans\t1</t>
   </si>
   <si>
     <t>result\t1</t>
+  </si>
+  <si>
+    <t>Предлог перед выводом статистики по курсу определённого номера</t>
+  </si>
+  <si>
+    <t>Сourses №</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курсы № </t>
+  </si>
+  <si>
+    <t>Предлог перед выводом статистики по всем курсам</t>
+  </si>
+  <si>
+    <t>All courses</t>
   </si>
 </sst>
 </file>
@@ -1388,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1471,7 +1489,7 @@
         <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="C7" s="23"/>
     </row>
@@ -1529,7 +1547,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -1537,7 +1555,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -1552,65 +1570,65 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" t="s">
         <v>203</v>
-      </c>
-      <c r="C18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>201</v>
-      </c>
       <c r="D19" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B21" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="D21" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1634,7 +1652,7 @@
         <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1648,7 +1666,7 @@
         <v>157</v>
       </c>
       <c r="B27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1761,7 +1779,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>90</v>
@@ -1769,7 +1787,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B43" s="5">
         <v>6</v>
@@ -1801,7 +1819,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B47" s="13">
         <v>40</v>
@@ -1817,132 +1835,154 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>151</v>
+        <v>255</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="C49" t="s">
-        <v>183</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>169</v>
+        <v>258</v>
       </c>
       <c r="B50" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C50" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>247</v>
+        <v>151</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="C51" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B55" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="41" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" t="s">
-        <v>137</v>
-      </c>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="37" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-    </row>
-    <row r="60" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="34" t="s">
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+    </row>
+    <row r="62" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="35" t="s">
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="19" t="s">
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B64" s="14" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A59:C59"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A56:C56"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
@@ -2047,15 +2087,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.8984375" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="72.09765625" customWidth="1"/>
     <col min="3" max="3" width="26.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
@@ -2075,15 +2115,15 @@
         <v>131</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>221</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>222</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>77</v>
@@ -2094,10 +2134,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
         <v>223</v>
-      </c>
-      <c r="B3" t="s">
-        <v>224</v>
       </c>
       <c r="C3" t="s">
         <v>77</v>
@@ -2108,10 +2148,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>212</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>213</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>77</v>
@@ -2136,10 +2176,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>77</v>
@@ -2150,10 +2190,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
         <v>77</v>
@@ -2234,184 +2274,198 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" t="s">
         <v>218</v>
       </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="C17" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B18" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>231</v>
-      </c>
       <c r="C18" s="31" t="s">
         <v>77</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="31" t="s">
         <v>226</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
-        <v>150</v>
+        <v>239</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>77</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>77</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B26" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>227</v>
+      <c r="C26" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2508,7 +2562,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1048576"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2782,7 +2836,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2857,12 +2911,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93F8FD6-E994-4BA7-AF1F-91C6A8F9F1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1660F78B-3DE1-4DD0-B5F3-450F959D1F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -812,12 +812,6 @@
     <t>Dense graph</t>
   </si>
   <si>
-    <t>plans\t1</t>
-  </si>
-  <si>
-    <t>result\t1</t>
-  </si>
-  <si>
     <t>Предлог перед выводом статистики по курсу определённого номера</t>
   </si>
   <si>
@@ -831,6 +825,12 @@
   </si>
   <si>
     <t>All courses</t>
+  </si>
+  <si>
+    <t>plans\t2</t>
+  </si>
+  <si>
+    <t>result\t2</t>
   </si>
 </sst>
 </file>
@@ -913,7 +913,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -953,6 +953,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,7 +1011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1058,9 +1064,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1091,6 +1094,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1408,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1422,20 +1429,20 @@
       <c r="A1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>57</v>
       </c>
       <c r="B2" t="s">
@@ -1449,7 +1456,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="38"/>
       <c r="B3" t="s">
         <v>61</v>
       </c>
@@ -1485,7 +1492,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>118</v>
       </c>
       <c r="B7" t="s">
@@ -1494,13 +1501,13 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="23" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>175</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -1508,7 +1515,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="23" t="s">
         <v>176</v>
       </c>
@@ -1554,7 +1561,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="39" t="s">
         <v>206</v>
       </c>
       <c r="B16" t="s">
@@ -1568,7 +1575,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="9" t="s">
         <v>208</v>
       </c>
@@ -1580,7 +1587,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
         <v>198</v>
       </c>
       <c r="B18" t="s">
@@ -1594,7 +1601,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="9" t="s">
         <v>199</v>
       </c>
@@ -1606,13 +1613,13 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="9" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="39" t="s">
         <v>219</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -1626,7 +1633,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="9" t="s">
         <v>236</v>
       </c>
@@ -1634,43 +1641,43 @@
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="39" t="s">
         <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="39" t="s">
         <v>157</v>
       </c>
       <c r="B27" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="9" t="s">
         <v>78</v>
       </c>
@@ -1716,7 +1723,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="39" t="s">
         <v>153</v>
       </c>
       <c r="B34" t="s">
@@ -1724,7 +1731,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="9" t="s">
         <v>152</v>
       </c>
@@ -1835,21 +1842,21 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" t="s">
         <v>255</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C50" t="s">
         <v>168</v>
@@ -1902,11 +1909,11 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
@@ -1941,27 +1948,27 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
     </row>
     <row r="62" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="34" t="s">
+      <c r="A62" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
     </row>
@@ -2012,12 +2019,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2090,7 +2097,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2114,7 +2121,7 @@
       <c r="D1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>241</v>
       </c>
     </row>
@@ -2147,58 +2154,58 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B5" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B7" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2245,30 +2252,30 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>132</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>189</v>
       </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="22" t="s">
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2343,16 +2350,16 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2442,10 +2449,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>77</v>
@@ -2456,10 +2463,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>77</v>
@@ -2964,11 +2971,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1660F78B-3DE1-4DD0-B5F3-450F959D1F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED3A129-21A3-4F87-8563-2EA4A40E20A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="4" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Компетенции" sheetId="4" r:id="rId9"/>
     <sheet name="ПланСвод" sheetId="5" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="264">
   <si>
     <t>Название</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Иностранный язык</t>
   </si>
   <si>
-    <t>Ин Яз</t>
-  </si>
-  <si>
     <t>Безопасность жизнедеятельности</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Математический анализ</t>
   </si>
   <si>
-    <t>Мат Анализ</t>
-  </si>
-  <si>
     <t>Теория функций комплексного переменного</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
   </si>
   <si>
     <t>Физическая культура и спорт</t>
-  </si>
-  <si>
-    <t>Физ культ</t>
   </si>
   <si>
     <t>Прикладная физическая культура и спорт</t>
@@ -458,9 +449,6 @@
     <t>Максимальное оставное дерево</t>
   </si>
   <si>
-    <t>Id;Label</t>
-  </si>
-  <si>
     <t>Source;Target;Type;Weight</t>
   </si>
   <si>
@@ -473,13 +461,7 @@
     <t>Программируемые логические интегральные схемы. Дополнительные главы</t>
   </si>
   <si>
-    <t>ПЛИС. Доп</t>
-  </si>
-  <si>
     <t>Организация научно-исследовательской и проектной деятельности</t>
-  </si>
-  <si>
-    <t>Орг. науч-иссл. и проект. деят.</t>
   </si>
   <si>
     <t>"да", то сумма процентного соотношения УК, ПК, ОПК и т.д. будет 100%, иначе, из-за пересечений, будет не менее 100%</t>
@@ -827,10 +809,40 @@
     <t>All courses</t>
   </si>
   <si>
-    <t>plans\t2</t>
-  </si>
-  <si>
-    <t>result\t2</t>
+    <t>Английский язык для академических целей</t>
+  </si>
+  <si>
+    <t>Английский язык для делового общения</t>
+  </si>
+  <si>
+    <t>Физ. культ</t>
+  </si>
+  <si>
+    <t>Мат анализ</t>
+  </si>
+  <si>
+    <t>Ин яз</t>
+  </si>
+  <si>
+    <t>Англ яз академ</t>
+  </si>
+  <si>
+    <t>Англ яз дел</t>
+  </si>
+  <si>
+    <t>Орг науч-иссл и проект деят</t>
+  </si>
+  <si>
+    <t>ПЛИС Доп</t>
+  </si>
+  <si>
+    <t>Id;Label;Weight</t>
+  </si>
+  <si>
+    <t>plans\t1</t>
+  </si>
+  <si>
+    <t>result\t1</t>
   </si>
 </sst>
 </file>
@@ -1067,6 +1079,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1094,10 +1110,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1415,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1427,264 +1439,264 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+        <v>83</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>118</v>
+      <c r="A7" s="41" t="s">
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="23" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
-        <v>175</v>
+      <c r="A9" s="41" t="s">
+        <v>169</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="23" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>206</v>
+      <c r="A16" s="41" t="s">
+        <v>200</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="41"/>
+      <c r="B19" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B18" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
-        <v>219</v>
+      <c r="A21" s="41" t="s">
+        <v>213</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="9" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
-        <v>156</v>
+      <c r="A25" s="41" t="s">
+        <v>150</v>
       </c>
       <c r="B25" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
-        <v>157</v>
+      <c r="A27" s="41" t="s">
+        <v>151</v>
       </c>
       <c r="B27" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B29" s="5">
         <v>15</v>
@@ -1692,7 +1704,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B30" s="5">
         <v>10</v>
@@ -1700,53 +1712,53 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
-        <v>153</v>
+      <c r="A34" s="41" t="s">
+        <v>147</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B37" s="5">
         <v>2</v>
@@ -1754,47 +1766,47 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B43" s="5">
         <v>6</v>
@@ -1802,7 +1814,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B44" s="5">
         <v>5</v>
@@ -1810,7 +1822,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B45" s="30">
         <v>1E-3</v>
@@ -1818,7 +1830,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B46" s="30">
         <v>1E-3</v>
@@ -1826,7 +1838,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B47" s="13">
         <v>40</v>
@@ -1834,150 +1846,150 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C49" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C51" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C53" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
+      <c r="A56" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
+      <c r="A61" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
     </row>
     <row r="62" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
+      <c r="A62" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
+      <c r="A63" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2019,25 +2031,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="A1" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2063,27 +2075,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2113,366 +2125,366 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>226</v>
+      <c r="A18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>230</v>
-      </c>
       <c r="C19" s="31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>231</v>
-      </c>
       <c r="C20" s="31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2499,63 +2511,63 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2566,10 +2578,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D30513-835A-4AE6-857E-98ABAAAB41D8}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2598,239 +2610,255 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>142</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>144</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2858,72 +2886,72 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2971,26 +2999,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="A1" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3017,12 +3045,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED3A129-21A3-4F87-8563-2EA4A40E20A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAADC4D-D79E-4C92-BCE3-866B22B919B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="4" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Компетенции" sheetId="4" r:id="rId9"/>
     <sheet name="ПланСвод" sheetId="5" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="267">
   <si>
     <t>Название</t>
   </si>
@@ -542,15 +542,9 @@
     <t>Все курсы</t>
   </si>
   <si>
-    <t>Надпись при выводе информации о всех курсах</t>
-  </si>
-  <si>
     <t>(\w{1,}).{0,}-(.{1,})\.(.{0,})</t>
   </si>
   <si>
-    <t>Процент распределения Индекса</t>
-  </si>
-  <si>
     <t>Процент распределения Заголовка компетенции</t>
   </si>
   <si>
@@ -569,21 +563,6 @@
     <t>Выводить графы по курсам</t>
   </si>
   <si>
-    <t>Прикладные информационные системы</t>
-  </si>
-  <si>
-    <t>Информационное общество и проблемы прикладной информатики</t>
-  </si>
-  <si>
-    <t>Основы академического письма</t>
-  </si>
-  <si>
-    <t>История вычислительной техники</t>
-  </si>
-  <si>
-    <t>on Cur</t>
-  </si>
-  <si>
     <t>у УП</t>
   </si>
   <si>
@@ -623,9 +602,6 @@
     <t>Competence</t>
   </si>
   <si>
-    <t>Index</t>
-  </si>
-  <si>
     <t>Указание подстроки, для определения основной дисциплины, дисциплины по выбору или факультатива (если не опознано, то считается основной дисциплиной по умолчанию)</t>
   </si>
   <si>
@@ -704,9 +680,6 @@
     <t>Кол-во дисциплин в графе</t>
   </si>
   <si>
-    <t>Amount in graph</t>
-  </si>
-  <si>
     <t>Общее кол-во ЗЕ в УП</t>
   </si>
   <si>
@@ -837,6 +810,42 @@
   </si>
   <si>
     <t>Id;Label;Weight</t>
+  </si>
+  <si>
+    <t>Делить ЗЕ у компетениции на кол-во компетенций в дисциплине</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on Cur </t>
+  </si>
+  <si>
+    <t>ЗЕ индикаторов</t>
+  </si>
+  <si>
+    <t>Индикатор</t>
+  </si>
+  <si>
+    <t>Comp Credits</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>Ind Credits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vertex's amount </t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>Процент распределения Индикатора</t>
+  </si>
+  <si>
+    <t>ЗЕ Заголовка компетенции</t>
+  </si>
+  <si>
+    <t>ЗЕ Компетенций</t>
   </si>
   <si>
     <t>plans\t1</t>
@@ -1023,7 +1032,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1083,6 +1092,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1427,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1441,20 +1451,20 @@
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
@@ -1468,7 +1478,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -1497,14 +1507,14 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>115</v>
       </c>
       <c r="B7" t="s">
@@ -1513,23 +1523,23 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="23" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>169</v>
+      <c r="A9" s="42" t="s">
+        <v>167</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1566,271 +1576,271 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
-        <v>200</v>
+      <c r="A16" s="15" t="s">
+        <v>253</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>203</v>
+      <c r="A17" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="B18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D18" t="s">
-        <v>197</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>198</v>
+      <c r="A19" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="42"/>
+      <c r="B21" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="D22" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="42"/>
+      <c r="B23" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="38" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="41" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="B25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="41"/>
-      <c r="B26" s="9" t="s">
+      <c r="B26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="42"/>
+      <c r="B27" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B27" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="9" t="s">
+      <c r="B28" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="42"/>
+      <c r="B29" s="9" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="5">
-        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="B31" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="9" t="s">
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B37" s="25" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="5">
-        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="B43" s="5">
-        <v>6</v>
+        <v>225</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="B44" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="30">
-        <v>1E-3</v>
+        <v>95</v>
+      </c>
+      <c r="B45" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B46" s="30">
         <v>1E-3</v>
@@ -1838,70 +1848,70 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B47" s="13">
-        <v>40</v>
+        <v>116</v>
+      </c>
+      <c r="B47" s="30">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>118</v>
+        <v>191</v>
+      </c>
+      <c r="B48" s="13">
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>247</v>
+        <v>117</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C49" t="s">
-        <v>249</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>162</v>
+        <v>254</v>
+      </c>
+      <c r="C52" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C53" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1921,11 +1931,11 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
@@ -1940,7 +1950,7 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1960,27 +1970,27 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
     </row>
     <row r="62" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="36" t="s">
+      <c r="A63" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
     </row>
@@ -1999,17 +2009,17 @@
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A35:A36"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2031,12 +2041,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2109,7 +2119,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2134,15 +2144,15 @@
         <v>128</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>74</v>
@@ -2153,10 +2163,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -2170,7 +2180,7 @@
         <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -2181,10 +2191,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>74</v>
@@ -2195,10 +2205,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -2209,10 +2219,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>74</v>
@@ -2226,7 +2236,7 @@
         <v>125</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>74</v>
@@ -2240,7 +2250,7 @@
         <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -2254,7 +2264,7 @@
         <v>126</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>74</v>
@@ -2268,7 +2278,7 @@
         <v>133</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>74</v>
@@ -2282,7 +2292,7 @@
         <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
@@ -2293,10 +2303,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B13" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
@@ -2307,10 +2317,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
@@ -2321,10 +2331,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>74</v>
@@ -2335,10 +2345,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
         <v>74</v>
@@ -2349,10 +2359,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>74</v>
@@ -2366,83 +2376,83 @@
         <v>89</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>74</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2450,13 +2460,13 @@
         <v>144</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2464,13 +2474,13 @@
         <v>122</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2478,13 +2488,13 @@
         <v>123</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>74</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2495,10 +2505,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48B31D4-AE50-4CB5-9904-DE1BA8BD2BC3}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2519,47 +2529,47 @@
         <v>161</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>160</v>
+      <c r="B6" s="28" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>190</v>
+      <c r="A7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2567,6 +2577,30 @@
         <v>165</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2580,7 +2614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D30513-835A-4AE6-857E-98ABAAAB41D8}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -2610,7 +2644,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2650,7 +2684,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2706,7 +2740,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2834,7 +2868,7 @@
         <v>137</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2842,23 +2876,23 @@
         <v>138</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2868,10 +2902,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE7B04-49FC-44AC-A9A9-144B494E3553}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2921,37 +2955,17 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2999,11 +3013,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAADC4D-D79E-4C92-BCE3-866B22B919B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560C3E13-BE66-4D67-A648-0834ECF45B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
-    <sheet name="Инструкция Пользователя" sheetId="7" r:id="rId2"/>
-    <sheet name="Параметры вывода" sheetId="6" r:id="rId3"/>
-    <sheet name="Параметры расширенного вывода" sheetId="10" r:id="rId4"/>
-    <sheet name="Псевдонимы" sheetId="2" r:id="rId5"/>
-    <sheet name="Игнорируемые предметы" sheetId="8" r:id="rId6"/>
-    <sheet name="Игнорируемые УП" sheetId="9" r:id="rId7"/>
-    <sheet name="Компетенции(2)" sheetId="3" r:id="rId8"/>
-    <sheet name="Компетенции" sheetId="4" r:id="rId9"/>
-    <sheet name="ПланСвод" sheetId="5" r:id="rId10"/>
+    <sheet name="Тег" sheetId="11" r:id="rId2"/>
+    <sheet name="Инструкция Пользователя" sheetId="7" r:id="rId3"/>
+    <sheet name="Параметры вывода" sheetId="6" r:id="rId4"/>
+    <sheet name="Параметры расширенного вывода" sheetId="10" r:id="rId5"/>
+    <sheet name="Псевдонимы" sheetId="2" r:id="rId6"/>
+    <sheet name="Игнорируемые предметы" sheetId="8" r:id="rId7"/>
+    <sheet name="Игнорируемые УП" sheetId="9" r:id="rId8"/>
+    <sheet name="Компетенции(2)" sheetId="3" r:id="rId9"/>
+    <sheet name="Компетенции" sheetId="4" r:id="rId10"/>
+    <sheet name="ПланСвод" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="304">
   <si>
     <t>Название</t>
   </si>
@@ -396,9 +397,6 @@
   </si>
   <si>
     <t>Считать компетенцию отсутсвующей, если значение меньше X=</t>
-  </si>
-  <si>
-    <t>Удалить спецсимволы из наименования компетенции</t>
   </si>
   <si>
     <t xml:space="preserve"> _</t>
@@ -539,9 +537,6 @@
     <t>За какой курс</t>
   </si>
   <si>
-    <t>Все курсы</t>
-  </si>
-  <si>
     <t>(\w{1,}).{0,}-(.{1,})\.(.{0,})</t>
   </si>
   <si>
@@ -563,9 +558,6 @@
     <t>Выводить графы по курсам</t>
   </si>
   <si>
-    <t>у УП</t>
-  </si>
-  <si>
     <t>Name Curricula</t>
   </si>
   <si>
@@ -587,12 +579,6 @@
     <t>Max spanning tree</t>
   </si>
   <si>
-    <t>Max value</t>
-  </si>
-  <si>
-    <t>Min value</t>
-  </si>
-  <si>
     <t>Course</t>
   </si>
   <si>
@@ -686,9 +672,6 @@
     <t>Общее кол-во дисциплин в УП</t>
   </si>
   <si>
-    <t xml:space="preserve"> -</t>
-  </si>
-  <si>
     <t>Количество основных дисциплин</t>
   </si>
   <si>
@@ -749,9 +732,6 @@
     <t>Суффикс после вывода кол-во компетенций у дисциплины</t>
   </si>
   <si>
-    <t>компетенций</t>
-  </si>
-  <si>
     <t>comp</t>
   </si>
   <si>
@@ -773,9 +753,6 @@
     <t>Сourses №</t>
   </si>
   <si>
-    <t xml:space="preserve">Курсы № </t>
-  </si>
-  <si>
     <t>Предлог перед выводом статистики по всем курсам</t>
   </si>
   <si>
@@ -848,10 +825,145 @@
     <t>ЗЕ Компетенций</t>
   </si>
   <si>
+    <t>Философия</t>
+  </si>
+  <si>
+    <t>История России</t>
+  </si>
+  <si>
+    <t>Всеобщая история</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Информатика</t>
+  </si>
+  <si>
+    <t>Основы программирования</t>
+  </si>
+  <si>
+    <t>Алгебра и геометрия</t>
+  </si>
+  <si>
+    <t>Теория  и практика эффективного речевого общения</t>
+  </si>
+  <si>
+    <t>Дискретная математика</t>
+  </si>
+  <si>
+    <t>Теория вероятностей и математическая статистика</t>
+  </si>
+  <si>
+    <t>Операционные системы</t>
+  </si>
+  <si>
+    <t>Основы цифровой электроники</t>
+  </si>
+  <si>
+    <t>ЭВМ и периферийные устройства</t>
+  </si>
+  <si>
+    <t>Сети и телекоммуникации</t>
+  </si>
+  <si>
+    <t>Алгоритмы и структуры данных</t>
+  </si>
+  <si>
+    <t>Основы сетевых технологий</t>
+  </si>
+  <si>
+    <t>Решение оптимизационных задач программными средствами</t>
+  </si>
+  <si>
+    <t>Прикладная теория цифровых автоматов</t>
+  </si>
+  <si>
+    <t>Методы и системы принятия решений</t>
+  </si>
+  <si>
+    <t>Параллельные вычислительные системы</t>
+  </si>
+  <si>
+    <t>Защита вычислительных систем</t>
+  </si>
+  <si>
+    <t>Теория управления</t>
+  </si>
+  <si>
+    <t>Схемотехника ЭВМ</t>
+  </si>
+  <si>
+    <t>Основы адаптивных систем управления</t>
+  </si>
+  <si>
+    <t>Методы проектирования и САПР вычислительных систем</t>
+  </si>
+  <si>
+    <t>Микропроцессорные системы</t>
+  </si>
+  <si>
+    <t>Программируемые логические интегральные схемы</t>
+  </si>
+  <si>
+    <t>Интернет-технологии</t>
+  </si>
+  <si>
+    <t>Профессионально-ориентированный иностранный язык</t>
+  </si>
+  <si>
+    <t>Междисциплинарный курсовой прект</t>
+  </si>
+  <si>
+    <t>Автоматизация проектирования встраиваемых систем</t>
+  </si>
+  <si>
+    <t>Экономическая культура и финансовая грамотность</t>
+  </si>
+  <si>
+    <t>Основы профилактики коррупции</t>
+  </si>
+  <si>
+    <t>Цифровая обработка сигналов</t>
+  </si>
+  <si>
+    <t>Сетевые ОС и администрирование сетей</t>
+  </si>
+  <si>
+    <t>Системы автоматизации испытаний</t>
+  </si>
+  <si>
+    <t>Беспроводные и сенсорные сети</t>
+  </si>
+  <si>
+    <t>Ознакомительная практика</t>
+  </si>
+  <si>
+    <t>Эксплуатационная практика</t>
+  </si>
+  <si>
+    <t>Основы академического письма</t>
+  </si>
+  <si>
+    <t>История вычислительной техники</t>
+  </si>
+  <si>
+    <t>Теги</t>
+  </si>
+  <si>
+    <t>Спецсимволы для удаления из наименования компетенции</t>
+  </si>
+  <si>
     <t>plans\t1</t>
   </si>
   <si>
     <t>result\t1</t>
+  </si>
+  <si>
+    <t>Max value:</t>
+  </si>
+  <si>
+    <t>Min value:</t>
   </si>
 </sst>
 </file>
@@ -984,7 +1096,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1027,12 +1139,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1093,6 +1216,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1115,6 +1241,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1435,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1451,20 +1583,20 @@
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
@@ -1478,7 +1610,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -1507,14 +1639,14 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>115</v>
       </c>
       <c r="B7" t="s">
@@ -1523,28 +1655,28 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>167</v>
+      <c r="A9" s="43" t="s">
+        <v>165</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -1552,7 +1684,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -1576,7 +1708,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B15" t="s">
         <v>74</v>
@@ -1584,15 +1716,15 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
-        <v>192</v>
+      <c r="A17" s="43" t="s">
+        <v>187</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -1605,109 +1737,109 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" t="s">
         <v>184</v>
       </c>
-      <c r="B19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D19" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
-        <v>205</v>
+      <c r="A22" s="43" t="s">
+        <v>200</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="9" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
-        <v>150</v>
+      <c r="A26" s="43" t="s">
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
-        <v>151</v>
+      <c r="A28" s="43" t="s">
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="9" t="s">
         <v>75</v>
       </c>
@@ -1753,25 +1885,25 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
-        <v>147</v>
+      <c r="A35" s="43" t="s">
+        <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="25" t="s">
         <v>148</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1784,234 +1916,182 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>92</v>
+        <v>299</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B44" s="5">
-        <v>6</v>
+        <v>118</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="5">
-        <v>5</v>
+        <v>219</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="30">
-        <v>1E-3</v>
+        <v>224</v>
+      </c>
+      <c r="B46" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" s="30">
-        <v>1E-3</v>
+        <v>95</v>
+      </c>
+      <c r="B47" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" s="13">
-        <v>40</v>
+        <v>101</v>
+      </c>
+      <c r="B48" s="30">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="B49" s="30">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="C50" t="s">
-        <v>240</v>
+        <v>186</v>
+      </c>
+      <c r="B50" s="13">
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="C51" t="s">
-        <v>162</v>
-      </c>
+      <c r="A51" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
-        <v>145</v>
+      <c r="A52" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C52" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C53" t="s">
-        <v>232</v>
+      <c r="A53" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>153</v>
+      <c r="A54" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>155</v>
+      <c r="A55" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" t="s">
-        <v>252</v>
-      </c>
+      <c r="A56" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+    </row>
+    <row r="57" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B60" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-    </row>
-    <row r="62" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="19" t="s">
+      <c r="A59" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A56:C56"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A51:C51"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
@@ -2027,6 +2107,34 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55C6971-C43C-4F39-A4CB-1671DB6EB818}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F546BFA9-E331-4372-933F-E90B46BAF38E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2041,12 +2149,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2071,6 +2179,315 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB27DC44-D357-46E3-9C3E-84D17CC4B47E}">
+  <dimension ref="A1:A58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="52.59765625" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE973070-7C8A-47D0-A5B3-F5768C3C3395}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -2114,12 +2531,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2138,21 +2555,21 @@
         <v>105</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>128</v>
-      </c>
       <c r="E1" s="32" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>74</v>
@@ -2163,10 +2580,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -2177,10 +2594,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
         <v>74</v>
@@ -2191,10 +2608,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>74</v>
@@ -2205,10 +2622,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>74</v>
@@ -2219,10 +2636,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>74</v>
@@ -2233,10 +2650,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>74</v>
@@ -2247,10 +2664,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
         <v>74</v>
@@ -2261,10 +2678,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>74</v>
@@ -2275,10 +2692,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>74</v>
@@ -2289,10 +2706,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
@@ -2302,25 +2719,25 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="A13" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
@@ -2331,10 +2748,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>74</v>
@@ -2345,10 +2762,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B16" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
         <v>74</v>
@@ -2359,10 +2776,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>74</v>
@@ -2372,101 +2789,80 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>211</v>
+      <c r="A18" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>74</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>74</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>74</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>74</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="C23" s="31" t="s">
         <v>74</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>196</v>
+        <v>302</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>74</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2474,27 +2870,58 @@
         <v>122</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>178</v>
+        <v>303</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="31" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>211</v>
+      <c r="A26" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2503,7 +2930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48B31D4-AE50-4CB5-9904-DE1BA8BD2BC3}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -2521,87 +2948,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2610,13 +3037,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D30513-835A-4AE6-857E-98ABAAAB41D8}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2644,7 +3069,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2684,7 +3109,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2740,7 +3165,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2857,42 +3282,42 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>135</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2900,12 +3325,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE7B04-49FC-44AC-A9A9-144B494E3553}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2913,68 +3338,76 @@
     <col min="1" max="1" width="28.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AEC7CB-5979-420D-BDFA-FE936176154C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2997,7 +3430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E4D0FA-305B-412E-8789-20EE846FCAE8}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3013,11 +3446,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3042,32 +3475,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55C6971-C43C-4F39-A4CB-1671DB6EB818}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560C3E13-BE66-4D67-A648-0834ECF45B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B429472F-1271-40CA-9C17-DAB076E7748C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="309">
   <si>
     <t>Название</t>
   </si>
@@ -846,9 +846,6 @@
     <t>Алгебра и геометрия</t>
   </si>
   <si>
-    <t>Теория  и практика эффективного речевого общения</t>
-  </si>
-  <si>
     <t>Дискретная математика</t>
   </si>
   <si>
@@ -954,16 +951,34 @@
     <t>Спецсимволы для удаления из наименования компетенции</t>
   </si>
   <si>
+    <t>Max value:</t>
+  </si>
+  <si>
+    <t>Min value:</t>
+  </si>
+  <si>
+    <t>Гуман</t>
+  </si>
+  <si>
+    <t>Общепроф</t>
+  </si>
+  <si>
+    <t>Естеств</t>
+  </si>
+  <si>
+    <t>Тег дисциплины (название страницы)</t>
+  </si>
+  <si>
+    <t>Тег</t>
+  </si>
+  <si>
+    <t>Макс кол-во знаков после запятой</t>
+  </si>
+  <si>
     <t>plans\t1</t>
   </si>
   <si>
     <t>result\t1</t>
-  </si>
-  <si>
-    <t>Max value:</t>
-  </si>
-  <si>
-    <t>Min value:</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1061,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1095,8 +1110,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1150,12 +1177,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1216,7 +1269,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1243,7 +1311,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1567,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1583,20 +1651,20 @@
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="49" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
@@ -1610,7 +1678,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
+      <c r="A3" s="49"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -1646,7 +1714,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="50" t="s">
         <v>115</v>
       </c>
       <c r="B7" t="s">
@@ -1655,13 +1723,13 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="50" t="s">
         <v>165</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -1669,7 +1737,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="23" t="s">
         <v>166</v>
       </c>
@@ -1723,7 +1791,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="50" t="s">
         <v>187</v>
       </c>
       <c r="B17" t="s">
@@ -1737,7 +1805,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="9" t="s">
         <v>189</v>
       </c>
@@ -1749,7 +1817,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="50" t="s">
         <v>179</v>
       </c>
       <c r="B19" t="s">
@@ -1763,7 +1831,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="9" t="s">
         <v>180</v>
       </c>
@@ -1775,13 +1843,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="50" t="s">
         <v>200</v>
       </c>
       <c r="B22" s="25" t="s">
@@ -1795,7 +1863,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="9" t="s">
         <v>215</v>
       </c>
@@ -1803,296 +1871,312 @@
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="50" t="s">
         <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="50" t="s">
         <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
-        <v>63</v>
+      <c r="A30" s="36" t="s">
+        <v>306</v>
       </c>
       <c r="B30" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="B32" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="43"/>
-      <c r="B36" s="9" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="50"/>
+      <c r="B37" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B38" s="25" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="5">
-        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>117</v>
+        <v>82</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>151</v>
+        <v>298</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>92</v>
+        <v>151</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B46" s="5">
-        <v>6</v>
+        <v>219</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="5">
-        <v>5</v>
+        <v>304</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B48" s="30">
-        <v>1E-3</v>
+        <v>224</v>
+      </c>
+      <c r="B48" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="30">
-        <v>1E-3</v>
+        <v>95</v>
+      </c>
+      <c r="B49" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="30">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="30">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B52" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="44" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" t="s">
-        <v>244</v>
-      </c>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="40" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-    </row>
-    <row r="57" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="37" t="s">
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+    </row>
+    <row r="59" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-    </row>
-    <row r="58" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="38" t="s">
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+    </row>
+    <row r="60" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B61" s="14" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A58:C58"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A56:C56"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A19:A21"/>
@@ -2149,12 +2233,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2180,309 +2264,522 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB27DC44-D357-46E3-9C3E-84D17CC4B47E}">
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.59765625" customWidth="1"/>
+    <col min="1" max="1" width="43.69921875" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B1" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="42">
+        <v>0</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="42">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="42">
+        <v>2</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>297</v>
+      <c r="B62">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2536,7 +2833,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2564,49 +2861,49 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C3" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>192</v>
       </c>
@@ -2620,21 +2917,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>194</v>
       </c>
@@ -2648,49 +2945,49 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C8" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="C9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="C9" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>132</v>
       </c>
@@ -2704,21 +3001,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>229</v>
       </c>
@@ -2732,21 +3029,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>207</v>
       </c>
@@ -2760,21 +3057,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>222</v>
       </c>
@@ -2800,13 +3097,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="37" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2822,13 +3119,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="37" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2844,13 +3141,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="37" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2859,20 +3156,20 @@
         <v>121</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2885,10 +3182,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="40" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2901,10 +3198,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="39" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2917,10 +3214,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="39" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3327,10 +3624,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE7B04-49FC-44AC-A9A9-144B494E3553}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3338,70 +3635,62 @@
     <col min="1" max="1" width="28.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>228</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3446,11 +3735,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B429472F-1271-40CA-9C17-DAB076E7748C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE56672-4E08-4124-AA03-2689351004FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="614">
   <si>
     <t>Название</t>
   </si>
@@ -957,15 +957,6 @@
     <t>Min value:</t>
   </si>
   <si>
-    <t>Гуман</t>
-  </si>
-  <si>
-    <t>Общепроф</t>
-  </si>
-  <si>
-    <t>Естеств</t>
-  </si>
-  <si>
     <t>Тег дисциплины (название страницы)</t>
   </si>
   <si>
@@ -975,10 +966,934 @@
     <t>Макс кол-во знаков после запятой</t>
   </si>
   <si>
-    <t>plans\t1</t>
-  </si>
-  <si>
-    <t>result\t1</t>
+    <t>Теория алгоритмов</t>
+  </si>
+  <si>
+    <t>Методы оптимизации</t>
+  </si>
+  <si>
+    <t>Фронтэнд разработка</t>
+  </si>
+  <si>
+    <t>Мобильные приложения</t>
+  </si>
+  <si>
+    <t>Инструментальные средства разработки ИС</t>
+  </si>
+  <si>
+    <t>Управление IT проектами</t>
+  </si>
+  <si>
+    <t>Язык Python для анализа данных</t>
+  </si>
+  <si>
+    <t>Разработка интерфейсов</t>
+  </si>
+  <si>
+    <t>Бекэнд разработка</t>
+  </si>
+  <si>
+    <t>Английский язык для профессиональных целей</t>
+  </si>
+  <si>
+    <t>Интеллектуальный анализ данных</t>
+  </si>
+  <si>
+    <t>Машинное обучение</t>
+  </si>
+  <si>
+    <t>Тестирование и контроль качества ПО</t>
+  </si>
+  <si>
+    <t>Облачные технологии и сервисы</t>
+  </si>
+  <si>
+    <t>Web-технологии</t>
+  </si>
+  <si>
+    <t>Аналитика больших данных</t>
+  </si>
+  <si>
+    <t>Интернет предпринимательство</t>
+  </si>
+  <si>
+    <t>Методы и технологии продвижения информационных ресурсов</t>
+  </si>
+  <si>
+    <t>Технология разработки компьютерных игр</t>
+  </si>
+  <si>
+    <t>Технологии виртуальной и дополненной реальности</t>
+  </si>
+  <si>
+    <t>Технологии визуализации данных</t>
+  </si>
+  <si>
+    <t>Цифровой сторителлинг</t>
+  </si>
+  <si>
+    <t>Гибридные вычислительные системы</t>
+  </si>
+  <si>
+    <t>Программное обеспечение мобильных систем</t>
+  </si>
+  <si>
+    <t>Системный анализ</t>
+  </si>
+  <si>
+    <t>Программирование</t>
+  </si>
+  <si>
+    <t>Информационные системы и технологии</t>
+  </si>
+  <si>
+    <t>Высшая математика</t>
+  </si>
+  <si>
+    <t>Эффективная коммуникация</t>
+  </si>
+  <si>
+    <t>Право</t>
+  </si>
+  <si>
+    <t>Проектирование информационных систем</t>
+  </si>
+  <si>
+    <t>Основы проектного менеджмента</t>
+  </si>
+  <si>
+    <t>Макроэкономика</t>
+  </si>
+  <si>
+    <t>Эконометрика</t>
+  </si>
+  <si>
+    <t>Программное обеспечение автономных систем</t>
+  </si>
+  <si>
+    <t>Организация процесса проектирования программного обеспечения</t>
+  </si>
+  <si>
+    <t>Прикладные информационные системы</t>
+  </si>
+  <si>
+    <t>Информационное общество и проблемы прикладной информатики</t>
+  </si>
+  <si>
+    <t>Системы управления цифровым производством</t>
+  </si>
+  <si>
+    <t>Естественные</t>
+  </si>
+  <si>
+    <t>Технические</t>
+  </si>
+  <si>
+    <t>Гуманитарные</t>
+  </si>
+  <si>
+    <t>Междисциплинарный курсовой проект</t>
+  </si>
+  <si>
+    <t>Информационная диагностика социальных объектов и процессов</t>
+  </si>
+  <si>
+    <t>Социально-информационные технологии</t>
+  </si>
+  <si>
+    <t>Интернет-технологии в социальных коммуникациях</t>
+  </si>
+  <si>
+    <t>Мировые информационные ресурсы</t>
+  </si>
+  <si>
+    <t>Компьютерный дизайн</t>
+  </si>
+  <si>
+    <t>Мультимедиа-технологии в социальных коммуникациях</t>
+  </si>
+  <si>
+    <t>Разработка интернет-приложений</t>
+  </si>
+  <si>
+    <t>Разработка пользовательского интерфейса</t>
+  </si>
+  <si>
+    <t>Разработка и стандартизация программных средств и информационных технологий</t>
+  </si>
+  <si>
+    <t>Компьютерная психодиагностика</t>
+  </si>
+  <si>
+    <t>Системы записи аудиовизуальных документов</t>
+  </si>
+  <si>
+    <t>Интеллектуальные системы управления техническими объектами</t>
+  </si>
+  <si>
+    <t>Инженерная психология и эргономика</t>
+  </si>
+  <si>
+    <t>Конфликтология</t>
+  </si>
+  <si>
+    <t>Теория коммуникаций</t>
+  </si>
+  <si>
+    <t>Основы межличностных коммуникаций</t>
+  </si>
+  <si>
+    <t>Социально-информационный менеджмент</t>
+  </si>
+  <si>
+    <t>Организационное поведение</t>
+  </si>
+  <si>
+    <t>Логика</t>
+  </si>
+  <si>
+    <t>Психология управления</t>
+  </si>
+  <si>
+    <t>Практическая психология</t>
+  </si>
+  <si>
+    <t>Социология</t>
+  </si>
+  <si>
+    <t>Социальная психология</t>
+  </si>
+  <si>
+    <t>Психология личности</t>
+  </si>
+  <si>
+    <t>Управление данными в производственных системах</t>
+  </si>
+  <si>
+    <t>Программируемые логические контроллеры</t>
+  </si>
+  <si>
+    <t>Автоматизированные системы управления предприятием</t>
+  </si>
+  <si>
+    <t>Управление техническими системами и процессами</t>
+  </si>
+  <si>
+    <t>Основы теории систем</t>
+  </si>
+  <si>
+    <t>Организация и планирование производств</t>
+  </si>
+  <si>
+    <t>Информационно-управляющие системы</t>
+  </si>
+  <si>
+    <t>Электронные устройства автоматики</t>
+  </si>
+  <si>
+    <t>Программное обеспечение систем управления</t>
+  </si>
+  <si>
+    <t>Цифровые системы управления</t>
+  </si>
+  <si>
+    <t>Методы анализа данных на Python и R</t>
+  </si>
+  <si>
+    <t>Технологии дополненной и виртуальной реальности: AR и VR</t>
+  </si>
+  <si>
+    <t>Управление требованиями к программному обеспечению</t>
+  </si>
+  <si>
+    <t>Веб-аналитика/Яндекс.Метрика, Google Analytics</t>
+  </si>
+  <si>
+    <t>UI/UX дизайн</t>
+  </si>
+  <si>
+    <t>Полиграфический дизайн и верстка/Adobe Illustrator</t>
+  </si>
+  <si>
+    <t>Информационная этика и цифровое право</t>
+  </si>
+  <si>
+    <t>Компьютерный анализ текста</t>
+  </si>
+  <si>
+    <t>Разработка компьютерных игр</t>
+  </si>
+  <si>
+    <t>Конфликты и переговоры</t>
+  </si>
+  <si>
+    <t>Управление проектами и тайм-менеджмент</t>
+  </si>
+  <si>
+    <t>Цифровизация проектирования технических систем</t>
+  </si>
+  <si>
+    <t>Технология цифрового проектирования технических устройств</t>
+  </si>
+  <si>
+    <t>Информационные системы логистики</t>
+  </si>
+  <si>
+    <t>Основы веб-картографии</t>
+  </si>
+  <si>
+    <t>Оптимальные и адаптивные системы</t>
+  </si>
+  <si>
+    <t>Адаптивное управление</t>
+  </si>
+  <si>
+    <t>Анализ данных в ИС мониторинга</t>
+  </si>
+  <si>
+    <t>SCADA-системы</t>
+  </si>
+  <si>
+    <t>DCS-системы</t>
+  </si>
+  <si>
+    <t>Инструменты бизнес-аналитики</t>
+  </si>
+  <si>
+    <t>Проектирование ГИС</t>
+  </si>
+  <si>
+    <t>Модели и методы искусственного интеллекта</t>
+  </si>
+  <si>
+    <t>Разработка интеграционных систем</t>
+  </si>
+  <si>
+    <t>Проектирование ИУС</t>
+  </si>
+  <si>
+    <t>Геоинформационные системы и технологии</t>
+  </si>
+  <si>
+    <t>Системы искусственного интеллекта</t>
+  </si>
+  <si>
+    <t>Системы аналитической обработки данных</t>
+  </si>
+  <si>
+    <t>Теория языков программирования</t>
+  </si>
+  <si>
+    <t>Основы картографии</t>
+  </si>
+  <si>
+    <t>Командный проект индустриальной разработки программного продукта</t>
+  </si>
+  <si>
+    <t>Методы обработки аэрокосмической информации</t>
+  </si>
+  <si>
+    <t>Бакалаврский семинар</t>
+  </si>
+  <si>
+    <t>Командный курсовой проект</t>
+  </si>
+  <si>
+    <t>Проектирование ИС для корпоративного сектора (МДКП)</t>
+  </si>
+  <si>
+    <t>Применение ГИС в исследованиях (МДКП)</t>
+  </si>
+  <si>
+    <t>Графический дизайн интерфейса</t>
+  </si>
+  <si>
+    <t>Мультиагентные системы</t>
+  </si>
+  <si>
+    <t>Информационные системы на предприятиях</t>
+  </si>
+  <si>
+    <t>Пространственный анализ данных в ГИС</t>
+  </si>
+  <si>
+    <t>Технологии личностного роста и социальных взаимодействий</t>
+  </si>
+  <si>
+    <t>Языки программирования</t>
+  </si>
+  <si>
+    <t>Электротехника и электроника</t>
+  </si>
+  <si>
+    <t>Теория автоматического управления</t>
+  </si>
+  <si>
+    <t>Метрология и измерительная техника автоматизированных систем</t>
+  </si>
+  <si>
+    <t>Промышленные сети и интерфейсы</t>
+  </si>
+  <si>
+    <t>Моделирование систем</t>
+  </si>
+  <si>
+    <t>Исполнительные устройства автоматики</t>
+  </si>
+  <si>
+    <t>Системы управления жизненным циклом продукции</t>
+  </si>
+  <si>
+    <t>Элементы и устройства автоматики</t>
+  </si>
+  <si>
+    <t>Проектирование систем управления</t>
+  </si>
+  <si>
+    <t>Защита интеллектуальной собственности</t>
+  </si>
+  <si>
+    <t>Технология разработки программного обеспечения</t>
+  </si>
+  <si>
+    <t>Надежность систем управления</t>
+  </si>
+  <si>
+    <t>Инженерная и компьютерная графика</t>
+  </si>
+  <si>
+    <t>Экономика и управление производством</t>
+  </si>
+  <si>
+    <t>Электроника и схемотехника</t>
+  </si>
+  <si>
+    <t>Аппаратные средства вычислительной техники</t>
+  </si>
+  <si>
+    <t>Язык программирования Python для научных вычислений</t>
+  </si>
+  <si>
+    <t>Компьютерные сети</t>
+  </si>
+  <si>
+    <t>Языки программирования. Дополнительные разделы</t>
+  </si>
+  <si>
+    <t>Технологии и методы программирования</t>
+  </si>
+  <si>
+    <t>Теория информации</t>
+  </si>
+  <si>
+    <t>Криптографические протоколы</t>
+  </si>
+  <si>
+    <t>Теоретико-числовые методы криптографии</t>
+  </si>
+  <si>
+    <t>Основы построения защищённых компьютерных сетей</t>
+  </si>
+  <si>
+    <t>Основы построения защищенных баз данных</t>
+  </si>
+  <si>
+    <t>Методы оценки безопасности компьютерных систем</t>
+  </si>
+  <si>
+    <t>Администрирование средств защиты информации в компьютерных системах и сетях</t>
+  </si>
+  <si>
+    <t>Комплексная защита информации</t>
+  </si>
+  <si>
+    <t>Математическое моделирование в задачах информационной безопасности</t>
+  </si>
+  <si>
+    <t>Гуманитарные аспекты информационной безопасности</t>
+  </si>
+  <si>
+    <t>Основы управленческой деятельности</t>
+  </si>
+  <si>
+    <t>Документоведение и документооборот</t>
+  </si>
+  <si>
+    <t>Акмеология</t>
+  </si>
+  <si>
+    <t>Преддипломая практика</t>
+  </si>
+  <si>
+    <t>Ознакомительная</t>
+  </si>
+  <si>
+    <t>Проектная практика</t>
+  </si>
+  <si>
+    <t>Научно-исследовательская работа</t>
+  </si>
+  <si>
+    <t>Подготовка к сдаче и сдача государственного экзамена</t>
+  </si>
+  <si>
+    <t>Выполнение, подготовка к процедуре защиты и защита выпускной квалификационной работы</t>
+  </si>
+  <si>
+    <t>Теория поиска инновационных решений</t>
+  </si>
+  <si>
+    <t>Компьютерное зрение и обработка изображений</t>
+  </si>
+  <si>
+    <t>Иностранный язык в профессиональной деятельности</t>
+  </si>
+  <si>
+    <t>Пакеты прикладных программ</t>
+  </si>
+  <si>
+    <t>Вывод полной информации о дисциплин без тега</t>
+  </si>
+  <si>
+    <t>plans\grad</t>
+  </si>
+  <si>
+    <t>result\grad</t>
+  </si>
+  <si>
+    <t>Технологии оцифровки</t>
+  </si>
+  <si>
+    <t>Безопасность операционных систем</t>
+  </si>
+  <si>
+    <t>Защита программ и данных</t>
+  </si>
+  <si>
+    <t>Объектно-ориентированное программирование</t>
+  </si>
+  <si>
+    <t>Разработка web-приложений</t>
+  </si>
+  <si>
+    <t>Инженерия требований к программному обеспечению</t>
+  </si>
+  <si>
+    <t>Нейронные сети и их приложения</t>
+  </si>
+  <si>
+    <t>Методы искусственного интеллекта</t>
+  </si>
+  <si>
+    <t>Агентное моделирование сложных систем</t>
+  </si>
+  <si>
+    <t>Режиссура интерактивных медиа</t>
+  </si>
+  <si>
+    <t>Анализ неструктурированных данных</t>
+  </si>
+  <si>
+    <t>Управление программными проектами</t>
+  </si>
+  <si>
+    <t>Управление цифровыми активами</t>
+  </si>
+  <si>
+    <t>Кибербезопасность</t>
+  </si>
+  <si>
+    <t>3D-скульптинг/Pixologic ZBrush</t>
+  </si>
+  <si>
+    <t>Практикум: Разработка цифрового продукта</t>
+  </si>
+  <si>
+    <t>Бизнес-приложения</t>
+  </si>
+  <si>
+    <t>Сетевые технологии и интернет вещей</t>
+  </si>
+  <si>
+    <t>Информационно-вычислительные сети</t>
+  </si>
+  <si>
+    <t>Моделирование процессов и систем</t>
+  </si>
+  <si>
+    <t>Инструментальные средства информационных систем</t>
+  </si>
+  <si>
+    <t>Теория и технология программирования</t>
+  </si>
+  <si>
+    <t>Проектирование и архитектура информационных систем</t>
+  </si>
+  <si>
+    <t>Теория эволюционных вычислений</t>
+  </si>
+  <si>
+    <t>Технологии вычислительного интеллекта</t>
+  </si>
+  <si>
+    <t>Бизнес-процессы в медиаиндустрии</t>
+  </si>
+  <si>
+    <t>Хранилища данных</t>
+  </si>
+  <si>
+    <t>Обработка медиа- контента Часть2</t>
+  </si>
+  <si>
+    <t>Документоведение и электронный документооборот. Часть 2</t>
+  </si>
+  <si>
+    <t>Обработка медиа- контента Часть1</t>
+  </si>
+  <si>
+    <t>Правовые основы цифровизации производства</t>
+  </si>
+  <si>
+    <t>Полиграфический процесс</t>
+  </si>
+  <si>
+    <t>Документоведение и электронный документооборот. Часть 1</t>
+  </si>
+  <si>
+    <t>Программные средства медиаиндустрии</t>
+  </si>
+  <si>
+    <t>Моделирование</t>
+  </si>
+  <si>
+    <t>Основы информационной безопасности</t>
+  </si>
+  <si>
+    <t>Теория вероятностей</t>
+  </si>
+  <si>
+    <t>Математическая логика и теория алгоритмов</t>
+  </si>
+  <si>
+    <t>Математическая статистика</t>
+  </si>
+  <si>
+    <t>Программно-аппаратные средства защиты информации</t>
+  </si>
+  <si>
+    <t>Защита информации от утечки по техническим каналам</t>
+  </si>
+  <si>
+    <t>Теория систем</t>
+  </si>
+  <si>
+    <t>Статистический анализ данных</t>
+  </si>
+  <si>
+    <t>Аналитическая геометрия</t>
+  </si>
+  <si>
+    <t>Методы машинного обучения</t>
+  </si>
+  <si>
+    <t>Разработка мобильных приложений</t>
+  </si>
+  <si>
+    <t>Управление в организационных системах</t>
+  </si>
+  <si>
+    <t>Системное программирование</t>
+  </si>
+  <si>
+    <t>Функциональный анализ</t>
+  </si>
+  <si>
+    <t>Анализ данных</t>
+  </si>
+  <si>
+    <t>Экономика предприятия</t>
+  </si>
+  <si>
+    <t>Всемирное культурное наследие</t>
+  </si>
+  <si>
+    <t>Разработка и анализ требований</t>
+  </si>
+  <si>
+    <t>Разработка Web-приложений</t>
+  </si>
+  <si>
+    <t>Методы анализа данных</t>
+  </si>
+  <si>
+    <t>Создание и обработка цифрового аудио и видео</t>
+  </si>
+  <si>
+    <t>Проектирование и архитектура программных систем</t>
+  </si>
+  <si>
+    <t>Тестирование программного обеспечения</t>
+  </si>
+  <si>
+    <t>Маркетинг в социальных медиа/SMM</t>
+  </si>
+  <si>
+    <t>Деловой иностранный язык</t>
+  </si>
+  <si>
+    <t>Моушн-дизайн</t>
+  </si>
+  <si>
+    <t>Основы цифрового делопроизводства</t>
+  </si>
+  <si>
+    <t>Разработка ПО ГИС</t>
+  </si>
+  <si>
+    <t>Web-программирование и компьютерный дизайн</t>
+  </si>
+  <si>
+    <t>Анализ больших данных</t>
+  </si>
+  <si>
+    <t>Разработка мобильного ПО</t>
+  </si>
+  <si>
+    <t>Цифровая экономика</t>
+  </si>
+  <si>
+    <t>Основы научно-исследовательской работы</t>
+  </si>
+  <si>
+    <t>Специальные исторические дисциплины</t>
+  </si>
+  <si>
+    <t>История исскуств</t>
+  </si>
+  <si>
+    <t>Технологии анализа цифровых рынков</t>
+  </si>
+  <si>
+    <t>Графический дизайн и инфографика/Adobe InDesign</t>
+  </si>
+  <si>
+    <t>3D-моделирование/Autodesk 3ds Max</t>
+  </si>
+  <si>
+    <t>Цифровое производство</t>
+  </si>
+  <si>
+    <t>Корпоративные ИС</t>
+  </si>
+  <si>
+    <t>Распределенные базы данных и технологии блокчейн</t>
+  </si>
+  <si>
+    <t>Практикум: моделирование и оптимизация бизнес-процессов</t>
+  </si>
+  <si>
+    <t>Аналитическая механика</t>
+  </si>
+  <si>
+    <t>Управление ИТ-проектами</t>
+  </si>
+  <si>
+    <t>Методы и средства отображения информации</t>
+  </si>
+  <si>
+    <t>Основы вычислительного эксперимента</t>
+  </si>
+  <si>
+    <t>Численные методы</t>
+  </si>
+  <si>
+    <t>Параллельное программирование</t>
+  </si>
+  <si>
+    <t>Конечные поля и многочлены над ними</t>
+  </si>
+  <si>
+    <t>Дискретный гармонический анализ</t>
+  </si>
+  <si>
+    <t>Серверное программирование</t>
+  </si>
+  <si>
+    <t>Технологии программирования</t>
+  </si>
+  <si>
+    <t>Теория вероятности и математическая статистика</t>
+  </si>
+  <si>
+    <t>Организационное и правовое обеспечение информационной безопасности</t>
+  </si>
+  <si>
+    <t>Основы управления информационной безопасностью</t>
+  </si>
+  <si>
+    <t>Цифровые бизнес-модели</t>
+  </si>
+  <si>
+    <t>Моделирование бизнес-процессов</t>
+  </si>
+  <si>
+    <t>Цифровое управление</t>
+  </si>
+  <si>
+    <t>Клиент-серверное программирование</t>
+  </si>
+  <si>
+    <t>Архитектура цифрового предприятия</t>
+  </si>
+  <si>
+    <t>Динамическое моделирование производственных процессов</t>
+  </si>
+  <si>
+    <t>Технологии обработки информации</t>
+  </si>
+  <si>
+    <t>Интеллектуальные системы и технологии</t>
+  </si>
+  <si>
+    <t>Технологии внедрения программного обеспечения</t>
+  </si>
+  <si>
+    <t>Теория вычислительного обучения</t>
+  </si>
+  <si>
+    <t>Авторское право в медиа</t>
+  </si>
+  <si>
+    <t>Системы ИТ-мониторинга социально-экономического развития</t>
+  </si>
+  <si>
+    <t>Web-программирование</t>
+  </si>
+  <si>
+    <t>Технологии цифровой трансформации</t>
+  </si>
+  <si>
+    <t>Дифференциальные уравнения</t>
+  </si>
+  <si>
+    <t>Сети и системы передачи информации</t>
+  </si>
+  <si>
+    <t>Методы и средства проектирования информационных систем и технологий</t>
+  </si>
+  <si>
+    <t>Методы и средства криптографической защиты информации</t>
+  </si>
+  <si>
+    <t>Алгебра</t>
+  </si>
+  <si>
+    <t>Основы функционального программирования</t>
+  </si>
+  <si>
+    <t>Машинно-зависимые языки программирования</t>
+  </si>
+  <si>
+    <t>Разработка корпоративных информационных систем</t>
+  </si>
+  <si>
+    <t>Подготовка к процедуре защиты и защита выпускной квалификационной работы</t>
+  </si>
+  <si>
+    <t>Архитектура вычислительных систем</t>
+  </si>
+  <si>
+    <t>Основы системных представлений</t>
+  </si>
+  <si>
+    <t>Спортивное программирование</t>
+  </si>
+  <si>
+    <t>Управление данными</t>
+  </si>
+  <si>
+    <t>Теория информационных процессов и систем</t>
+  </si>
+  <si>
+    <t>Проектирование баз данных</t>
+  </si>
+  <si>
+    <t>Основы топологии</t>
+  </si>
+  <si>
+    <t>Разностные методы</t>
+  </si>
+  <si>
+    <t>Нечеткая логика и ее приложения</t>
+  </si>
+  <si>
+    <t>Медиапланирование</t>
+  </si>
+  <si>
+    <t>Тренинг "Эффективные коммуникации"</t>
+  </si>
+  <si>
+    <t>Математика сложных процессов</t>
+  </si>
+  <si>
+    <t>Интерактивная визуализация данных</t>
+  </si>
+  <si>
+    <t>Механика сплошной среды</t>
+  </si>
+  <si>
+    <t>Технологии анализа данных</t>
+  </si>
+  <si>
+    <t>Основы стеганографии</t>
+  </si>
+  <si>
+    <t>Природа, культура и история Красноярского края</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>Теоретическая механика</t>
+  </si>
+  <si>
+    <t>Тренинг "Управление командой"</t>
+  </si>
+  <si>
+    <t>Интеллектуальные системы поддержки принятия решений</t>
+  </si>
+  <si>
+    <t>Управление жизненным циклом ИТ-систем</t>
+  </si>
+  <si>
+    <t>Исследование операций</t>
+  </si>
+  <si>
+    <t>Психология визуального восприятия</t>
+  </si>
+  <si>
+    <t>Деловая коммуникация</t>
+  </si>
+  <si>
+    <t>Трехмерное моделирование и анимация</t>
+  </si>
+  <si>
+    <t>Численная линейная алгебра</t>
+  </si>
+  <si>
+    <t>Методы цифровой трансформации</t>
+  </si>
+  <si>
+    <t>Тайм-менеджмент</t>
+  </si>
+  <si>
+    <t>Распределенные информационные системы</t>
+  </si>
+  <si>
+    <t>Теория рисков</t>
+  </si>
+  <si>
+    <t>Системы дистанционного зондирования Земли</t>
   </si>
 </sst>
 </file>
@@ -1635,10 +2550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1791,296 +2706,296 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="B17" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>74</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>74</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
-      <c r="B18" s="9" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="50"/>
+      <c r="B19" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="50" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>183</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>182</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="50"/>
       <c r="B21" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="50"/>
+      <c r="B22" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B23" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C23" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D23" s="25" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="B23" s="9" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="50"/>
+      <c r="B24" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="48"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="B26" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
-      <c r="B27" s="9" t="s">
+      <c r="B27" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="50"/>
+      <c r="B28" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="B28" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="9" t="s">
+      <c r="B29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="50"/>
+      <c r="B30" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="B30" s="5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="B31" s="5">
         <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="5">
-        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="B33" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="50" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="50"/>
-      <c r="B37" s="9" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="50"/>
+      <c r="B38" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B39" s="25" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="5">
-        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>117</v>
+        <v>82</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>151</v>
+        <v>298</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>92</v>
+        <v>151</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>305</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B48" s="5">
-        <v>6</v>
+        <v>301</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>95</v>
+        <v>224</v>
       </c>
       <c r="B49" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="30">
-        <v>1E-3</v>
+        <v>95</v>
+      </c>
+      <c r="B50" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B51" s="30">
         <v>1E-3</v>
@@ -2088,102 +3003,110 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="30">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B53" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="51" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>74</v>
-      </c>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" t="s">
-        <v>244</v>
+        <v>129</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="47" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-    </row>
-    <row r="59" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="44" t="s">
+      <c r="B59" s="48"/>
+      <c r="C59" s="48"/>
+    </row>
+    <row r="60" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="19" t="s">
+    <row r="61" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B62" s="14" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A58:C58"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2264,10 +3187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB27DC44-D357-46E3-9C3E-84D17CC4B47E}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2293,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2301,7 +3224,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2309,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2498,7 +3421,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -2506,15 +3429,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2546,7 +3469,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -2554,7 +3477,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -2562,31 +3485,31 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>273</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>274</v>
+        <v>46</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2594,23 +3517,23 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2618,7 +3541,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2626,7 +3549,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2634,7 +3557,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2642,7 +3565,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2650,23 +3573,23 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -2674,15 +3597,15 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2690,15 +3613,15 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -2706,7 +3629,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -2714,7 +3637,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2722,7 +3645,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2730,7 +3653,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -2738,7 +3661,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>307</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -2746,7 +3669,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>293</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -2754,7 +3677,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>294</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -2762,7 +3685,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -2770,9 +3693,2552 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>295</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>296</v>
       </c>
-      <c r="B62">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>308</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>309</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>310</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>311</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>312</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>313</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>314</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>315</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>316</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>317</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>318</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>319</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>320</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>321</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>322</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>323</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>324</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>325</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>326</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>327</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>328</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>329</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>330</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>331</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>332</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>333</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>334</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>335</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>336</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>337</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>338</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>339</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>340</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>341</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>342</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>346</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>347</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>348</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>349</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>350</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>351</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>352</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>353</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>354</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>355</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>356</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>357</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>358</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>359</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>360</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>361</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>362</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>363</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>364</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>365</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>366</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>367</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>368</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>369</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>370</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>371</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>372</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>373</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>374</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>375</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>376</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>377</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>378</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>379</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>380</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>381</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>382</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>383</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>384</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>385</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>386</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>387</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>388</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>389</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>390</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>391</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>392</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>393</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>394</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>395</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>396</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>397</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>398</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>399</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>400</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>401</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>402</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>403</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>404</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>405</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>406</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>407</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>408</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>409</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>410</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>228</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>411</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>412</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>413</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>414</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>415</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>416</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>417</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>418</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>419</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>420</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>421</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>422</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>52</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>423</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>424</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>425</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>426</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>427</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>428</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>429</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>430</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>431</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>432</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>433</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>434</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>435</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>436</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>437</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>438</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>439</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>440</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>441</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>442</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>443</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>444</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>445</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>446</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>447</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>448</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>449</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>450</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>451</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>452</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>453</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>454</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>455</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>38</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>456</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>457</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>458</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>36</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>459</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>469</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>470</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>471</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>472</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>473</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>474</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>475</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>476</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>477</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>478</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>479</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>480</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>481</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>482</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>483</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>484</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>485</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>486</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>487</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>488</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>489</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>490</v>
+      </c>
+      <c r="B242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>491</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>492</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>493</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>494</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>495</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>496</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>497</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>498</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>499</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>500</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>501</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>502</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>503</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>504</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>505</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>506</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>507</v>
+      </c>
+      <c r="B259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>508</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>509</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>510</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>511</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>512</v>
+      </c>
+      <c r="B264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>513</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>514</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>515</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>516</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>517</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>518</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>460</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>461</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>462</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>463</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>464</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>465</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>519</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>520</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>521</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>522</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>523</v>
+      </c>
+      <c r="B281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>524</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>525</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>526</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>527</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>528</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>529</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>530</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>32</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>531</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>532</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>533</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>534</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>535</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>536</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>537</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>538</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>539</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>540</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>541</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>542</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>543</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>544</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>545</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>546</v>
+      </c>
+      <c r="B305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>547</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>548</v>
+      </c>
+      <c r="B307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>549</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>550</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>551</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>552</v>
+      </c>
+      <c r="B311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>553</v>
+      </c>
+      <c r="B312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>554</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>34</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>555</v>
+      </c>
+      <c r="B315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>556</v>
+      </c>
+      <c r="B316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>557</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>558</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>559</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>560</v>
+      </c>
+      <c r="B320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>561</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>562</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>563</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>564</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>565</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>566</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>567</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>568</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>569</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>570</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>571</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>572</v>
+      </c>
+      <c r="B332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>573</v>
+      </c>
+      <c r="B333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>574</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>575</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>13</v>
+      </c>
+      <c r="B336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>576</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>577</v>
+      </c>
+      <c r="B338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>578</v>
+      </c>
+      <c r="B339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>579</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>17</v>
+      </c>
+      <c r="B341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>580</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>21</v>
+      </c>
+      <c r="B343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>581</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>582</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>583</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>584</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>28</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>585</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>586</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>587</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>588</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>589</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>590</v>
+      </c>
+      <c r="B354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>591</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>592</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>593</v>
+      </c>
+      <c r="B357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>594</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>595</v>
+      </c>
+      <c r="B359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>596</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>50</v>
+      </c>
+      <c r="B361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>19</v>
+      </c>
+      <c r="B362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>597</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>598</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>600</v>
+      </c>
+      <c r="B365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>601</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>602</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>603</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>604</v>
+      </c>
+      <c r="B369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>605</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>606</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>607</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>608</v>
+      </c>
+      <c r="B373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>609</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>610</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>611</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>612</v>
+      </c>
+      <c r="B377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>613</v>
+      </c>
+      <c r="B378">
         <v>1</v>
       </c>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE56672-4E08-4124-AA03-2689351004FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA9DDF0-B536-4961-BF6F-630C0EF1CC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="621">
   <si>
     <t>Название</t>
   </si>
@@ -1894,6 +1894,27 @@
   </si>
   <si>
     <t>Системы дистанционного зондирования Земли</t>
+  </si>
+  <si>
+    <t>Выводить информацию об индикаторах</t>
+  </si>
+  <si>
+    <t>Индикатор находится на глубине X=</t>
+  </si>
+  <si>
+    <t>Кол-во дисциплин компетенции</t>
+  </si>
+  <si>
+    <t>Кол-во дисциплин индикатора</t>
+  </si>
+  <si>
+    <t>Кол-во дисциплин заголовка компетенции</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Amount of subjects</t>
   </si>
 </sst>
 </file>
@@ -2123,7 +2144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2183,7 +2204,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2202,6 +2222,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2550,10 +2573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2566,20 +2589,20 @@
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="51" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
@@ -2593,7 +2616,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="51"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -2629,7 +2652,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="52" t="s">
         <v>115</v>
       </c>
       <c r="B7" t="s">
@@ -2638,13 +2661,13 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="52" t="s">
         <v>165</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -2652,7 +2675,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="23" t="s">
         <v>166</v>
       </c>
@@ -2683,23 +2706,23 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>77</v>
+        <v>614</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B15" t="s">
-        <v>74</v>
+        <v>615</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -2707,406 +2730,422 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>466</v>
+        <v>221</v>
       </c>
       <c r="B17" t="s">
-        <v>599</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="50" t="s">
-        <v>187</v>
+      <c r="A18" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="B19" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" t="s">
         <v>74</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C20" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="9" t="s">
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="52"/>
+      <c r="B21" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="50" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>183</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>182</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="9" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="52"/>
+      <c r="B23" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="9" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="52"/>
+      <c r="B24" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B25" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C25" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D25" s="25" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
-      <c r="B24" s="9" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="52"/>
+      <c r="B26" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="47" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="50" t="s">
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" t="s">
-        <v>468</v>
-      </c>
-    </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="52"/>
+      <c r="B32" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B33" s="5">
         <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="5">
-        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="B34" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="B35" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="50" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="9" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="52"/>
+      <c r="B40" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B41" s="25" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>152</v>
+        <v>82</v>
+      </c>
+      <c r="B42" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>92</v>
+        <v>298</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>301</v>
+        <v>118</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>302</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B49" s="5">
-        <v>6</v>
+        <v>219</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="5">
-        <v>5</v>
+        <v>301</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="30">
-        <v>1E-3</v>
+        <v>224</v>
+      </c>
+      <c r="B51" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="30">
-        <v>1E-3</v>
+        <v>95</v>
+      </c>
+      <c r="B52" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="30">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="30">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B55" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="51" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" t="s">
-        <v>244</v>
-      </c>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="47" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-    </row>
-    <row r="60" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="44" t="s">
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+    </row>
+    <row r="62" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="45" t="s">
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="19" t="s">
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B64" s="14" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A61:C61"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A59:C59"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A39:A40"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3156,12 +3195,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3189,7 +3228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB27DC44-D357-46E3-9C3E-84D17CC4B47E}">
   <dimension ref="A1:D378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+    <sheetView topLeftCell="A349" workbookViewId="0">
       <selection activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
@@ -3202,36 +3241,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="52" t="s">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
-        <v>0</v>
-      </c>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="41">
+        <v>0</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="42">
-        <v>1</v>
-      </c>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>343</v>
       </c>
     </row>
@@ -6299,7 +6338,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6327,21 +6366,21 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>203</v>
       </c>
@@ -6355,21 +6394,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>192</v>
       </c>
@@ -6383,21 +6422,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>194</v>
       </c>
@@ -6411,21 +6450,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>123</v>
       </c>
@@ -6439,21 +6478,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>132</v>
       </c>
@@ -6467,21 +6506,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>229</v>
       </c>
@@ -6495,21 +6534,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+    <row r="14" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>207</v>
       </c>
@@ -6523,21 +6562,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>222</v>
       </c>
@@ -6563,13 +6602,13 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="36" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6585,13 +6624,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="36" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6607,13 +6646,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="36" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6629,13 +6668,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="36" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6648,10 +6687,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="39" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6664,10 +6703,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="38" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6680,10 +6719,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="38" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6695,10 +6734,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48B31D4-AE50-4CB5-9904-DE1BA8BD2BC3}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6723,74 +6762,98 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="28" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="28" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B7" s="44" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
+        <v>616</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="37" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>617</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B13" s="45" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B14" s="28" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7201,11 +7264,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA9DDF0-B536-4961-BF6F-630C0EF1CC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DBD29E-B272-436F-A1E0-988F6B6D61C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="4" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="627">
   <si>
     <t>Название</t>
   </si>
@@ -786,9 +786,6 @@
     <t>ПЛИС Доп</t>
   </si>
   <si>
-    <t>Id;Label;Weight</t>
-  </si>
-  <si>
     <t>Делить ЗЕ у компетениции на кол-во компетенций в дисциплине</t>
   </si>
   <si>
@@ -1915,6 +1912,27 @@
   </si>
   <si>
     <t>Amount of subjects</t>
+  </si>
+  <si>
+    <t>Id;Label;Weight;Tag</t>
+  </si>
+  <si>
+    <t>Информационные технологии</t>
+  </si>
+  <si>
+    <t>Теория чисел</t>
+  </si>
+  <si>
+    <t>Архитектура информационных систем</t>
+  </si>
+  <si>
+    <t>Правоведение</t>
+  </si>
+  <si>
+    <t>Экономика</t>
+  </si>
+  <si>
+    <t>Выводить</t>
   </si>
 </sst>
 </file>
@@ -2144,7 +2162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2225,6 +2243,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2575,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2589,20 +2610,20 @@
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
@@ -2616,7 +2637,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
+      <c r="A3" s="52"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -2652,7 +2673,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="53" t="s">
         <v>115</v>
       </c>
       <c r="B7" t="s">
@@ -2661,13 +2682,13 @@
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>165</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -2675,7 +2696,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="23" t="s">
         <v>166</v>
       </c>
@@ -2706,15 +2727,15 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B15" s="5">
         <v>3</v>
@@ -2738,7 +2759,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -2746,14 +2767,14 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="53" t="s">
         <v>187</v>
       </c>
       <c r="B20" t="s">
@@ -2767,7 +2788,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="9" t="s">
         <v>189</v>
       </c>
@@ -2779,7 +2800,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="53" t="s">
         <v>179</v>
       </c>
       <c r="B22" t="s">
@@ -2793,7 +2814,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="9" t="s">
         <v>180</v>
       </c>
@@ -2805,13 +2826,13 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="53" t="s">
         <v>200</v>
       </c>
       <c r="B25" s="25" t="s">
@@ -2825,7 +2846,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="9" t="s">
         <v>215</v>
       </c>
@@ -2833,50 +2854,50 @@
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="53" t="s">
         <v>149</v>
       </c>
       <c r="B29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="52"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="53" t="s">
         <v>150</v>
       </c>
       <c r="B31" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B33" s="5">
         <v>5</v>
@@ -2923,7 +2944,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="53" t="s">
         <v>146</v>
       </c>
       <c r="B39" t="s">
@@ -2931,7 +2952,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="52"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="9" t="s">
         <v>145</v>
       </c>
@@ -2949,12 +2970,12 @@
         <v>82</v>
       </c>
       <c r="B42" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>117</v>
@@ -3010,10 +3031,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -3057,11 +3078,11 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="53" t="s">
+      <c r="A56" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
@@ -3076,7 +3097,7 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>244</v>
+        <v>620</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -3096,27 +3117,27 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="49" t="s">
+      <c r="A61" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
     </row>
     <row r="62" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="46"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="47" t="s">
+      <c r="A63" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="48"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
     </row>
@@ -3195,12 +3216,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3226,10 +3247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB27DC44-D357-46E3-9C3E-84D17CC4B47E}">
-  <dimension ref="A1:D378"/>
+  <dimension ref="A1:D385"/>
   <sheetViews>
-    <sheetView topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="D380" sqref="D380"/>
+    <sheetView topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="F381" sqref="F381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3244,18 +3265,18 @@
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="B1" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="41">
         <v>0</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3263,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3271,12 +3292,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3292,7 +3313,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3300,7 +3321,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3324,7 +3345,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -3332,7 +3353,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -3340,7 +3361,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -3356,7 +3377,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -3380,7 +3401,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3388,7 +3409,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3396,7 +3417,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3404,7 +3425,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3412,7 +3433,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3420,7 +3441,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3460,7 +3481,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -3468,7 +3489,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -3500,7 +3521,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3508,7 +3529,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -3516,7 +3537,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -3524,7 +3545,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -3540,7 +3561,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -3548,7 +3569,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3556,7 +3577,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3564,7 +3585,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -3572,7 +3593,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3580,7 +3601,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3588,7 +3609,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3596,7 +3617,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3604,7 +3625,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3612,7 +3633,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3620,7 +3641,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3628,7 +3649,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3636,7 +3657,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3644,7 +3665,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3652,7 +3673,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3660,7 +3681,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -3668,7 +3689,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3676,7 +3697,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3684,7 +3705,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3692,7 +3713,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3700,7 +3721,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3708,7 +3729,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -3716,7 +3737,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3756,7 +3777,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3764,7 +3785,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -3772,7 +3793,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3780,7 +3801,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3788,7 +3809,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3796,7 +3817,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -3804,7 +3825,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -3812,7 +3833,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3820,7 +3841,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -3828,7 +3849,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -3836,7 +3857,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -3844,7 +3865,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -3852,7 +3873,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -3860,7 +3881,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -3868,7 +3889,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -3876,7 +3897,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3884,7 +3905,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -3892,7 +3913,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -3900,7 +3921,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -3908,7 +3929,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3916,7 +3937,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -3924,7 +3945,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3940,7 +3961,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -3948,7 +3969,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -3956,7 +3977,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -3964,7 +3985,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -3972,7 +3993,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -3980,7 +4001,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3988,7 +4009,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -3996,7 +4017,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4004,7 +4025,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4012,7 +4033,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -4020,7 +4041,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4028,7 +4049,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -4036,7 +4057,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4044,7 +4065,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4052,7 +4073,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4060,7 +4081,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4068,7 +4089,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -4076,7 +4097,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4084,7 +4105,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4092,7 +4113,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4100,7 +4121,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4108,7 +4129,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4116,7 +4137,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -4124,7 +4145,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -4132,7 +4153,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -4140,7 +4161,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4148,7 +4169,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -4156,7 +4177,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -4164,7 +4185,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4172,7 +4193,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4180,7 +4201,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4188,7 +4209,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4196,7 +4217,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -4204,7 +4225,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -4212,7 +4233,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -4220,7 +4241,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4228,7 +4249,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4236,7 +4257,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4244,7 +4265,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4252,7 +4273,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -4260,7 +4281,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -4268,7 +4289,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -4276,7 +4297,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -4284,7 +4305,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -4292,7 +4313,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -4300,7 +4321,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -4308,7 +4329,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -4316,7 +4337,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -4324,7 +4345,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -4332,7 +4353,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -4340,7 +4361,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -4348,7 +4369,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -4356,7 +4377,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -4364,7 +4385,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -4372,7 +4393,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -4380,7 +4401,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -4388,7 +4409,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -4396,7 +4417,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4404,7 +4425,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -4412,7 +4433,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -4420,7 +4441,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -4431,7 +4452,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -4439,7 +4460,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -4447,7 +4468,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -4455,7 +4476,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -4463,7 +4484,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -4471,7 +4492,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -4479,7 +4500,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -4487,7 +4508,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -4495,7 +4516,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -4503,7 +4524,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -4511,7 +4532,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -4519,7 +4540,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -4527,7 +4548,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -4535,7 +4556,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -4543,7 +4564,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -4551,7 +4572,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -4559,7 +4580,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -4567,7 +4588,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -4575,7 +4596,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -4591,7 +4612,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -4599,7 +4620,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -4607,7 +4628,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -4615,7 +4636,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -4623,7 +4644,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -4631,7 +4652,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -4639,7 +4660,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -4647,7 +4668,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -4655,7 +4676,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -4663,7 +4684,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -4671,7 +4692,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -4679,7 +4700,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -4695,7 +4716,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -4703,7 +4724,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -4711,7 +4732,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B184">
         <v>2</v>
@@ -4719,7 +4740,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -4727,7 +4748,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -4735,7 +4756,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -4743,7 +4764,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -4751,7 +4772,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -4759,7 +4780,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -4767,7 +4788,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -4775,7 +4796,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -4783,7 +4804,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -4791,7 +4812,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -4799,7 +4820,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -4807,7 +4828,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B196">
         <v>2</v>
@@ -4815,7 +4836,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -4823,7 +4844,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -4831,7 +4852,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -4839,7 +4860,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -4847,7 +4868,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B201">
         <v>2</v>
@@ -4855,7 +4876,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B202">
         <v>2</v>
@@ -4863,7 +4884,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -4871,7 +4892,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -4879,7 +4900,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -4887,7 +4908,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -4895,7 +4916,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -4903,7 +4924,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -4911,7 +4932,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -4919,7 +4940,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -4927,7 +4948,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -4935,7 +4956,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -4943,7 +4964,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -4951,7 +4972,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -4967,7 +4988,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -4975,7 +4996,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -4983,7 +5004,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -4999,7 +5020,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -5007,7 +5028,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -5015,7 +5036,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -5023,7 +5044,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -5031,7 +5052,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -5039,7 +5060,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -5047,7 +5068,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -5055,7 +5076,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -5063,7 +5084,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -5071,7 +5092,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -5079,7 +5100,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -5087,7 +5108,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -5095,7 +5116,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -5103,7 +5124,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -5111,7 +5132,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -5119,7 +5140,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -5130,7 +5151,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -5138,7 +5159,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -5146,7 +5167,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -5154,7 +5175,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -5162,7 +5183,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -5170,7 +5191,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -5178,7 +5199,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B242">
         <v>2</v>
@@ -5186,7 +5207,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -5194,7 +5215,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -5202,7 +5223,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -5210,7 +5231,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -5218,7 +5239,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -5226,7 +5247,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -5234,7 +5255,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -5242,7 +5263,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -5250,7 +5271,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -5258,7 +5279,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -5266,7 +5287,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -5274,7 +5295,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -5282,7 +5303,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B255">
         <v>2</v>
@@ -5290,7 +5311,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -5298,7 +5319,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B257">
         <v>2</v>
@@ -5306,7 +5327,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B258">
         <v>2</v>
@@ -5314,7 +5335,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -5322,7 +5343,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -5330,7 +5351,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -5338,7 +5359,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -5346,7 +5367,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B263">
         <v>2</v>
@@ -5354,7 +5375,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -5362,7 +5383,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -5370,7 +5391,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -5378,7 +5399,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -5386,7 +5407,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -5394,7 +5415,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B269">
         <v>2</v>
@@ -5402,7 +5423,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B270">
         <v>2</v>
@@ -5410,7 +5431,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -5418,7 +5439,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -5426,7 +5447,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -5434,7 +5455,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -5442,7 +5463,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -5450,7 +5471,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -5458,7 +5479,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -5466,7 +5487,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -5474,7 +5495,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -5482,7 +5503,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -5490,7 +5511,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B281">
         <v>2</v>
@@ -5498,7 +5519,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -5506,7 +5527,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -5514,7 +5535,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -5522,7 +5543,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -5530,7 +5551,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -5538,7 +5559,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -5546,7 +5567,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -5562,7 +5583,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -5570,7 +5591,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -5578,7 +5599,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -5586,7 +5607,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -5594,7 +5615,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -5602,7 +5623,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -5610,7 +5631,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -5618,7 +5639,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -5626,7 +5647,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -5634,7 +5655,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -5642,7 +5663,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -5650,7 +5671,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -5658,7 +5679,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -5666,7 +5687,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -5674,7 +5695,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -5682,7 +5703,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B305">
         <v>2</v>
@@ -5690,7 +5711,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -5698,7 +5719,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B307">
         <v>2</v>
@@ -5706,7 +5727,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B308">
         <v>2</v>
@@ -5714,7 +5735,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B309">
         <v>2</v>
@@ -5722,7 +5743,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -5730,7 +5751,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B311">
         <v>2</v>
@@ -5738,7 +5759,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B312">
         <v>2</v>
@@ -5746,7 +5767,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -5762,7 +5783,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B315">
         <v>2</v>
@@ -5770,7 +5791,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B316">
         <v>2</v>
@@ -5778,7 +5799,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -5786,7 +5807,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -5797,7 +5818,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -5805,7 +5826,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B320">
         <v>2</v>
@@ -5813,7 +5834,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -5824,7 +5845,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -5832,7 +5853,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -5840,7 +5861,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -5848,7 +5869,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B325">
         <v>2</v>
@@ -5856,7 +5877,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -5864,7 +5885,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -5872,7 +5893,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -5880,7 +5901,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -5888,7 +5909,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -5896,7 +5917,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -5904,7 +5925,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B332">
         <v>2</v>
@@ -5912,7 +5933,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B333">
         <v>2</v>
@@ -5920,7 +5941,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -5928,7 +5949,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -5944,7 +5965,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -5952,7 +5973,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B338">
         <v>2</v>
@@ -5960,7 +5981,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B339">
         <v>2</v>
@@ -5968,7 +5989,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -5984,7 +6005,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -6000,7 +6021,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -6008,7 +6029,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -6016,7 +6037,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -6024,7 +6045,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -6040,7 +6061,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -6048,7 +6069,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -6056,7 +6077,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -6064,7 +6085,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -6072,7 +6093,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -6080,7 +6101,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B354">
         <v>2</v>
@@ -6088,7 +6109,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -6096,7 +6117,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -6104,7 +6125,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B357">
         <v>2</v>
@@ -6112,7 +6133,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -6120,7 +6141,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B359">
         <v>2</v>
@@ -6128,7 +6149,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -6152,7 +6173,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -6160,7 +6181,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -6168,7 +6189,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B365">
         <v>2</v>
@@ -6176,7 +6197,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -6184,7 +6205,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -6192,7 +6213,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -6200,7 +6221,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B369">
         <v>2</v>
@@ -6208,7 +6229,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -6216,7 +6237,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -6224,7 +6245,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -6235,7 +6256,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B373">
         <v>2</v>
@@ -6243,7 +6264,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -6251,7 +6272,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -6259,7 +6280,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -6267,7 +6288,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B377">
         <v>2</v>
@@ -6275,10 +6296,66 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B378">
         <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>621</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>622</v>
+      </c>
+      <c r="B380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>623</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>624</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>625</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>15</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>23</v>
+      </c>
+      <c r="B385">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6338,7 +6415,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6385,7 +6462,7 @@
         <v>203</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>74</v>
@@ -6661,7 +6738,7 @@
         <v>121</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>74</v>
@@ -6672,7 +6749,7 @@
         <v>122</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C25" s="36" t="s">
         <v>74</v>
@@ -6707,7 +6784,7 @@
         <v>144</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -6734,127 +6811,170 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48B31D4-AE50-4CB5-9904-DE1BA8BD2BC3}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="27.09765625" customWidth="1"/>
+    <col min="3" max="3" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="46" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="22" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>164</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>162</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="37" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>156</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="22" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B11" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" s="45" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>617</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>159</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -7264,11 +7384,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DBD29E-B272-436F-A1E0-988F6B6D61C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF520C1-7BD3-41E6-83B3-3FABBB8EB98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="4" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -1893,9 +1893,6 @@
     <t>Системы дистанционного зондирования Земли</t>
   </si>
   <si>
-    <t>Выводить информацию об индикаторах</t>
-  </si>
-  <si>
     <t>Индикатор находится на глубине X=</t>
   </si>
   <si>
@@ -1933,6 +1930,9 @@
   </si>
   <si>
     <t>Выводить</t>
+  </si>
+  <si>
+    <t>Выводить компетенции с 0 ЗЕ</t>
   </si>
 </sst>
 </file>
@@ -2596,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2673,45 +2673,45 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
-        <v>115</v>
+      <c r="A7" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="53"/>
+      <c r="B9" s="23" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B10" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="23" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
+      <c r="B11" s="23" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -2727,23 +2727,23 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>613</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>598</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="B15" s="5">
-        <v>3</v>
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -2751,226 +2751,226 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>221</v>
+        <v>465</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>244</v>
+        <v>626</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>465</v>
+      <c r="A19" s="53" t="s">
+        <v>187</v>
       </c>
       <c r="B19" t="s">
-        <v>598</v>
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
+      <c r="A20" s="53"/>
+      <c r="B20" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>190</v>
+      <c r="A21" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="B22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D22" t="s">
-        <v>184</v>
+      <c r="A22" s="53"/>
+      <c r="B22" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="53"/>
       <c r="B23" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="9" t="s">
-        <v>178</v>
+      <c r="A24" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>208</v>
-      </c>
+      <c r="A25" s="53"/>
+      <c r="B25" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
-      <c r="B26" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="A26" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
+      <c r="A28" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" t="s">
-        <v>466</v>
+      <c r="A29" s="53"/>
+      <c r="B29" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="53"/>
+      <c r="B31" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" t="s">
-        <v>467</v>
-      </c>
-    </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
-      <c r="B32" s="9" t="s">
-        <v>75</v>
+      <c r="A32" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
-        <v>302</v>
+      <c r="A33" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="B33" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B34" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="5">
-        <v>10</v>
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
-        <v>102</v>
+      <c r="A38" s="53" t="s">
+        <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" t="s">
-        <v>161</v>
+      <c r="A39" s="53"/>
+      <c r="B39" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="53"/>
-      <c r="B40" s="9" t="s">
-        <v>145</v>
+      <c r="A40" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>148</v>
+      <c r="A41" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>82</v>
+        <v>613</v>
       </c>
       <c r="B42" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -3097,7 +3097,7 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -3156,17 +3156,17 @@
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -6304,7 +6304,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -6312,7 +6312,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B380">
         <v>2</v>
@@ -6320,7 +6320,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B381">
         <v>1</v>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -6336,7 +6336,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B383">
         <v>0</v>
@@ -6813,8 +6813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48B31D4-AE50-4CB5-9904-DE1BA8BD2BC3}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6831,7 +6831,7 @@
         <v>155</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6842,7 +6842,7 @@
         <v>175</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>598</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6858,13 +6858,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>598</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6875,7 +6875,7 @@
         <v>252</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>598</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6886,7 +6886,7 @@
         <v>159</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>598</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6902,13 +6902,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>598</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6930,7 +6930,7 @@
         <v>159</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>598</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6946,10 +6946,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>74</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF520C1-7BD3-41E6-83B3-3FABBB8EB98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D0BE4C-B79C-4869-89AA-598BBD64D15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
     <sheet name="Тег" sheetId="11" r:id="rId2"/>
-    <sheet name="Инструкция Пользователя" sheetId="7" r:id="rId3"/>
-    <sheet name="Параметры вывода" sheetId="6" r:id="rId4"/>
-    <sheet name="Параметры расширенного вывода" sheetId="10" r:id="rId5"/>
-    <sheet name="Псевдонимы" sheetId="2" r:id="rId6"/>
-    <sheet name="Игнорируемые предметы" sheetId="8" r:id="rId7"/>
-    <sheet name="Игнорируемые УП" sheetId="9" r:id="rId8"/>
-    <sheet name="Компетенции(2)" sheetId="3" r:id="rId9"/>
-    <sheet name="Компетенции" sheetId="4" r:id="rId10"/>
-    <sheet name="ПланСвод" sheetId="5" r:id="rId11"/>
+    <sheet name="ТегКопия" sheetId="12" r:id="rId3"/>
+    <sheet name="Инструкция Пользователя" sheetId="7" r:id="rId4"/>
+    <sheet name="Параметры вывода" sheetId="6" r:id="rId5"/>
+    <sheet name="Параметры расширенного вывода" sheetId="10" r:id="rId6"/>
+    <sheet name="Псевдонимы" sheetId="2" r:id="rId7"/>
+    <sheet name="Игнорируемые предметы" sheetId="8" r:id="rId8"/>
+    <sheet name="Игнорируемые УП" sheetId="9" r:id="rId9"/>
+    <sheet name="Компетенции(2)" sheetId="3" r:id="rId10"/>
+    <sheet name="Компетенции" sheetId="4" r:id="rId11"/>
+    <sheet name="ПланСвод" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="681">
   <si>
     <t>Название</t>
   </si>
@@ -1452,12 +1453,6 @@
     <t>Вывод полной информации о дисциплин без тега</t>
   </si>
   <si>
-    <t>plans\grad</t>
-  </si>
-  <si>
-    <t>result\grad</t>
-  </si>
-  <si>
     <t>Технологии оцифровки</t>
   </si>
   <si>
@@ -1933,6 +1928,174 @@
   </si>
   <si>
     <t>Выводить компетенции с 0 ЗЕ</t>
+  </si>
+  <si>
+    <t>Использовать тег из config, если его нет в УП</t>
+  </si>
+  <si>
+    <t>Не гуманитарные</t>
+  </si>
+  <si>
+    <t>plans\t8</t>
+  </si>
+  <si>
+    <t>result\t8</t>
+  </si>
+  <si>
+    <t>Форма контроля</t>
+  </si>
+  <si>
+    <t>Технологии системного программирования</t>
+  </si>
+  <si>
+    <t>Методы защиты информации</t>
+  </si>
+  <si>
+    <t>Базы данных для индустриальных задач</t>
+  </si>
+  <si>
+    <t>Методы глубокого анализа данных на производствах</t>
+  </si>
+  <si>
+    <t>Имитационное моделирование</t>
+  </si>
+  <si>
+    <t>Программирование виртуальной среды</t>
+  </si>
+  <si>
+    <t>Программирование цифровых двойников</t>
+  </si>
+  <si>
+    <t>Программирование технологического оборудования</t>
+  </si>
+  <si>
+    <t>Архитектура операционных систем и языки низкого уровня</t>
+  </si>
+  <si>
+    <t>Архитектура компьютера и язык ассемблера</t>
+  </si>
+  <si>
+    <t>Методы трансляции формальных языков</t>
+  </si>
+  <si>
+    <t>Компиляция формальных языков</t>
+  </si>
+  <si>
+    <t>Коммуникативные технологии в профессиональной сфере на иностранном языке</t>
+  </si>
+  <si>
+    <t>Гибкое управление проектами</t>
+  </si>
+  <si>
+    <t>Социология и педагогика высшей школы</t>
+  </si>
+  <si>
+    <t>Технологии личностного роста</t>
+  </si>
+  <si>
+    <t>Программирование в операционной системе Линукс</t>
+  </si>
+  <si>
+    <t>Технологии создания программного обеспечения</t>
+  </si>
+  <si>
+    <t>Программирование драйверов</t>
+  </si>
+  <si>
+    <t>Научная публицистика</t>
+  </si>
+  <si>
+    <t>Сетевые технологии</t>
+  </si>
+  <si>
+    <t>Технологии управления командами разработчиков программного обеспечения</t>
+  </si>
+  <si>
+    <t>Программирование управляемых технических систем</t>
+  </si>
+  <si>
+    <t>Программирование промышленного оборудования</t>
+  </si>
+  <si>
+    <t>Базы данных и анализ промышленных данных</t>
+  </si>
+  <si>
+    <t>Линейная алгебра и аналитическая геометрия</t>
+  </si>
+  <si>
+    <t>Электроника</t>
+  </si>
+  <si>
+    <t>Технологии индустриального программирования</t>
+  </si>
+  <si>
+    <t>Алгоритмы решения прикладных задач</t>
+  </si>
+  <si>
+    <t>Создание программного обеспечения</t>
+  </si>
+  <si>
+    <t>Программирование корпоративных систем</t>
+  </si>
+  <si>
+    <t>Алгоритмы машинного обучения для решения прикладных задач</t>
+  </si>
+  <si>
+    <t>Математическое моделирование в информационных системах</t>
+  </si>
+  <si>
+    <t>Трехмерное моделирование индустриальных объектов</t>
+  </si>
+  <si>
+    <t>Промышленные технологии</t>
+  </si>
+  <si>
+    <t>Программирование электронных приборов и систем</t>
+  </si>
+  <si>
+    <t>Программирование киберфизических систем</t>
+  </si>
+  <si>
+    <t>Выполнение и защита выпускной квалификационной работы</t>
+  </si>
+  <si>
+    <t>Организация добровольческой (волонтёрской) деятельности и взаимодействие с социально ориентированными некоммерческими организациями</t>
+  </si>
+  <si>
+    <t>Фронтенд и бэкенд разработка</t>
+  </si>
+  <si>
+    <t>Стартап в информационных технологиях</t>
+  </si>
+  <si>
+    <t>Гибкие технологии создания программных продуктов</t>
+  </si>
+  <si>
+    <t>Технологии проектирования программных продуктов</t>
+  </si>
+  <si>
+    <t>Рефакторинг программного кода</t>
+  </si>
+  <si>
+    <t>Оптимизация программного кода</t>
+  </si>
+  <si>
+    <t>Русский язык и культура речи</t>
+  </si>
+  <si>
+    <t>Социальная психология и педагогика</t>
+  </si>
+  <si>
+    <t>Экономическая культура</t>
+  </si>
+  <si>
+    <t>Искусственный интеллект</t>
+  </si>
+  <si>
+    <t>Большие данные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Убирает расширение файла (будьте аккуратнее с названиями УП, всё, что идёт после первой точки, исчезнет, например 09.04.02.SP_IPTIP_2022.plx.xlsx станет 09) </t>
   </si>
 </sst>
 </file>
@@ -1942,7 +2105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2012,6 +2175,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2158,11 +2327,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2246,6 +2416,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2280,9 +2453,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{E090EB5D-F7C8-4C96-B947-8D226499C445}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{BF93330D-70F6-4B77-84A1-7E8AB7125379}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2594,10 +2768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2610,20 +2784,20 @@
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
@@ -2637,7 +2811,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="53"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -2681,7 +2855,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>115</v>
       </c>
       <c r="B8" t="s">
@@ -2690,13 +2864,13 @@
       <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="54" t="s">
         <v>165</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -2704,13 +2878,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="23" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="54" t="s">
         <v>131</v>
       </c>
       <c r="B12" t="s">
@@ -2718,16 +2892,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
+      <c r="A13" s="54"/>
+      <c r="B13" s="9" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -2735,7 +2907,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
         <v>74</v>
@@ -2743,7 +2915,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -2751,422 +2923,436 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>465</v>
+        <v>221</v>
       </c>
       <c r="B17" t="s">
-        <v>598</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>626</v>
+        <v>465</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>596</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="53" t="s">
-        <v>187</v>
+      <c r="A19" s="15" t="s">
+        <v>624</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" t="s">
         <v>74</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C21" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="9" t="s">
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="54"/>
+      <c r="B22" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="53" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>183</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>182</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="9" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="54"/>
+      <c r="B24" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="9" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="54"/>
+      <c r="B25" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="53" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B26" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C26" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D26" s="25" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
-      <c r="B25" s="9" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="54"/>
+      <c r="B27" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="50" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="50" t="s">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="B28" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="53" t="s">
-        <v>150</v>
-      </c>
       <c r="B30" t="s">
-        <v>467</v>
+        <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="54"/>
+      <c r="B33" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B34" s="5">
         <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="5">
-        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="B35" s="5">
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
+        <v>64</v>
+      </c>
+      <c r="B36" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="53"/>
-      <c r="B39" s="9" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="54"/>
+      <c r="B41" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B42" s="25" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="B42" s="5">
-        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>117</v>
+        <v>82</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>152</v>
+        <v>611</v>
+      </c>
+      <c r="B44" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>92</v>
+        <v>297</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>158</v>
+        <v>151</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>300</v>
+        <v>118</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>301</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B51" s="5">
-        <v>6</v>
+        <v>219</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" s="5">
-        <v>5</v>
+        <v>300</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="30">
-        <v>1E-3</v>
+        <v>224</v>
+      </c>
+      <c r="B53" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="30">
-        <v>1E-3</v>
+        <v>95</v>
+      </c>
+      <c r="B54" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="30">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="30">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B57" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="54" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" t="s">
-        <v>619</v>
-      </c>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="50" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-    </row>
-    <row r="62" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="47" t="s">
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+    </row>
+    <row r="64" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="48" t="s">
+      <c r="B64" s="48"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+    </row>
+    <row r="65" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="19" t="s">
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B66" s="14" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A62:C62"/>
+  <mergeCells count="17">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A63:C63"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A61:C61"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3174,6 +3360,53 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E4D0FA-305B-412E-8789-20EE846FCAE8}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.296875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55C6971-C43C-4F39-A4CB-1671DB6EB818}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -3201,29 +3434,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F546BFA9-E331-4372-933F-E90B46BAF38E}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.09765625" customWidth="1"/>
-    <col min="2" max="2" width="8.796875" customWidth="1"/>
+    <col min="2" max="3" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -3231,15 +3465,18 @@
         <v>65</v>
       </c>
       <c r="C2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3247,10 +3484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB27DC44-D357-46E3-9C3E-84D17CC4B47E}">
-  <dimension ref="A1:D385"/>
+  <dimension ref="A1:D434"/>
   <sheetViews>
-    <sheetView topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="F381" sqref="F381"/>
+    <sheetView topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="M438" sqref="M438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3265,11 +3502,11 @@
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="41">
@@ -3284,20 +3521,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>343</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
-        <v>2</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>342</v>
+      <c r="A4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3305,7 +3542,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>257</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3313,7 +3550,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3321,7 +3558,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3329,15 +3566,15 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>259</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3345,31 +3582,31 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3377,31 +3614,31 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3409,7 +3646,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3417,7 +3654,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3425,7 +3662,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3433,7 +3670,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3441,7 +3678,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>268</v>
+        <v>48</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3449,7 +3686,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3457,15 +3694,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3473,31 +3710,31 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>40</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3505,7 +3742,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3513,7 +3750,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3521,7 +3758,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3529,31 +3766,31 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>272</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>273</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3561,15 +3798,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3577,7 +3814,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3585,15 +3822,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3601,7 +3838,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3609,7 +3846,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3617,7 +3854,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3625,7 +3862,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3633,23 +3870,23 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3657,15 +3894,15 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3673,15 +3910,15 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -3689,7 +3926,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3697,7 +3934,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3705,7 +3942,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3713,7 +3950,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3721,7 +3958,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3729,7 +3966,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -3737,7 +3974,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>293</v>
+        <v>111</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3745,7 +3982,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -3753,7 +3990,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -3761,7 +3998,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -3769,7 +4006,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>294</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3777,7 +4014,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3785,7 +4022,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -3793,23 +4030,23 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -3817,7 +4054,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -3825,23 +4062,23 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -3849,7 +4086,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -3857,7 +4094,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -3865,7 +4102,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -3873,7 +4110,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -3881,7 +4118,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -3889,23 +4126,23 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -3913,15 +4150,15 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -3929,15 +4166,15 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -3945,7 +4182,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>326</v>
+        <v>2</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3953,7 +4190,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>2</v>
+        <v>327</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -3961,7 +4198,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -3969,31 +4206,31 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4001,23 +4238,23 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4025,7 +4262,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4033,15 +4270,15 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4049,15 +4286,15 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4065,7 +4302,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4073,15 +4310,15 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4089,15 +4326,15 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4105,7 +4342,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4113,7 +4350,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4121,7 +4358,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4129,15 +4366,15 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -4145,7 +4382,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -4153,23 +4390,23 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -4177,15 +4414,15 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4193,7 +4430,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4201,7 +4438,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4209,7 +4446,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4217,7 +4454,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -4225,23 +4462,23 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4249,7 +4486,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4257,7 +4494,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4265,7 +4502,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4273,15 +4510,15 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -4289,7 +4526,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -4297,7 +4534,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -4305,7 +4542,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -4313,15 +4550,15 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -4329,7 +4566,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -4337,7 +4574,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -4345,7 +4582,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -4353,7 +4590,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -4361,7 +4598,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -4369,7 +4606,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -4377,7 +4614,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -4385,7 +4622,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -4393,7 +4630,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -4401,23 +4638,23 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4425,34 +4662,34 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B148">
         <v>1</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -4460,7 +4697,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -4468,7 +4705,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -4476,7 +4713,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -4484,7 +4721,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -4492,7 +4729,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -4500,7 +4737,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -4508,7 +4745,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -4516,7 +4753,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -4524,7 +4761,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -4532,7 +4769,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -4540,7 +4777,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -4548,7 +4785,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -4556,7 +4793,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -4564,7 +4801,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -4572,7 +4809,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -4580,7 +4817,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -4588,15 +4825,15 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>409</v>
+        <v>228</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -4604,7 +4841,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>228</v>
+        <v>410</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -4612,7 +4849,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -4620,7 +4857,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -4628,7 +4865,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -4636,7 +4873,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -4644,7 +4881,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -4652,23 +4889,23 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -4676,7 +4913,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -4684,63 +4921,63 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>421</v>
+        <v>52</v>
       </c>
       <c r="B180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>52</v>
+        <v>422</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B184">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -4748,7 +4985,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -4756,7 +4993,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -4764,7 +5001,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -4772,7 +5009,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -4780,23 +5017,23 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -4804,7 +5041,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -4812,31 +5049,31 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -4844,7 +5081,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -4852,7 +5089,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -4860,7 +5097,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -4868,23 +5105,23 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -4892,7 +5129,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -4900,7 +5137,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -4908,7 +5145,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -4916,7 +5153,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -4924,7 +5161,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -4932,7 +5169,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -4940,23 +5177,23 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -4964,7 +5201,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -4972,15 +5209,15 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>454</v>
+        <v>38</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>38</v>
+        <v>455</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -4988,7 +5225,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -4996,7 +5233,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -5004,7 +5241,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>457</v>
+        <v>36</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -5012,7 +5249,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>36</v>
+        <v>458</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -5020,7 +5257,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -5028,7 +5265,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -5036,7 +5273,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -5044,7 +5281,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -5052,7 +5289,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -5060,7 +5297,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -5068,7 +5305,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -5076,7 +5313,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -5084,7 +5321,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -5092,23 +5329,23 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -5116,7 +5353,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -5124,7 +5361,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -5132,26 +5369,26 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
         <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B235">
-        <v>0</v>
-      </c>
-      <c r="C235">
         <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -5159,7 +5396,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -5167,7 +5404,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -5175,7 +5412,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -5183,7 +5420,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -5191,7 +5428,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -5199,15 +5436,15 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B242">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -5215,7 +5452,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -5223,7 +5460,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -5231,7 +5468,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -5239,15 +5476,15 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -5255,7 +5492,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -5263,7 +5500,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -5271,7 +5508,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -5279,7 +5516,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -5287,7 +5524,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -5295,23 +5532,23 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B255">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -5319,31 +5556,31 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B257">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B258">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B259">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -5351,7 +5588,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -5359,7 +5596,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -5367,23 +5604,23 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B263">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B264">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -5391,7 +5628,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -5399,7 +5636,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -5407,7 +5644,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -5415,23 +5652,23 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>517</v>
+        <v>459</v>
       </c>
       <c r="B270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -5439,7 +5676,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -5447,7 +5684,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -5455,31 +5692,31 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -5487,7 +5724,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -5495,15 +5732,15 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -5511,15 +5748,15 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B281">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -5527,7 +5764,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -5535,15 +5772,15 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -5551,7 +5788,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -5559,15 +5796,15 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>529</v>
+        <v>32</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -5575,15 +5812,15 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>32</v>
+        <v>528</v>
       </c>
       <c r="B289">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -5591,7 +5828,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -5599,7 +5836,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -5607,31 +5844,31 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -5639,23 +5876,23 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -5663,15 +5900,15 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -5679,7 +5916,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -5687,7 +5924,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -5695,7 +5932,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -5703,15 +5940,15 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B305">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -5719,31 +5956,31 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B307">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B308">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B309">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -5751,23 +5988,23 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B311">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B312">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>553</v>
+        <v>34</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -5775,7 +6012,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>34</v>
+        <v>552</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -5783,42 +6020,42 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B315">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
         <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B318">
         <v>1</v>
-      </c>
-      <c r="C318">
-        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -5826,146 +6063,146 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
+        <v>558</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
         <v>559</v>
       </c>
-      <c r="B320">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
+      <c r="B321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
         <v>560</v>
       </c>
-      <c r="B321">
-        <v>1</v>
-      </c>
-      <c r="C321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
         <v>561</v>
       </c>
-      <c r="B322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
         <v>562</v>
       </c>
-      <c r="B323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
         <v>563</v>
       </c>
-      <c r="B324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
+      <c r="B325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
         <v>564</v>
       </c>
-      <c r="B325">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
         <v>565</v>
       </c>
-      <c r="B326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
         <v>566</v>
       </c>
-      <c r="B327">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
         <v>567</v>
       </c>
-      <c r="B328">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
         <v>568</v>
       </c>
-      <c r="B329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
+      <c r="B330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
         <v>569</v>
       </c>
-      <c r="B330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
         <v>570</v>
       </c>
-      <c r="B331">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
+      <c r="B332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
         <v>571</v>
       </c>
-      <c r="B332">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
+      <c r="B333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
         <v>572</v>
       </c>
-      <c r="B333">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>13</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
         <v>573</v>
       </c>
-      <c r="B334">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
-        <v>574</v>
-      </c>
-      <c r="B335">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
-        <v>13</v>
-      </c>
       <c r="B336">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -5973,23 +6210,23 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B338">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B339">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>578</v>
+        <v>17</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -5997,31 +6234,31 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>17</v>
+        <v>577</v>
       </c>
       <c r="B341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>579</v>
+        <v>21</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>21</v>
+        <v>578</v>
       </c>
       <c r="B343">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -6029,7 +6266,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -6037,7 +6274,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -6045,7 +6282,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>583</v>
+        <v>28</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -6053,7 +6290,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>28</v>
+        <v>582</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -6061,7 +6298,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -6069,7 +6306,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -6077,7 +6314,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -6085,7 +6322,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -6093,7 +6330,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -6101,15 +6338,15 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -6117,39 +6354,39 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B359">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>595</v>
+        <v>50</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -6157,26 +6394,26 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B361">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>19</v>
+        <v>594</v>
       </c>
       <c r="B362">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -6184,28 +6421,28 @@
         <v>597</v>
       </c>
       <c r="B364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -6213,7 +6450,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -6221,15 +6458,15 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -6237,50 +6474,50 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B371">
         <v>0</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B372">
-        <v>0</v>
-      </c>
-      <c r="C372">
         <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B373">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -6288,15 +6525,15 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B377">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -6304,7 +6541,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -6312,23 +6549,23 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B380">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -6336,15 +6573,15 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>624</v>
+        <v>15</v>
       </c>
       <c r="B383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -6352,10 +6589,402 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>23</v>
+        <v>630</v>
       </c>
       <c r="B385">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>631</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>632</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>633</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>634</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>635</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>636</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>637</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>638</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>639</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>640</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>641</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>642</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>643</v>
+      </c>
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>644</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>645</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>646</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>647</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>648</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>649</v>
+      </c>
+      <c r="B404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>650</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>651</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>652</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>653</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>654</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>655</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>656</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>657</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>658</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>659</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>660</v>
+      </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>661</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>662</v>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>663</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>664</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>665</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>666</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>667</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>668</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>669</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>670</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>671</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>672</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>673</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>674</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>675</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>676</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>677</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>678</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>679</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6367,6 +6996,3527 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0762FE0F-C0AF-4FCE-B82F-1BA2A283DDCA}">
+  <dimension ref="A1:D435"/>
+  <sheetViews>
+    <sheetView topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="M428" sqref="M428"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.69921875" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="41">
+        <v>0</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="41">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="41">
+        <v>2</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>304</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>274</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>275</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>277</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>278</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>279</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>280</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>281</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>282</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>283</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>284</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>285</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>286</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>287</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>288</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>289</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>290</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>305</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>291</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>306</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>292</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>293</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>294</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>295</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>307</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>308</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>309</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>310</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>311</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>312</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>313</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>314</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>315</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>316</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>317</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>318</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>319</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>320</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>321</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>322</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>323</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>324</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>325</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>326</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>327</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>328</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>329</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>330</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>331</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>332</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>333</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>334</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>335</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>336</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>337</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>338</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>339</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>340</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>341</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>345</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>346</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>347</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>348</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>349</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>350</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>351</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>352</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>353</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>354</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>355</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>356</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>357</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>358</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>359</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>360</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>361</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>362</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>363</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>364</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>365</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>366</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>367</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>368</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>369</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>370</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>371</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>372</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>373</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>374</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>375</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>376</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>377</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>378</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>379</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>380</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>381</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>382</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>383</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>384</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>385</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>386</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>387</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>388</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>389</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>390</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>391</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>392</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>393</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>394</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>395</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>396</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>397</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>398</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>399</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>400</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>401</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>402</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>403</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>404</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>405</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>406</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>407</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>408</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>409</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>228</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>410</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>411</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>412</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>413</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>414</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>415</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>416</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>417</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>418</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>419</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>420</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>421</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>52</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>422</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>423</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>424</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>425</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>426</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>427</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>428</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>429</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>430</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>431</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>432</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>433</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>434</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>435</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>436</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>437</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>438</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>439</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>440</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>441</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>442</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>443</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>444</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>445</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>446</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>447</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>448</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>449</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>450</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>451</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>452</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>453</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>454</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>38</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>455</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>456</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>457</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>36</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>458</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>466</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>467</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>468</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>469</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>470</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>471</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>472</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>473</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>474</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>475</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>476</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>477</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>478</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>479</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>480</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>481</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>482</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>483</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>484</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>485</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>486</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>487</v>
+      </c>
+      <c r="B242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>488</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>489</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>490</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>491</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>492</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>493</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>494</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>495</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>496</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>497</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>498</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>499</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>500</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>501</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>502</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>503</v>
+      </c>
+      <c r="B258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>504</v>
+      </c>
+      <c r="B259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>505</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>506</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>507</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>508</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>509</v>
+      </c>
+      <c r="B264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>510</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>511</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>512</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>513</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>514</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>515</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>459</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>460</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>461</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>462</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>463</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>464</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>516</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>517</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>518</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>519</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>520</v>
+      </c>
+      <c r="B281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>521</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>522</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>523</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>524</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>525</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>526</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>527</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>32</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>528</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>529</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>530</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>531</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>532</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>533</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>534</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>535</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>536</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>537</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>538</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>539</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>540</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>541</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>542</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>543</v>
+      </c>
+      <c r="B305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>544</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>545</v>
+      </c>
+      <c r="B307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>546</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>547</v>
+      </c>
+      <c r="B309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>548</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>549</v>
+      </c>
+      <c r="B311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>550</v>
+      </c>
+      <c r="B312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>551</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>34</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>552</v>
+      </c>
+      <c r="B315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>553</v>
+      </c>
+      <c r="B316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>554</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>555</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>556</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>557</v>
+      </c>
+      <c r="B320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>558</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>559</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>560</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>561</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>562</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>563</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>564</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>565</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>566</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>567</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>568</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>569</v>
+      </c>
+      <c r="B332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>570</v>
+      </c>
+      <c r="B333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>571</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>572</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>13</v>
+      </c>
+      <c r="B336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>573</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>574</v>
+      </c>
+      <c r="B338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>575</v>
+      </c>
+      <c r="B339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>576</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>17</v>
+      </c>
+      <c r="B341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>577</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>21</v>
+      </c>
+      <c r="B343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>578</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>579</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>580</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>581</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>28</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>582</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>583</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>584</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>585</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>586</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>587</v>
+      </c>
+      <c r="B354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>588</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>589</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>590</v>
+      </c>
+      <c r="B357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>591</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>592</v>
+      </c>
+      <c r="B359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>593</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>50</v>
+      </c>
+      <c r="B361">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>19</v>
+      </c>
+      <c r="B362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>594</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>595</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>597</v>
+      </c>
+      <c r="B365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>598</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>599</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>600</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>601</v>
+      </c>
+      <c r="B369">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>602</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>603</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>604</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>605</v>
+      </c>
+      <c r="B373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>606</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>607</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>608</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>609</v>
+      </c>
+      <c r="B377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>610</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>618</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>619</v>
+      </c>
+      <c r="B380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>620</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>621</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>622</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>15</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>23</v>
+      </c>
+      <c r="B385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>630</v>
+      </c>
+      <c r="B386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>631</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>632</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>633</v>
+      </c>
+      <c r="B389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>634</v>
+      </c>
+      <c r="B390">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>635</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>636</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>637</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>638</v>
+      </c>
+      <c r="B394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>639</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>640</v>
+      </c>
+      <c r="B396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>641</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>642</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>643</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>644</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>645</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>646</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>647</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>648</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>649</v>
+      </c>
+      <c r="B405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>650</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>651</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>652</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>653</v>
+      </c>
+      <c r="B409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>654</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>655</v>
+      </c>
+      <c r="B411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>656</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>657</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>658</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>659</v>
+      </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>660</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>661</v>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>662</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>663</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>664</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>665</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>666</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>667</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>668</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>669</v>
+      </c>
+      <c r="B425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>670</v>
+      </c>
+      <c r="B426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>671</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>672</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>673</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>674</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>675</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>676</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>677</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>678</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>679</v>
+      </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE973070-7C8A-47D0-A5B3-F5768C3C3395}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -6410,7 +10560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -6809,12 +10959,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48B31D4-AE50-4CB5-9904-DE1BA8BD2BC3}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6831,7 +10981,7 @@
         <v>155</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6858,13 +11008,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>616</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>618</v>
-      </c>
       <c r="C4" s="37" t="s">
-        <v>74</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -6875,7 +11025,7 @@
         <v>252</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>74</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6886,7 +11036,7 @@
         <v>159</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>74</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6902,13 +11052,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>74</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6930,7 +11080,7 @@
         <v>159</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>74</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6941,18 +11091,18 @@
         <v>249</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>74</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>615</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>617</v>
-      </c>
       <c r="C12" s="37" t="s">
-        <v>74</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -6963,7 +11113,7 @@
         <v>250</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>74</v>
+        <v>596</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -6974,7 +11124,7 @@
         <v>159</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>74</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -6983,7 +11133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D30513-835A-4AE6-857E-98ABAAAB41D8}">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -7271,7 +11421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE7B04-49FC-44AC-A9A9-144B494E3553}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -7345,7 +11495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AEC7CB-5979-420D-BDFA-FE936176154C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7366,51 +11516,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E4D0FA-305B-412E-8789-20EE846FCAE8}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.296875" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="19.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D0BE4C-B79C-4869-89AA-598BBD64D15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480AFDC4-35CE-45DE-8CF6-C7759C0564F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="686">
   <si>
     <t>Название</t>
   </si>
@@ -619,15 +619,6 @@
     <t>Считать ли метрики</t>
   </si>
   <si>
-    <t>альтернативного графа</t>
-  </si>
-  <si>
-    <t>основного графа</t>
-  </si>
-  <si>
-    <t>графа для отдельного курса</t>
-  </si>
-  <si>
     <t xml:space="preserve">Credit on competence </t>
   </si>
   <si>
@@ -1936,12 +1927,6 @@
     <t>Не гуманитарные</t>
   </si>
   <si>
-    <t>plans\t8</t>
-  </si>
-  <si>
-    <t>result\t8</t>
-  </si>
-  <si>
     <t>Форма контроля</t>
   </si>
   <si>
@@ -2096,6 +2081,36 @@
   </si>
   <si>
     <t xml:space="preserve">Убирает расширение файла (будьте аккуратнее с названиями УП, всё, что идёт после первой точки, исчезнет, например 09.04.02.SP_IPTIP_2022.plx.xlsx станет 09) </t>
+  </si>
+  <si>
+    <t>plans\grad</t>
+  </si>
+  <si>
+    <t>result\grad</t>
+  </si>
+  <si>
+    <t>Выводить итоговую статистику</t>
+  </si>
+  <si>
+    <t>Выводить коридор макс-мин</t>
+  </si>
+  <si>
+    <t>Объединить вывод данных УП с данными по графам</t>
+  </si>
+  <si>
+    <t>Граф по всем курсам</t>
+  </si>
+  <si>
+    <t>Основного графа</t>
+  </si>
+  <si>
+    <t>Альтернативного графа</t>
+  </si>
+  <si>
+    <t>Графа для отдельного курса</t>
+  </si>
+  <si>
+    <t>Графы по каждому курсу</t>
   </si>
 </sst>
 </file>
@@ -2419,6 +2434,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2428,17 +2452,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2768,10 +2783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2784,20 +2799,20 @@
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
@@ -2811,7 +2826,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="54"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -2848,14 +2863,14 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="50" t="s">
         <v>115</v>
       </c>
       <c r="B8" t="s">
@@ -2864,13 +2879,13 @@
       <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="50" t="s">
         <v>165</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -2878,13 +2893,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="23" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="50" t="s">
         <v>131</v>
       </c>
       <c r="B12" t="s">
@@ -2892,9 +2907,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="9" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2923,7 +2938,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -2931,15 +2946,15 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B18" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
@@ -2947,412 +2962,449 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="B21" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="B22" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="50" t="s">
+        <v>680</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="50"/>
+      <c r="B24" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>74</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>74</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="54" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="50"/>
+      <c r="B26" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" t="s">
         <v>183</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" t="s">
         <v>182</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D27" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="9" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="50"/>
+      <c r="B28" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="9" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
+      <c r="B29" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
-      <c r="B27" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="51" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="50"/>
+      <c r="B31" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="51" t="s">
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="54" t="s">
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="B30" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
-      <c r="B31" s="9" t="s">
+      <c r="B34" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="50"/>
+      <c r="B35" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="54" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="B32" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
-      <c r="B33" s="9" t="s">
+      <c r="B36" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="50"/>
+      <c r="B37" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="B34" s="5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B38" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B39" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B40" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="54" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
-      <c r="B41" s="9" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="50"/>
+      <c r="B45" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B46" s="25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B47" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="B44" s="5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="B48" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B53" s="5">
+      <c r="B56" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B58" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="30">
+      <c r="B59" s="30">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="30">
+      <c r="B60" s="30">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B61" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="55" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="18" t="s">
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B63" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="18" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B60" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="18" t="s">
+      <c r="B64" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B65" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="18" t="s">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B66" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="51" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-    </row>
-    <row r="64" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="48" t="s">
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
+    </row>
+    <row r="68" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-    </row>
-    <row r="65" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="49" t="s">
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+    </row>
+    <row r="69" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="19" t="s">
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B70" s="14" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
+  <mergeCells count="18">
+    <mergeCell ref="A69:C69"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A67:C67"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A44:A45"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A68:C68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3449,13 +3501,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3465,7 +3517,7 @@
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -3503,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
@@ -3513,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3521,12 +3573,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3542,7 +3594,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3550,7 +3602,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3574,7 +3626,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3582,7 +3634,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3590,7 +3642,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3606,7 +3658,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3630,7 +3682,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3638,7 +3690,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3646,7 +3698,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3654,7 +3706,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3662,7 +3714,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3670,7 +3722,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3710,7 +3762,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3718,7 +3770,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3750,7 +3802,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3758,7 +3810,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3766,7 +3818,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3774,7 +3826,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3790,7 +3842,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3798,7 +3850,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3806,7 +3858,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3814,7 +3866,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3822,7 +3874,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3830,7 +3882,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3838,7 +3890,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3846,7 +3898,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3854,7 +3906,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3862,7 +3914,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3870,7 +3922,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3878,7 +3930,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3886,7 +3938,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3894,7 +3946,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3902,7 +3954,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3910,7 +3962,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -3918,7 +3970,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -3926,7 +3978,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3934,7 +3986,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -3942,7 +3994,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3950,7 +4002,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3958,7 +4010,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3966,7 +4018,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4006,7 +4058,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4014,7 +4066,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4022,7 +4074,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -4030,7 +4082,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -4038,7 +4090,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -4046,7 +4098,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4054,7 +4106,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -4062,7 +4114,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -4070,7 +4122,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -4078,7 +4130,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -4086,7 +4138,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -4094,7 +4146,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -4102,7 +4154,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -4110,7 +4162,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -4118,7 +4170,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -4126,7 +4178,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -4134,7 +4186,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4142,7 +4194,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -4150,7 +4202,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4158,7 +4210,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4166,7 +4218,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -4174,7 +4226,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4190,7 +4242,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4198,7 +4250,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -4206,7 +4258,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -4214,7 +4266,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -4222,7 +4274,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4230,7 +4282,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4238,7 +4290,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -4246,7 +4298,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4254,7 +4306,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4262,7 +4314,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4270,7 +4322,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4278,7 +4330,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4286,7 +4338,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4294,7 +4346,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4302,7 +4354,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4310,7 +4362,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4318,7 +4370,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4326,7 +4378,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4334,7 +4386,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4342,7 +4394,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4350,7 +4402,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4358,7 +4410,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4366,7 +4418,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -4374,7 +4426,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -4382,7 +4434,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -4390,7 +4442,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4398,7 +4450,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -4406,7 +4458,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -4414,7 +4466,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4422,7 +4474,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4430,7 +4482,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4438,7 +4490,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4446,7 +4498,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4454,7 +4506,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -4462,7 +4514,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -4470,7 +4522,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4478,7 +4530,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4486,7 +4538,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4494,7 +4546,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4502,7 +4554,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4510,7 +4562,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -4518,7 +4570,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -4526,7 +4578,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -4534,7 +4586,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -4542,7 +4594,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -4550,7 +4602,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -4558,7 +4610,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -4566,7 +4618,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -4574,7 +4626,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -4582,7 +4634,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -4590,7 +4642,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -4598,7 +4650,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -4606,7 +4658,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -4614,7 +4666,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -4622,7 +4674,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -4630,7 +4682,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -4638,7 +4690,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -4646,7 +4698,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -4654,7 +4706,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4662,7 +4714,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -4670,7 +4722,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -4681,7 +4733,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -4689,7 +4741,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -4697,7 +4749,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -4705,7 +4757,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -4713,7 +4765,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -4721,7 +4773,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -4729,7 +4781,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -4737,7 +4789,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -4745,7 +4797,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -4753,7 +4805,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -4761,7 +4813,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -4769,7 +4821,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -4777,7 +4829,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -4785,7 +4837,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -4793,7 +4845,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -4801,7 +4853,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -4809,7 +4861,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -4817,7 +4869,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -4825,7 +4877,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -4833,7 +4885,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -4841,7 +4893,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -4849,7 +4901,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -4857,7 +4909,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -4865,7 +4917,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -4873,7 +4925,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -4881,7 +4933,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -4889,7 +4941,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -4897,7 +4949,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -4905,7 +4957,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -4913,7 +4965,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -4921,7 +4973,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4929,7 +4981,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -4945,7 +4997,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -4953,7 +5005,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -4961,7 +5013,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -4969,7 +5021,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -4977,7 +5029,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -4985,7 +5037,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -4993,7 +5045,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -5001,7 +5053,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -5009,7 +5061,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -5017,7 +5069,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -5025,7 +5077,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -5033,7 +5085,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -5041,7 +5093,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -5049,7 +5101,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -5057,7 +5109,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -5065,7 +5117,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -5073,7 +5125,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -5081,7 +5133,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -5089,7 +5141,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -5097,7 +5149,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -5105,7 +5157,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -5113,7 +5165,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -5121,7 +5173,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -5129,7 +5181,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -5137,7 +5189,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -5145,7 +5197,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -5153,7 +5205,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -5161,7 +5213,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -5169,7 +5221,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -5177,7 +5229,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -5185,7 +5237,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -5193,7 +5245,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -5201,7 +5253,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -5217,7 +5269,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -5225,7 +5277,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -5233,7 +5285,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -5249,7 +5301,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -5257,7 +5309,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -5265,7 +5317,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -5273,7 +5325,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -5281,7 +5333,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -5289,7 +5341,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -5297,7 +5349,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -5305,7 +5357,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -5313,7 +5365,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -5321,7 +5373,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -5329,7 +5381,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -5337,7 +5389,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -5345,7 +5397,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -5353,7 +5405,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -5361,7 +5413,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -5369,7 +5421,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -5380,7 +5432,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -5388,7 +5440,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -5396,7 +5448,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -5404,7 +5456,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -5412,7 +5464,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -5420,7 +5472,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -5428,7 +5480,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -5436,7 +5488,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -5444,7 +5496,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -5452,7 +5504,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -5460,7 +5512,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -5468,7 +5520,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -5476,7 +5528,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -5484,7 +5536,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -5492,7 +5544,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -5500,7 +5552,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -5508,7 +5560,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -5516,7 +5568,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -5524,7 +5576,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -5532,7 +5584,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -5540,7 +5592,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -5548,7 +5600,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -5556,7 +5608,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -5564,7 +5616,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -5572,7 +5624,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -5580,7 +5632,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -5588,7 +5640,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -5596,7 +5648,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -5604,7 +5656,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -5612,7 +5664,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -5620,7 +5672,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -5628,7 +5680,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -5636,7 +5688,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -5644,7 +5696,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -5652,7 +5704,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -5660,7 +5712,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -5668,7 +5720,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -5676,7 +5728,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -5684,7 +5736,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -5692,7 +5744,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -5700,7 +5752,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -5708,7 +5760,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -5716,7 +5768,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -5724,7 +5776,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -5732,7 +5784,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -5740,7 +5792,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -5748,7 +5800,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -5756,7 +5808,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -5764,7 +5816,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -5772,7 +5824,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -5780,7 +5832,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -5788,7 +5840,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -5796,7 +5848,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -5812,7 +5864,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -5820,7 +5872,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -5828,7 +5880,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -5836,7 +5888,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -5844,7 +5896,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -5852,7 +5904,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -5860,7 +5912,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -5868,7 +5920,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -5876,7 +5928,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -5884,7 +5936,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -5892,7 +5944,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -5900,7 +5952,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -5908,7 +5960,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -5916,7 +5968,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -5924,7 +5976,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -5932,7 +5984,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -5940,7 +5992,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -5948,7 +6000,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -5956,7 +6008,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -5964,7 +6016,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -5972,7 +6024,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -5980,7 +6032,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -5988,7 +6040,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -5996,7 +6048,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -6012,7 +6064,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -6020,7 +6072,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -6028,7 +6080,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -6036,7 +6088,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -6047,7 +6099,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -6055,7 +6107,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -6063,7 +6115,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -6074,7 +6126,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -6082,7 +6134,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -6090,7 +6142,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -6098,7 +6150,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -6106,7 +6158,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -6114,7 +6166,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -6122,7 +6174,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -6130,7 +6182,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -6138,7 +6190,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -6146,7 +6198,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -6154,7 +6206,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -6162,7 +6214,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -6170,7 +6222,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -6178,7 +6230,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -6194,7 +6246,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -6202,7 +6254,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -6210,7 +6262,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -6218,7 +6270,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -6234,7 +6286,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -6250,7 +6302,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -6258,7 +6310,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -6266,7 +6318,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -6274,7 +6326,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -6290,7 +6342,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -6298,7 +6350,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -6306,7 +6358,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -6314,7 +6366,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -6322,7 +6374,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -6330,7 +6382,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -6338,7 +6390,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -6346,7 +6398,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -6354,7 +6406,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -6362,7 +6414,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -6370,7 +6422,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -6378,7 +6430,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -6402,7 +6454,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -6410,7 +6462,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -6418,7 +6470,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -6426,7 +6478,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -6434,7 +6486,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -6442,7 +6494,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -6450,7 +6502,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -6458,7 +6510,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B369">
         <v>0</v>
@@ -6466,7 +6518,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -6474,7 +6526,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -6485,7 +6537,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -6493,7 +6545,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -6501,7 +6553,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -6509,7 +6561,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -6517,7 +6569,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -6525,7 +6577,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -6533,7 +6585,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -6541,7 +6593,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -6549,7 +6601,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -6557,7 +6609,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -6565,7 +6617,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -6589,7 +6641,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -6597,7 +6649,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -6605,7 +6657,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -6613,7 +6665,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -6621,7 +6673,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -6629,7 +6681,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -6637,7 +6689,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -6645,7 +6697,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B392">
         <v>1</v>
@@ -6653,7 +6705,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -6661,7 +6713,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -6669,7 +6721,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -6677,7 +6729,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -6685,7 +6737,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -6693,7 +6745,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -6701,7 +6753,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -6709,7 +6761,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -6717,7 +6769,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -6725,7 +6777,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -6733,7 +6785,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -6741,7 +6793,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -6749,7 +6801,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -6757,7 +6809,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -6765,7 +6817,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -6773,7 +6825,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B408">
         <v>1</v>
@@ -6781,7 +6833,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B409">
         <v>1</v>
@@ -6789,7 +6841,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -6797,7 +6849,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -6805,7 +6857,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -6813,7 +6865,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -6821,7 +6873,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -6829,7 +6881,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -6837,7 +6889,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -6845,7 +6897,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -6853,7 +6905,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -6861,7 +6913,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -6869,7 +6921,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -6877,7 +6929,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -6885,7 +6937,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -6893,7 +6945,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B423">
         <v>0</v>
@@ -6901,7 +6953,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -6909,7 +6961,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B425">
         <v>0</v>
@@ -6917,7 +6969,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -6925,7 +6977,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -6933,7 +6985,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -6941,7 +6993,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -6949,7 +7001,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -6957,7 +7009,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B431">
         <v>0</v>
@@ -6965,7 +7017,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B432">
         <v>0</v>
@@ -6973,7 +7025,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -6981,7 +7033,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -7016,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
@@ -7026,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -7034,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -7042,12 +7094,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7063,7 +7115,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7071,7 +7123,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7095,7 +7147,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -7103,7 +7155,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -7111,7 +7163,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -7127,7 +7179,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -7151,7 +7203,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7159,7 +7211,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7167,7 +7219,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7175,7 +7227,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -7183,7 +7235,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -7191,7 +7243,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -7231,7 +7283,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -7239,7 +7291,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -7271,7 +7323,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -7279,7 +7331,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -7287,7 +7339,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -7295,7 +7347,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -7311,7 +7363,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -7319,7 +7371,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -7327,7 +7379,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -7335,7 +7387,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -7343,7 +7395,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -7351,7 +7403,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -7359,7 +7411,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -7367,7 +7419,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -7375,7 +7427,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -7383,7 +7435,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -7391,7 +7443,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7399,7 +7451,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -7407,7 +7459,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -7415,7 +7467,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -7423,7 +7475,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -7431,7 +7483,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -7439,7 +7491,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -7447,7 +7499,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -7455,7 +7507,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7463,7 +7515,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -7471,7 +7523,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -7479,7 +7531,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7487,7 +7539,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7527,7 +7579,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -7535,7 +7587,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -7543,7 +7595,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -7551,7 +7603,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -7559,7 +7611,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -7567,7 +7619,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -7575,7 +7627,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -7583,7 +7635,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -7591,7 +7643,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -7599,7 +7651,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -7607,7 +7659,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -7615,7 +7667,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -7623,7 +7675,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -7631,7 +7683,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -7639,7 +7691,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -7647,7 +7699,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -7655,7 +7707,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -7663,7 +7715,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -7671,7 +7723,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -7679,7 +7731,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -7687,7 +7739,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -7695,7 +7747,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -7711,7 +7763,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -7719,7 +7771,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -7727,7 +7779,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -7735,7 +7787,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -7743,7 +7795,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -7751,7 +7803,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -7759,7 +7811,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -7767,7 +7819,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -7775,7 +7827,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -7783,7 +7835,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -7791,7 +7843,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -7799,7 +7851,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -7807,7 +7859,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -7815,7 +7867,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -7823,7 +7875,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -7831,7 +7883,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -7839,7 +7891,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -7847,7 +7899,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -7855,7 +7907,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -7863,7 +7915,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -7871,7 +7923,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -7879,7 +7931,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -7887,7 +7939,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -7895,7 +7947,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -7903,7 +7955,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -7911,7 +7963,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -7919,7 +7971,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -7927,7 +7979,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -7935,7 +7987,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -7943,7 +7995,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -7951,7 +8003,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -7959,7 +8011,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -7967,7 +8019,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -7975,7 +8027,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -7983,7 +8035,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -7991,7 +8043,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -7999,7 +8051,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -8007,7 +8059,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -8015,7 +8067,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -8023,7 +8075,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -8031,7 +8083,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -8039,7 +8091,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -8047,7 +8099,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -8055,7 +8107,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -8063,7 +8115,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -8071,7 +8123,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -8079,7 +8131,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -8087,7 +8139,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -8095,7 +8147,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -8103,7 +8155,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -8111,7 +8163,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -8119,7 +8171,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -8127,7 +8179,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -8135,7 +8187,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -8143,7 +8195,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -8151,7 +8203,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -8159,7 +8211,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -8167,7 +8219,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -8175,7 +8227,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -8183,7 +8235,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -8191,7 +8243,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -8202,7 +8254,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -8210,7 +8262,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -8218,7 +8270,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -8226,7 +8278,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -8234,7 +8286,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -8242,7 +8294,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -8250,7 +8302,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -8258,7 +8310,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -8266,7 +8318,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -8274,7 +8326,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -8282,7 +8334,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -8290,7 +8342,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -8298,7 +8350,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -8306,7 +8358,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -8314,7 +8366,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -8322,7 +8374,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -8330,7 +8382,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -8338,7 +8390,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -8346,7 +8398,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -8354,7 +8406,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -8362,7 +8414,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -8370,7 +8422,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -8378,7 +8430,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -8386,7 +8438,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -8394,7 +8446,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -8402,7 +8454,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -8410,7 +8462,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -8418,7 +8470,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -8426,7 +8478,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -8434,7 +8486,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -8442,7 +8494,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -8450,7 +8502,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -8466,7 +8518,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -8474,7 +8526,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -8482,7 +8534,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B184">
         <v>2</v>
@@ -8490,7 +8542,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -8498,7 +8550,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -8506,7 +8558,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -8514,7 +8566,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -8522,7 +8574,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -8530,7 +8582,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -8538,7 +8590,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -8546,7 +8598,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -8554,7 +8606,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -8562,7 +8614,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -8570,7 +8622,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -8578,7 +8630,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B196">
         <v>2</v>
@@ -8586,7 +8638,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -8594,7 +8646,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -8602,7 +8654,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -8610,7 +8662,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -8618,7 +8670,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B201">
         <v>2</v>
@@ -8626,7 +8678,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B202">
         <v>2</v>
@@ -8634,7 +8686,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -8642,7 +8694,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -8650,7 +8702,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -8658,7 +8710,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -8666,7 +8718,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -8674,7 +8726,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -8682,7 +8734,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -8690,7 +8742,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -8698,7 +8750,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -8706,7 +8758,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -8714,7 +8766,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -8722,7 +8774,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -8738,7 +8790,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -8746,7 +8798,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -8754,7 +8806,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -8770,7 +8822,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -8778,7 +8830,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -8786,7 +8838,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -8794,7 +8846,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -8802,7 +8854,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -8810,7 +8862,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -8818,7 +8870,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -8826,7 +8878,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -8834,7 +8886,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -8842,7 +8894,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -8850,7 +8902,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -8858,7 +8910,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -8866,7 +8918,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -8874,7 +8926,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -8882,7 +8934,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -8890,7 +8942,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -8901,7 +8953,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -8909,7 +8961,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -8917,7 +8969,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -8925,7 +8977,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -8933,7 +8985,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -8941,7 +8993,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -8949,7 +9001,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B242">
         <v>2</v>
@@ -8957,7 +9009,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -8965,7 +9017,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -8973,7 +9025,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -8981,7 +9033,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -8989,7 +9041,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -8997,7 +9049,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -9005,7 +9057,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -9013,7 +9065,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -9021,7 +9073,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -9029,7 +9081,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -9037,7 +9089,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -9045,7 +9097,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -9053,7 +9105,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B255">
         <v>2</v>
@@ -9061,7 +9113,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -9069,7 +9121,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B257">
         <v>2</v>
@@ -9077,7 +9129,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B258">
         <v>2</v>
@@ -9085,7 +9137,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -9093,7 +9145,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -9101,7 +9153,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -9109,7 +9161,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -9117,7 +9169,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B263">
         <v>2</v>
@@ -9125,7 +9177,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -9133,7 +9185,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -9141,7 +9193,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -9149,7 +9201,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -9157,7 +9209,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -9165,7 +9217,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B269">
         <v>2</v>
@@ -9173,7 +9225,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B270">
         <v>2</v>
@@ -9181,7 +9233,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -9189,7 +9241,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -9197,7 +9249,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -9205,7 +9257,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -9213,7 +9265,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -9221,7 +9273,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -9229,7 +9281,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -9237,7 +9289,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -9245,7 +9297,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -9253,7 +9305,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -9261,7 +9313,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B281">
         <v>2</v>
@@ -9269,7 +9321,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -9277,7 +9329,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -9285,7 +9337,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -9293,7 +9345,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -9301,7 +9353,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -9309,7 +9361,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -9317,7 +9369,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -9333,7 +9385,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -9341,7 +9393,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -9349,7 +9401,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -9357,7 +9409,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -9365,7 +9417,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -9373,7 +9425,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -9381,7 +9433,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -9389,7 +9441,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -9397,7 +9449,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -9405,7 +9457,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -9413,7 +9465,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -9421,7 +9473,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -9429,7 +9481,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -9437,7 +9489,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -9445,7 +9497,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -9453,7 +9505,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B305">
         <v>2</v>
@@ -9461,7 +9513,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -9469,7 +9521,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B307">
         <v>2</v>
@@ -9477,7 +9529,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B308">
         <v>2</v>
@@ -9485,7 +9537,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B309">
         <v>2</v>
@@ -9493,7 +9545,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -9501,7 +9553,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B311">
         <v>2</v>
@@ -9509,7 +9561,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B312">
         <v>2</v>
@@ -9517,7 +9569,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -9533,7 +9585,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B315">
         <v>2</v>
@@ -9541,7 +9593,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B316">
         <v>2</v>
@@ -9549,7 +9601,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -9557,7 +9609,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -9568,7 +9620,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -9576,7 +9628,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B320">
         <v>2</v>
@@ -9584,7 +9636,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -9595,7 +9647,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -9603,7 +9655,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -9611,7 +9663,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -9619,7 +9671,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B325">
         <v>2</v>
@@ -9627,7 +9679,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -9635,7 +9687,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -9643,7 +9695,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -9651,7 +9703,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -9659,7 +9711,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -9667,7 +9719,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -9675,7 +9727,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B332">
         <v>2</v>
@@ -9683,7 +9735,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B333">
         <v>2</v>
@@ -9691,7 +9743,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -9699,7 +9751,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -9715,7 +9767,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -9723,7 +9775,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B338">
         <v>2</v>
@@ -9731,7 +9783,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B339">
         <v>2</v>
@@ -9739,7 +9791,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -9755,7 +9807,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -9771,7 +9823,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -9779,7 +9831,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -9787,7 +9839,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -9795,7 +9847,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -9811,7 +9863,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -9819,7 +9871,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -9827,7 +9879,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -9835,7 +9887,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -9843,7 +9895,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -9851,7 +9903,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B354">
         <v>2</v>
@@ -9859,7 +9911,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -9867,7 +9919,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -9875,7 +9927,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B357">
         <v>2</v>
@@ -9883,7 +9935,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -9891,7 +9943,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B359">
         <v>2</v>
@@ -9899,7 +9951,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -9923,7 +9975,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -9931,7 +9983,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -9939,7 +9991,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B365">
         <v>2</v>
@@ -9947,7 +9999,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -9955,7 +10007,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -9963,7 +10015,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -9971,7 +10023,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B369">
         <v>2</v>
@@ -9979,7 +10031,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -9987,7 +10039,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -9995,7 +10047,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -10006,7 +10058,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B373">
         <v>2</v>
@@ -10014,7 +10066,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -10022,7 +10074,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -10030,7 +10082,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -10038,7 +10090,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B377">
         <v>2</v>
@@ -10046,7 +10098,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -10054,7 +10106,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -10062,7 +10114,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B380">
         <v>2</v>
@@ -10070,7 +10122,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B381">
         <v>1</v>
@@ -10078,7 +10130,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -10086,7 +10138,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B383">
         <v>0</v>
@@ -10110,7 +10162,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B386">
         <v>2</v>
@@ -10118,7 +10170,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -10126,7 +10178,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -10134,7 +10186,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B389">
         <v>2</v>
@@ -10142,7 +10194,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -10150,7 +10202,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -10158,7 +10210,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B392">
         <v>1</v>
@@ -10166,7 +10218,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -10174,7 +10226,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -10182,7 +10234,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -10190,7 +10242,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B396">
         <v>2</v>
@@ -10198,7 +10250,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -10206,7 +10258,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -10214,7 +10266,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -10222,7 +10274,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -10230,7 +10282,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -10238,7 +10290,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -10246,7 +10298,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -10254,7 +10306,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B404">
         <v>1</v>
@@ -10262,7 +10314,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -10270,7 +10322,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -10278,7 +10330,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -10286,7 +10338,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B408">
         <v>1</v>
@@ -10294,7 +10346,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B409">
         <v>1</v>
@@ -10302,7 +10354,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -10310,7 +10362,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -10318,7 +10370,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -10326,7 +10378,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -10334,7 +10386,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -10342,7 +10394,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -10350,7 +10402,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -10358,7 +10410,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -10366,7 +10418,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -10374,7 +10426,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -10382,7 +10434,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -10390,7 +10442,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -10398,7 +10450,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -10406,7 +10458,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -10414,7 +10466,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B424">
         <v>0</v>
@@ -10422,7 +10474,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B425">
         <v>1</v>
@@ -10430,7 +10482,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B426">
         <v>0</v>
@@ -10438,7 +10490,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -10446,7 +10498,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -10454,7 +10506,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -10462,7 +10514,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -10470,7 +10522,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B431">
         <v>0</v>
@@ -10478,7 +10530,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B432">
         <v>0</v>
@@ -10486,7 +10538,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -10494,7 +10546,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B434">
         <v>0</v>
@@ -10502,7 +10554,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B435">
         <v>1</v>
@@ -10590,15 +10642,15 @@
         <v>127</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>74</v>
@@ -10609,10 +10661,10 @@
     </row>
     <row r="3" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>74</v>
@@ -10637,10 +10689,10 @@
     </row>
     <row r="5" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>74</v>
@@ -10651,10 +10703,10 @@
     </row>
     <row r="6" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>74</v>
@@ -10665,10 +10717,10 @@
     </row>
     <row r="7" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>74</v>
@@ -10749,10 +10801,10 @@
     </row>
     <row r="13" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>74</v>
@@ -10763,10 +10815,10 @@
     </row>
     <row r="14" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>74</v>
@@ -10777,10 +10829,10 @@
     </row>
     <row r="15" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>74</v>
@@ -10791,10 +10843,10 @@
     </row>
     <row r="16" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>74</v>
@@ -10805,10 +10857,10 @@
     </row>
     <row r="17" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>74</v>
@@ -10819,10 +10871,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>74</v>
@@ -10830,10 +10882,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>74</v>
@@ -10841,10 +10893,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>74</v>
@@ -10852,10 +10904,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>74</v>
@@ -10863,10 +10915,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C22" s="31" t="s">
         <v>74</v>
@@ -10877,7 +10929,7 @@
         <v>143</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C23" s="36" t="s">
         <v>74</v>
@@ -10888,7 +10940,7 @@
         <v>121</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>74</v>
@@ -10899,7 +10951,7 @@
         <v>122</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C25" s="36" t="s">
         <v>74</v>
@@ -10915,18 +10967,18 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="38" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -10934,15 +10986,15 @@
         <v>144</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -10964,7 +11016,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10981,7 +11033,7 @@
         <v>155</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -11008,24 +11060,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>596</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>596</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -11036,7 +11088,7 @@
         <v>159</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>596</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -11052,21 +11104,21 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="B8" s="44" t="s">
         <v>612</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>615</v>
-      </c>
       <c r="C8" s="22" t="s">
-        <v>596</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>74</v>
@@ -11080,51 +11132,51 @@
         <v>159</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>596</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>159</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -11165,7 +11217,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -11205,7 +11257,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -11261,7 +11313,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -11389,7 +11441,7 @@
         <v>136</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -11397,23 +11449,23 @@
         <v>137</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -11481,12 +11533,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480AFDC4-35CE-45DE-8CF6-C7759C0564F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9A6C31-BC6D-4307-9892-4287F92E882E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="688">
   <si>
     <t>Название</t>
   </si>
@@ -2083,12 +2083,6 @@
     <t xml:space="preserve">Убирает расширение файла (будьте аккуратнее с названиями УП, всё, что идёт после первой точки, исчезнет, например 09.04.02.SP_IPTIP_2022.plx.xlsx станет 09) </t>
   </si>
   <si>
-    <t>plans\grad</t>
-  </si>
-  <si>
-    <t>result\grad</t>
-  </si>
-  <si>
     <t>Выводить итоговую статистику</t>
   </si>
   <si>
@@ -2111,6 +2105,18 @@
   </si>
   <si>
     <t>Графы по каждому курсу</t>
+  </si>
+  <si>
+    <t>Название УП</t>
+  </si>
+  <si>
+    <t>Curricula</t>
+  </si>
+  <si>
+    <t>plans\t1</t>
+  </si>
+  <si>
+    <t>result\t1</t>
   </si>
 </sst>
 </file>
@@ -2434,12 +2440,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2450,6 +2450,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2785,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2799,17 +2805,17 @@
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
@@ -2870,7 +2876,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="48" t="s">
         <v>115</v>
       </c>
       <c r="B8" t="s">
@@ -2879,13 +2885,13 @@
       <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="48" t="s">
         <v>165</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -2893,13 +2899,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="23" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="48" t="s">
         <v>131</v>
       </c>
       <c r="B12" t="s">
@@ -2907,7 +2913,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="9" t="s">
         <v>675</v>
       </c>
@@ -2967,7 +2973,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B21" t="s">
         <v>593</v>
@@ -2975,15 +2981,15 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B22" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
-        <v>680</v>
+      <c r="A23" s="48" t="s">
+        <v>678</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -2993,16 +2999,16 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="9" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="48" t="s">
         <v>187</v>
       </c>
       <c r="B25" t="s">
@@ -3016,19 +3022,19 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>684</v>
-      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="48" t="s">
         <v>179</v>
       </c>
       <c r="B27" t="s">
@@ -3042,7 +3048,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="9" t="s">
         <v>180</v>
       </c>
@@ -3054,13 +3060,13 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="48" t="s">
         <v>197</v>
       </c>
       <c r="B30" s="25" t="s">
@@ -3074,7 +3080,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="9" t="s">
         <v>212</v>
       </c>
@@ -3082,43 +3088,43 @@
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="48" t="s">
         <v>149</v>
       </c>
       <c r="B34" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="50"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="48" t="s">
         <v>150</v>
       </c>
       <c r="B36" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="50"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="9" t="s">
         <v>75</v>
       </c>
@@ -3172,7 +3178,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="48" t="s">
         <v>146</v>
       </c>
       <c r="B44" t="s">
@@ -3180,7 +3186,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="9" t="s">
         <v>145</v>
       </c>
@@ -3353,27 +3359,27 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="48" t="s">
+      <c r="A67" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="49"/>
-      <c r="C67" s="49"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
     </row>
     <row r="68" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="51" t="s">
+      <c r="A68" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="50"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
     </row>
@@ -3387,6 +3393,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A68:C68"/>
     <mergeCell ref="A69:C69"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A67:C67"/>
@@ -3401,10 +3411,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A68:C68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3501,13 +3507,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -11013,10 +11019,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48B31D4-AE50-4CB5-9904-DE1BA8BD2BC3}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11038,43 +11044,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>160</v>
+        <v>684</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>175</v>
+        <v>685</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B4" s="28" t="s">
         <v>176</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>611</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>613</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>249</v>
+      <c r="A5" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>613</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>74</v>
@@ -11082,43 +11088,43 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>162</v>
+        <v>251</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>159</v>
+        <v>249</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="A7" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
-        <v>609</v>
+        <v>156</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>612</v>
+        <v>177</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>245</v>
+      <c r="A9" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>612</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>74</v>
@@ -11126,56 +11132,67 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>593</v>
+      <c r="A11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>610</v>
+        <v>244</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>612</v>
+        <v>246</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>247</v>
+      <c r="A13" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>612</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B15" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C15" s="37" t="s">
         <v>593</v>
       </c>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9A6C31-BC6D-4307-9892-4287F92E882E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAB26B2-79D3-42EE-B709-181FB53E115A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="689">
   <si>
     <t>Название</t>
   </si>
@@ -2113,10 +2113,13 @@
     <t>Curricula</t>
   </si>
   <si>
-    <t>plans\t1</t>
-  </si>
-  <si>
-    <t>result\t1</t>
+    <t>plans\grad</t>
+  </si>
+  <si>
+    <t>result\grad</t>
+  </si>
+  <si>
+    <t>Не оставлять пустые ячейки во время вывода дерева компетенций</t>
   </si>
 </sst>
 </file>
@@ -2789,10 +2792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2988,324 +2991,324 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
-        <v>678</v>
+      <c r="A23" s="15" t="s">
+        <v>688</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
+        <v>678</v>
+      </c>
+      <c r="B24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="9" t="s">
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="48"/>
+      <c r="B25" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="48" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>74</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>74</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
-      <c r="B26" s="9" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="48"/>
+      <c r="B27" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>183</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>182</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="48"/>
-      <c r="B28" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="48"/>
       <c r="B29" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="48"/>
+      <c r="B30" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="48" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B31" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C31" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D31" s="25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="9" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="48"/>
+      <c r="B32" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="9" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="48"/>
+      <c r="B36" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="48" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="48"/>
-      <c r="B37" s="9" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="48"/>
+      <c r="B38" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B39" s="5">
         <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="5">
-        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="B41" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="48" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="48"/>
-      <c r="B45" s="9" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="48"/>
+      <c r="B46" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="24" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B47" s="25" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="5">
-        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
-        <v>608</v>
+        <v>82</v>
       </c>
       <c r="B48" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>117</v>
+        <v>608</v>
+      </c>
+      <c r="B49" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>92</v>
+        <v>151</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
-        <v>297</v>
+        <v>216</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>298</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B57" s="5">
-        <v>6</v>
+        <v>297</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="B58" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59" s="30">
-        <v>1E-3</v>
+        <v>95</v>
+      </c>
+      <c r="B59" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B60" s="30">
         <v>1E-3</v>
@@ -3313,104 +3316,112 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="30">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B62" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="55" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>74</v>
-      </c>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>614</v>
+        <v>129</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>614</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="52" t="s">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-    </row>
-    <row r="68" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="49" t="s">
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+    </row>
+    <row r="69" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-    </row>
-    <row r="69" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
+    <row r="70" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B71" s="14" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A67:C67"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A31:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAB26B2-79D3-42EE-B709-181FB53E115A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412DACAE-656F-4D93-9A33-28D04997904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="4" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -2443,6 +2443,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2453,12 +2459,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2794,7 +2794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -2808,17 +2808,17 @@
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
@@ -2879,7 +2879,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="50" t="s">
         <v>115</v>
       </c>
       <c r="B8" t="s">
@@ -2888,13 +2888,13 @@
       <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="50" t="s">
         <v>165</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -2902,13 +2902,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="23" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="50" t="s">
         <v>131</v>
       </c>
       <c r="B12" t="s">
@@ -2916,7 +2916,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="9" t="s">
         <v>675</v>
       </c>
@@ -2999,7 +2999,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="50" t="s">
         <v>678</v>
       </c>
       <c r="B24" t="s">
@@ -3010,7 +3010,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="9" t="s">
         <v>679</v>
       </c>
@@ -3019,7 +3019,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="50" t="s">
         <v>187</v>
       </c>
       <c r="B26" t="s">
@@ -3033,7 +3033,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="9" t="s">
         <v>680</v>
       </c>
@@ -3045,7 +3045,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="50" t="s">
         <v>179</v>
       </c>
       <c r="B28" t="s">
@@ -3059,7 +3059,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="48"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="9" t="s">
         <v>180</v>
       </c>
@@ -3071,13 +3071,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="48"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="50" t="s">
         <v>197</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -3091,7 +3091,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="9" t="s">
         <v>212</v>
       </c>
@@ -3099,21 +3099,21 @@
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="50" t="s">
         <v>149</v>
       </c>
       <c r="B35" t="s">
@@ -3121,13 +3121,13 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="48"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="50" t="s">
         <v>150</v>
       </c>
       <c r="B37" t="s">
@@ -3135,7 +3135,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="48"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="9" t="s">
         <v>75</v>
       </c>
@@ -3189,7 +3189,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="50" t="s">
         <v>146</v>
       </c>
       <c r="B45" t="s">
@@ -3197,7 +3197,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="48"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="9" t="s">
         <v>145</v>
       </c>
@@ -3370,27 +3370,27 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="52" t="s">
+      <c r="A68" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="53"/>
-      <c r="C68" s="53"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
     </row>
     <row r="69" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="49" t="s">
+      <c r="A69" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="49"/>
-      <c r="C69" s="49"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
     </row>
@@ -3404,11 +3404,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A69:C69"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A68:C68"/>
@@ -3422,6 +3417,11 @@
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A69:C69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3518,13 +3518,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -10633,8 +10633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10960,7 +10960,7 @@
         <v>295</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>74</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -10971,7 +10971,7 @@
         <v>296</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>74</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412DACAE-656F-4D93-9A33-28D04997904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3803754B-D581-4EDA-BF56-575E47369D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="4" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Компетенции(2)" sheetId="3" r:id="rId10"/>
     <sheet name="Компетенции" sheetId="4" r:id="rId11"/>
     <sheet name="ПланСвод" sheetId="5" r:id="rId12"/>
+    <sheet name="Титул" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="704">
   <si>
     <t>Название</t>
   </si>
@@ -559,9 +560,6 @@
     <t>Выводить графы по курсам</t>
   </si>
   <si>
-    <t>Name Curricula</t>
-  </si>
-  <si>
     <t>Max credit</t>
   </si>
   <si>
@@ -2110,16 +2108,64 @@
     <t>Название УП</t>
   </si>
   <si>
-    <t>Curricula</t>
-  </si>
-  <si>
-    <t>plans\grad</t>
-  </si>
-  <si>
-    <t>result\grad</t>
-  </si>
-  <si>
     <t>Не оставлять пустые ячейки во время вывода дерева компетенций</t>
+  </si>
+  <si>
+    <t>Код направления</t>
+  </si>
+  <si>
+    <t>Direction code</t>
+  </si>
+  <si>
+    <t>Титул</t>
+  </si>
+  <si>
+    <t>Для определения, бакалавриат, специалитет или магистратура</t>
+  </si>
+  <si>
+    <t>Перечисление искомой подстроки на странице и его соответсвия</t>
+  </si>
+  <si>
+    <t>Curriculum's name</t>
+  </si>
+  <si>
+    <t>Curriculum</t>
+  </si>
+  <si>
+    <t>Тип учебного плана</t>
+  </si>
+  <si>
+    <t>Curriculum type</t>
+  </si>
+  <si>
+    <t>акалавр</t>
+  </si>
+  <si>
+    <t>bachelor</t>
+  </si>
+  <si>
+    <t>агистрат</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>пециалит</t>
+  </si>
+  <si>
+    <t>specialty</t>
+  </si>
+  <si>
+    <t>спирант</t>
+  </si>
+  <si>
+    <t>postgraduate</t>
+  </si>
+  <si>
+    <t>plans\t2</t>
+  </si>
+  <si>
+    <t>result\t2</t>
   </si>
 </sst>
 </file>
@@ -2443,6 +2489,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2450,22 +2502,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2794,34 +2840,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.09765625" customWidth="1"/>
     <col min="2" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="22.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="52" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
@@ -2833,9 +2880,12 @@
       <c r="D2" t="s">
         <v>57</v>
       </c>
+      <c r="E2" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
+      <c r="A3" s="52"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -2844,6 +2894,9 @@
       </c>
       <c r="D3" t="s">
         <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2872,14 +2925,14 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="53" t="s">
         <v>115</v>
       </c>
       <c r="B8" t="s">
@@ -2888,13 +2941,13 @@
       <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="53" t="s">
         <v>165</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -2902,13 +2955,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="23" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="53" t="s">
         <v>131</v>
       </c>
       <c r="B12" t="s">
@@ -2916,9 +2969,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2947,7 +3000,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -2955,15 +3008,15 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
@@ -2971,36 +3024,36 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="50" t="s">
-        <v>678</v>
+      <c r="A24" s="53" t="s">
+        <v>677</v>
       </c>
       <c r="B24" t="s">
         <v>74</v>
@@ -3010,17 +3063,17 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="50" t="s">
-        <v>187</v>
+      <c r="A26" s="53" t="s">
+        <v>186</v>
       </c>
       <c r="B26" t="s">
         <v>74</v>
@@ -3033,116 +3086,116 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>682</v>
-      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="53"/>
+      <c r="B29" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C29" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
-        <v>197</v>
+      <c r="A31" s="53" t="s">
+        <v>196</v>
       </c>
       <c r="B31" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="D31" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>205</v>
-      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="53" t="s">
         <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="50"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="53" t="s">
         <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" s="5">
         <v>5</v>
@@ -3189,7 +3242,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="53" t="s">
         <v>146</v>
       </c>
       <c r="B45" t="s">
@@ -3197,7 +3250,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
+      <c r="A46" s="53"/>
       <c r="B46" s="9" t="s">
         <v>145</v>
       </c>
@@ -3220,7 +3273,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B49" s="5">
         <v>3</v>
@@ -3228,7 +3281,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>117</v>
@@ -3276,7 +3329,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>87</v>
@@ -3284,15 +3337,15 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B58" s="5">
         <v>6</v>
@@ -3324,18 +3377,18 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B62" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="55" t="s">
+      <c r="A63" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
@@ -3350,7 +3403,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -3370,27 +3423,27 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
     </row>
     <row r="69" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
     </row>
@@ -3404,6 +3457,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A69:C69"/>
     <mergeCell ref="A70:C70"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A68:C68"/>
@@ -3420,8 +3475,6 @@
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A69:C69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3508,7 +3561,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3518,13 +3571,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3534,7 +3587,7 @@
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -3546,6 +3599,63 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4AADBA-CBCF-4791-9A03-7EEEA69DD1D2}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="4" width="14.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>689</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>698</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>699</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>701</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3572,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
@@ -3582,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3590,12 +3700,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3611,7 +3721,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3619,7 +3729,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3643,7 +3753,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3651,7 +3761,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3659,7 +3769,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3675,7 +3785,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3699,7 +3809,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3707,7 +3817,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3715,7 +3825,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3723,7 +3833,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3731,7 +3841,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3739,7 +3849,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3779,7 +3889,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3787,7 +3897,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3819,7 +3929,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3827,7 +3937,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3835,7 +3945,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3843,7 +3953,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3859,7 +3969,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3867,7 +3977,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3875,7 +3985,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3883,7 +3993,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3891,7 +4001,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3899,7 +4009,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3907,7 +4017,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3915,7 +4025,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3923,7 +4033,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3931,7 +4041,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3939,7 +4049,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3947,7 +4057,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3955,7 +4065,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3963,7 +4073,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3971,7 +4081,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3979,7 +4089,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -3987,7 +4097,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -3995,7 +4105,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4003,7 +4113,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4011,7 +4121,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4019,7 +4129,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4027,7 +4137,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4035,7 +4145,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4075,7 +4185,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4083,7 +4193,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4091,7 +4201,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -4099,7 +4209,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -4107,7 +4217,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -4115,7 +4225,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4123,7 +4233,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -4131,7 +4241,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -4139,7 +4249,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -4147,7 +4257,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -4155,7 +4265,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -4163,7 +4273,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -4171,7 +4281,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -4179,7 +4289,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -4187,7 +4297,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -4195,7 +4305,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -4203,7 +4313,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4211,7 +4321,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -4219,7 +4329,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4227,7 +4337,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4235,7 +4345,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -4243,7 +4353,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4259,7 +4369,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4267,7 +4377,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -4275,7 +4385,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -4283,7 +4393,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -4291,7 +4401,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4299,7 +4409,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4307,7 +4417,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -4315,7 +4425,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4323,7 +4433,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4331,7 +4441,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4339,7 +4449,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4347,7 +4457,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4355,7 +4465,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4363,7 +4473,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4371,7 +4481,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4379,7 +4489,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4387,7 +4497,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4395,7 +4505,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4403,7 +4513,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4411,7 +4521,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4419,7 +4529,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4427,7 +4537,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4435,7 +4545,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -4443,7 +4553,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -4451,7 +4561,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -4459,7 +4569,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4467,7 +4577,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -4475,7 +4585,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -4483,7 +4593,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4491,7 +4601,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4499,7 +4609,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4507,7 +4617,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4515,7 +4625,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4523,7 +4633,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -4531,7 +4641,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -4539,7 +4649,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4547,7 +4657,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4555,7 +4665,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4563,7 +4673,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4571,7 +4681,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4579,7 +4689,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -4587,7 +4697,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -4595,7 +4705,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -4603,7 +4713,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -4611,7 +4721,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -4619,7 +4729,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -4627,7 +4737,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -4635,7 +4745,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -4643,7 +4753,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -4651,7 +4761,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -4659,7 +4769,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -4667,7 +4777,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -4675,7 +4785,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -4683,7 +4793,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -4691,7 +4801,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -4699,7 +4809,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -4707,7 +4817,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -4715,7 +4825,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -4723,7 +4833,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4731,7 +4841,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -4739,7 +4849,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -4750,7 +4860,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -4758,7 +4868,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -4766,7 +4876,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -4774,7 +4884,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -4782,7 +4892,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -4790,7 +4900,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -4798,7 +4908,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -4806,7 +4916,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -4814,7 +4924,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -4822,7 +4932,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -4830,7 +4940,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -4838,7 +4948,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -4846,7 +4956,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -4854,7 +4964,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -4862,7 +4972,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -4870,7 +4980,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -4878,7 +4988,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -4886,7 +4996,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -4894,7 +5004,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -4902,7 +5012,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -4910,7 +5020,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -4918,7 +5028,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -4926,7 +5036,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -4934,7 +5044,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -4942,7 +5052,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -4950,7 +5060,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -4958,7 +5068,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -4966,7 +5076,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -4974,7 +5084,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -4982,7 +5092,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -4990,7 +5100,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -4998,7 +5108,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -5014,7 +5124,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -5022,7 +5132,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -5030,7 +5140,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -5038,7 +5148,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -5046,7 +5156,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -5054,7 +5164,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -5062,7 +5172,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -5070,7 +5180,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -5078,7 +5188,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -5086,7 +5196,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -5094,7 +5204,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -5102,7 +5212,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -5110,7 +5220,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -5118,7 +5228,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -5126,7 +5236,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -5134,7 +5244,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -5142,7 +5252,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -5150,7 +5260,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -5158,7 +5268,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -5166,7 +5276,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -5174,7 +5284,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -5182,7 +5292,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -5190,7 +5300,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -5198,7 +5308,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -5206,7 +5316,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -5214,7 +5324,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -5222,7 +5332,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -5230,7 +5340,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -5238,7 +5348,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -5246,7 +5356,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -5254,7 +5364,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -5262,7 +5372,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -5270,7 +5380,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -5286,7 +5396,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -5294,7 +5404,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -5302,7 +5412,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -5318,7 +5428,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -5326,7 +5436,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -5334,7 +5444,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -5342,7 +5452,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -5350,7 +5460,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -5358,7 +5468,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -5366,7 +5476,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -5374,7 +5484,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -5382,7 +5492,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -5390,7 +5500,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -5398,7 +5508,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -5406,7 +5516,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -5414,7 +5524,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -5422,7 +5532,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -5430,7 +5540,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -5438,7 +5548,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -5449,7 +5559,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -5457,7 +5567,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -5465,7 +5575,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -5473,7 +5583,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -5481,7 +5591,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -5489,7 +5599,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -5497,7 +5607,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -5505,7 +5615,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -5513,7 +5623,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -5521,7 +5631,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -5529,7 +5639,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -5537,7 +5647,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -5545,7 +5655,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -5553,7 +5663,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -5561,7 +5671,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -5569,7 +5679,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -5577,7 +5687,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -5585,7 +5695,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -5593,7 +5703,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -5601,7 +5711,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -5609,7 +5719,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -5617,7 +5727,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -5625,7 +5735,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -5633,7 +5743,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -5641,7 +5751,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -5649,7 +5759,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -5657,7 +5767,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -5665,7 +5775,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -5673,7 +5783,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -5681,7 +5791,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -5689,7 +5799,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -5697,7 +5807,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -5705,7 +5815,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -5713,7 +5823,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -5721,7 +5831,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -5729,7 +5839,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -5737,7 +5847,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -5745,7 +5855,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -5753,7 +5863,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -5761,7 +5871,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -5769,7 +5879,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -5777,7 +5887,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -5785,7 +5895,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -5793,7 +5903,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -5801,7 +5911,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -5809,7 +5919,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -5817,7 +5927,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -5825,7 +5935,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -5833,7 +5943,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -5841,7 +5951,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -5849,7 +5959,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -5857,7 +5967,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -5865,7 +5975,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -5881,7 +5991,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -5889,7 +5999,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -5897,7 +6007,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -5905,7 +6015,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -5913,7 +6023,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -5921,7 +6031,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -5929,7 +6039,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -5937,7 +6047,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -5945,7 +6055,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -5953,7 +6063,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -5961,7 +6071,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -5969,7 +6079,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -5977,7 +6087,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -5985,7 +6095,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -5993,7 +6103,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -6001,7 +6111,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -6009,7 +6119,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -6017,7 +6127,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -6025,7 +6135,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -6033,7 +6143,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -6041,7 +6151,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -6049,7 +6159,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -6057,7 +6167,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -6065,7 +6175,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -6081,7 +6191,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -6089,7 +6199,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -6097,7 +6207,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -6105,7 +6215,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -6116,7 +6226,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -6124,7 +6234,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -6132,7 +6242,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -6143,7 +6253,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -6151,7 +6261,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -6159,7 +6269,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -6167,7 +6277,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -6175,7 +6285,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -6183,7 +6293,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -6191,7 +6301,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -6199,7 +6309,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -6207,7 +6317,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -6215,7 +6325,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -6223,7 +6333,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -6231,7 +6341,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -6239,7 +6349,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -6247,7 +6357,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -6263,7 +6373,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -6271,7 +6381,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -6279,7 +6389,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -6287,7 +6397,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -6303,7 +6413,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -6319,7 +6429,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -6327,7 +6437,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -6335,7 +6445,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -6343,7 +6453,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -6359,7 +6469,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -6367,7 +6477,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -6375,7 +6485,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -6383,7 +6493,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -6391,7 +6501,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -6399,7 +6509,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -6407,7 +6517,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -6415,7 +6525,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -6423,7 +6533,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -6431,7 +6541,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -6439,7 +6549,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -6447,7 +6557,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -6471,7 +6581,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -6479,7 +6589,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -6487,7 +6597,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -6495,7 +6605,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -6503,7 +6613,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -6511,7 +6621,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -6519,7 +6629,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -6527,7 +6637,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B369">
         <v>0</v>
@@ -6535,7 +6645,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -6543,7 +6653,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -6554,7 +6664,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -6562,7 +6672,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -6570,7 +6680,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -6578,7 +6688,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -6586,7 +6696,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -6594,7 +6704,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -6602,7 +6712,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -6610,7 +6720,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -6618,7 +6728,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -6626,7 +6736,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -6634,7 +6744,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -6658,7 +6768,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -6666,7 +6776,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -6674,7 +6784,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -6682,7 +6792,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -6690,7 +6800,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -6698,7 +6808,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -6706,7 +6816,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -6714,7 +6824,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B392">
         <v>1</v>
@@ -6722,7 +6832,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -6730,7 +6840,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -6738,7 +6848,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -6746,7 +6856,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -6754,7 +6864,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -6762,7 +6872,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -6770,7 +6880,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -6778,7 +6888,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -6786,7 +6896,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -6794,7 +6904,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -6802,7 +6912,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -6810,7 +6920,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -6818,7 +6928,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -6826,7 +6936,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -6834,7 +6944,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -6842,7 +6952,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B408">
         <v>1</v>
@@ -6850,7 +6960,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B409">
         <v>1</v>
@@ -6858,7 +6968,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -6866,7 +6976,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -6874,7 +6984,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -6882,7 +6992,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -6890,7 +7000,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -6898,7 +7008,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -6906,7 +7016,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -6914,7 +7024,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -6922,7 +7032,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -6930,7 +7040,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -6938,7 +7048,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -6946,7 +7056,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -6954,7 +7064,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -6962,7 +7072,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B423">
         <v>0</v>
@@ -6970,7 +7080,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -6978,7 +7088,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B425">
         <v>0</v>
@@ -6986,7 +7096,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -6994,7 +7104,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -7002,7 +7112,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -7010,7 +7120,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -7018,7 +7128,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -7026,7 +7136,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B431">
         <v>0</v>
@@ -7034,7 +7144,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B432">
         <v>0</v>
@@ -7042,7 +7152,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -7050,7 +7160,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -7085,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
@@ -7095,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -7103,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -7111,12 +7221,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7132,7 +7242,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7140,7 +7250,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7164,7 +7274,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -7172,7 +7282,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -7180,7 +7290,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -7196,7 +7306,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -7220,7 +7330,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7228,7 +7338,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7236,7 +7346,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7244,7 +7354,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -7252,7 +7362,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -7260,7 +7370,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -7300,7 +7410,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -7308,7 +7418,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -7340,7 +7450,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -7348,7 +7458,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -7356,7 +7466,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -7364,7 +7474,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -7380,7 +7490,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -7388,7 +7498,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -7396,7 +7506,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -7404,7 +7514,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -7412,7 +7522,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -7420,7 +7530,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -7428,7 +7538,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -7436,7 +7546,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -7444,7 +7554,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -7452,7 +7562,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -7460,7 +7570,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7468,7 +7578,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -7476,7 +7586,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -7484,7 +7594,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -7492,7 +7602,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -7500,7 +7610,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -7508,7 +7618,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -7516,7 +7626,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -7524,7 +7634,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7532,7 +7642,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -7540,7 +7650,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -7548,7 +7658,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7556,7 +7666,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7596,7 +7706,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -7604,7 +7714,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -7612,7 +7722,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -7620,7 +7730,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -7628,7 +7738,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -7636,7 +7746,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -7644,7 +7754,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -7652,7 +7762,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -7660,7 +7770,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -7668,7 +7778,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -7676,7 +7786,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -7684,7 +7794,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -7692,7 +7802,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -7700,7 +7810,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -7708,7 +7818,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -7716,7 +7826,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -7724,7 +7834,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -7732,7 +7842,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -7740,7 +7850,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -7748,7 +7858,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -7756,7 +7866,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -7764,7 +7874,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -7780,7 +7890,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -7788,7 +7898,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -7796,7 +7906,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -7804,7 +7914,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -7812,7 +7922,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -7820,7 +7930,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -7828,7 +7938,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -7836,7 +7946,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -7844,7 +7954,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -7852,7 +7962,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -7860,7 +7970,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -7868,7 +7978,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -7876,7 +7986,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -7884,7 +7994,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -7892,7 +8002,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -7900,7 +8010,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -7908,7 +8018,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -7916,7 +8026,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -7924,7 +8034,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -7932,7 +8042,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -7940,7 +8050,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -7948,7 +8058,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -7956,7 +8066,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -7964,7 +8074,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -7972,7 +8082,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -7980,7 +8090,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -7988,7 +8098,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -7996,7 +8106,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -8004,7 +8114,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -8012,7 +8122,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -8020,7 +8130,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -8028,7 +8138,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -8036,7 +8146,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -8044,7 +8154,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -8052,7 +8162,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -8060,7 +8170,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -8068,7 +8178,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -8076,7 +8186,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -8084,7 +8194,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -8092,7 +8202,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -8100,7 +8210,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -8108,7 +8218,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -8116,7 +8226,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -8124,7 +8234,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -8132,7 +8242,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -8140,7 +8250,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -8148,7 +8258,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -8156,7 +8266,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -8164,7 +8274,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -8172,7 +8282,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -8180,7 +8290,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -8188,7 +8298,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -8196,7 +8306,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -8204,7 +8314,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -8212,7 +8322,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -8220,7 +8330,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -8228,7 +8338,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -8236,7 +8346,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -8244,7 +8354,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -8252,7 +8362,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -8260,7 +8370,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -8271,7 +8381,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -8279,7 +8389,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -8287,7 +8397,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -8295,7 +8405,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -8303,7 +8413,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -8311,7 +8421,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -8319,7 +8429,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -8327,7 +8437,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -8335,7 +8445,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -8343,7 +8453,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -8351,7 +8461,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -8359,7 +8469,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -8367,7 +8477,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -8375,7 +8485,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -8383,7 +8493,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -8391,7 +8501,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -8399,7 +8509,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -8407,7 +8517,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -8415,7 +8525,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -8423,7 +8533,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -8431,7 +8541,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -8439,7 +8549,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -8447,7 +8557,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -8455,7 +8565,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -8463,7 +8573,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -8471,7 +8581,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -8479,7 +8589,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -8487,7 +8597,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -8495,7 +8605,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -8503,7 +8613,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -8511,7 +8621,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -8519,7 +8629,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -8535,7 +8645,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -8543,7 +8653,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -8551,7 +8661,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B184">
         <v>2</v>
@@ -8559,7 +8669,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -8567,7 +8677,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -8575,7 +8685,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -8583,7 +8693,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -8591,7 +8701,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -8599,7 +8709,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -8607,7 +8717,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -8615,7 +8725,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -8623,7 +8733,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -8631,7 +8741,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -8639,7 +8749,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -8647,7 +8757,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B196">
         <v>2</v>
@@ -8655,7 +8765,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -8663,7 +8773,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -8671,7 +8781,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -8679,7 +8789,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -8687,7 +8797,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B201">
         <v>2</v>
@@ -8695,7 +8805,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B202">
         <v>2</v>
@@ -8703,7 +8813,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -8711,7 +8821,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -8719,7 +8829,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -8727,7 +8837,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -8735,7 +8845,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -8743,7 +8853,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -8751,7 +8861,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -8759,7 +8869,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -8767,7 +8877,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -8775,7 +8885,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -8783,7 +8893,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -8791,7 +8901,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -8807,7 +8917,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -8815,7 +8925,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -8823,7 +8933,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -8839,7 +8949,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -8847,7 +8957,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -8855,7 +8965,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -8863,7 +8973,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -8871,7 +8981,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -8879,7 +8989,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -8887,7 +8997,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -8895,7 +9005,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -8903,7 +9013,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -8911,7 +9021,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -8919,7 +9029,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -8927,7 +9037,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -8935,7 +9045,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -8943,7 +9053,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -8951,7 +9061,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -8959,7 +9069,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -8970,7 +9080,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -8978,7 +9088,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -8986,7 +9096,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -8994,7 +9104,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -9002,7 +9112,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -9010,7 +9120,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -9018,7 +9128,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B242">
         <v>2</v>
@@ -9026,7 +9136,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -9034,7 +9144,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -9042,7 +9152,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -9050,7 +9160,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -9058,7 +9168,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -9066,7 +9176,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -9074,7 +9184,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -9082,7 +9192,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -9090,7 +9200,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -9098,7 +9208,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -9106,7 +9216,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -9114,7 +9224,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -9122,7 +9232,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B255">
         <v>2</v>
@@ -9130,7 +9240,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -9138,7 +9248,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B257">
         <v>2</v>
@@ -9146,7 +9256,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B258">
         <v>2</v>
@@ -9154,7 +9264,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B259">
         <v>2</v>
@@ -9162,7 +9272,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -9170,7 +9280,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -9178,7 +9288,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -9186,7 +9296,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B263">
         <v>2</v>
@@ -9194,7 +9304,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -9202,7 +9312,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -9210,7 +9320,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -9218,7 +9328,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -9226,7 +9336,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -9234,7 +9344,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B269">
         <v>2</v>
@@ -9242,7 +9352,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B270">
         <v>2</v>
@@ -9250,7 +9360,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -9258,7 +9368,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -9266,7 +9376,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -9274,7 +9384,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -9282,7 +9392,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -9290,7 +9400,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -9298,7 +9408,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -9306,7 +9416,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -9314,7 +9424,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -9322,7 +9432,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -9330,7 +9440,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B281">
         <v>2</v>
@@ -9338,7 +9448,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -9346,7 +9456,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -9354,7 +9464,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -9362,7 +9472,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -9370,7 +9480,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -9378,7 +9488,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -9386,7 +9496,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -9402,7 +9512,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -9410,7 +9520,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -9418,7 +9528,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -9426,7 +9536,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -9434,7 +9544,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -9442,7 +9552,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -9450,7 +9560,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -9458,7 +9568,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -9466,7 +9576,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -9474,7 +9584,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -9482,7 +9592,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -9490,7 +9600,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -9498,7 +9608,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -9506,7 +9616,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -9514,7 +9624,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -9522,7 +9632,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B305">
         <v>2</v>
@@ -9530,7 +9640,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -9538,7 +9648,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B307">
         <v>2</v>
@@ -9546,7 +9656,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B308">
         <v>2</v>
@@ -9554,7 +9664,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B309">
         <v>2</v>
@@ -9562,7 +9672,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -9570,7 +9680,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B311">
         <v>2</v>
@@ -9578,7 +9688,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B312">
         <v>2</v>
@@ -9586,7 +9696,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -9602,7 +9712,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B315">
         <v>2</v>
@@ -9610,7 +9720,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B316">
         <v>2</v>
@@ -9618,7 +9728,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -9626,7 +9736,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -9637,7 +9747,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -9645,7 +9755,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B320">
         <v>2</v>
@@ -9653,7 +9763,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -9664,7 +9774,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -9672,7 +9782,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -9680,7 +9790,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -9688,7 +9798,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B325">
         <v>2</v>
@@ -9696,7 +9806,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -9704,7 +9814,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -9712,7 +9822,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -9720,7 +9830,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -9728,7 +9838,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -9736,7 +9846,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -9744,7 +9854,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B332">
         <v>2</v>
@@ -9752,7 +9862,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B333">
         <v>2</v>
@@ -9760,7 +9870,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -9768,7 +9878,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -9784,7 +9894,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -9792,7 +9902,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B338">
         <v>2</v>
@@ -9800,7 +9910,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B339">
         <v>2</v>
@@ -9808,7 +9918,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -9824,7 +9934,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -9840,7 +9950,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -9848,7 +9958,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -9856,7 +9966,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -9864,7 +9974,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -9880,7 +9990,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -9888,7 +9998,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -9896,7 +10006,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -9904,7 +10014,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -9912,7 +10022,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -9920,7 +10030,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B354">
         <v>2</v>
@@ -9928,7 +10038,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -9936,7 +10046,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -9944,7 +10054,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B357">
         <v>2</v>
@@ -9952,7 +10062,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -9960,7 +10070,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B359">
         <v>2</v>
@@ -9968,7 +10078,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -9992,7 +10102,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -10000,7 +10110,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -10008,7 +10118,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B365">
         <v>2</v>
@@ -10016,7 +10126,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -10024,7 +10134,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -10032,7 +10142,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -10040,7 +10150,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B369">
         <v>2</v>
@@ -10048,7 +10158,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -10056,7 +10166,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -10064,7 +10174,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -10075,7 +10185,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B373">
         <v>2</v>
@@ -10083,7 +10193,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -10091,7 +10201,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -10099,7 +10209,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -10107,7 +10217,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B377">
         <v>2</v>
@@ -10115,7 +10225,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -10123,7 +10233,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -10131,7 +10241,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B380">
         <v>2</v>
@@ -10139,7 +10249,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B381">
         <v>1</v>
@@ -10147,7 +10257,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -10155,7 +10265,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B383">
         <v>0</v>
@@ -10179,7 +10289,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B386">
         <v>2</v>
@@ -10187,7 +10297,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -10195,7 +10305,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -10203,7 +10313,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B389">
         <v>2</v>
@@ -10211,7 +10321,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -10219,7 +10329,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -10227,7 +10337,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B392">
         <v>1</v>
@@ -10235,7 +10345,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -10243,7 +10353,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -10251,7 +10361,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -10259,7 +10369,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B396">
         <v>2</v>
@@ -10267,7 +10377,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -10275,7 +10385,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -10283,7 +10393,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -10291,7 +10401,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -10299,7 +10409,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -10307,7 +10417,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -10315,7 +10425,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -10323,7 +10433,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B404">
         <v>1</v>
@@ -10331,7 +10441,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -10339,7 +10449,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -10347,7 +10457,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -10355,7 +10465,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B408">
         <v>1</v>
@@ -10363,7 +10473,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B409">
         <v>1</v>
@@ -10371,7 +10481,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -10379,7 +10489,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -10387,7 +10497,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -10395,7 +10505,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -10403,7 +10513,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -10411,7 +10521,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -10419,7 +10529,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -10427,7 +10537,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -10435,7 +10545,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -10443,7 +10553,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -10451,7 +10561,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -10459,7 +10569,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -10467,7 +10577,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -10475,7 +10585,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -10483,7 +10593,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B424">
         <v>0</v>
@@ -10491,7 +10601,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B425">
         <v>1</v>
@@ -10499,7 +10609,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B426">
         <v>0</v>
@@ -10507,7 +10617,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -10515,7 +10625,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -10523,7 +10633,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -10531,7 +10641,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -10539,7 +10649,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B431">
         <v>0</v>
@@ -10547,7 +10657,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B432">
         <v>0</v>
@@ -10555,7 +10665,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -10563,7 +10673,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B434">
         <v>0</v>
@@ -10571,7 +10681,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B435">
         <v>1</v>
@@ -10631,10 +10741,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10659,15 +10769,15 @@
         <v>127</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>198</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>199</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>74</v>
@@ -10678,10 +10788,10 @@
     </row>
     <row r="3" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>74</v>
@@ -10695,7 +10805,7 @@
         <v>120</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>74</v>
@@ -10706,10 +10816,10 @@
     </row>
     <row r="5" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>189</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>190</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>74</v>
@@ -10720,10 +10830,10 @@
     </row>
     <row r="6" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>74</v>
@@ -10734,10 +10844,10 @@
     </row>
     <row r="7" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>74</v>
@@ -10751,7 +10861,7 @@
         <v>124</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>74</v>
@@ -10765,7 +10875,7 @@
         <v>123</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>74</v>
@@ -10779,7 +10889,7 @@
         <v>125</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>74</v>
@@ -10793,7 +10903,7 @@
         <v>132</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>74</v>
@@ -10807,7 +10917,7 @@
         <v>128</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>74</v>
@@ -10818,10 +10928,10 @@
     </row>
     <row r="13" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>226</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>227</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>74</v>
@@ -10832,10 +10942,10 @@
     </row>
     <row r="14" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>74</v>
@@ -10846,10 +10956,10 @@
     </row>
     <row r="15" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>74</v>
@@ -10860,10 +10970,10 @@
     </row>
     <row r="16" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>74</v>
@@ -10874,10 +10984,10 @@
     </row>
     <row r="17" spans="1:4" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>219</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>220</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>74</v>
@@ -10888,137 +10998,156 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="36" t="s">
+      <c r="A19" s="31" t="s">
+        <v>685</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B22" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C22" s="36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B23" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C23" s="31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" s="31" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B25" s="31" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
+      <c r="C26" s="36" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>229</v>
+      <c r="B27" s="34" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
-        <v>230</v>
+      <c r="A28" s="33" t="s">
+        <v>692</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>231</v>
+        <v>693</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B33" s="38" t="s">
         <v>154</v>
       </c>
     </row>
@@ -11033,7 +11162,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11050,15 +11179,15 @@
         <v>155</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>74</v>
@@ -11069,7 +11198,7 @@
         <v>160</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>74</v>
@@ -11080,7 +11209,7 @@
         <v>164</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>74</v>
@@ -11088,10 +11217,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>74</v>
@@ -11099,10 +11228,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>74</v>
@@ -11124,7 +11253,7 @@
         <v>156</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>74</v>
@@ -11132,10 +11261,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>74</v>
@@ -11143,10 +11272,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>74</v>
@@ -11165,46 +11294,46 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>159</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -11245,7 +11374,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -11285,7 +11414,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -11341,7 +11470,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -11469,7 +11598,7 @@
         <v>136</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -11477,23 +11606,23 @@
         <v>137</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -11561,12 +11690,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -11580,7 +11709,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3803754B-D581-4EDA-BF56-575E47369D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C4DD3B-DC3A-46EE-A706-256B1B65848A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
@@ -2489,12 +2489,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2502,16 +2496,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2841,7 +2841,7 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2855,20 +2855,20 @@
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
@@ -2885,7 +2885,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="A3" s="54"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -2932,7 +2932,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="50" t="s">
         <v>115</v>
       </c>
       <c r="B8" t="s">
@@ -2941,13 +2941,13 @@
       <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="50" t="s">
         <v>165</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -2955,13 +2955,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="23" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="50" t="s">
         <v>131</v>
       </c>
       <c r="B12" t="s">
@@ -2969,7 +2969,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="9" t="s">
         <v>674</v>
       </c>
@@ -3052,7 +3052,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="50" t="s">
         <v>677</v>
       </c>
       <c r="B24" t="s">
@@ -3063,7 +3063,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="9" t="s">
         <v>678</v>
       </c>
@@ -3072,7 +3072,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="50" t="s">
         <v>186</v>
       </c>
       <c r="B26" t="s">
@@ -3086,7 +3086,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="9" t="s">
         <v>679</v>
       </c>
@@ -3098,7 +3098,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="50" t="s">
         <v>178</v>
       </c>
       <c r="B28" t="s">
@@ -3112,7 +3112,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="9" t="s">
         <v>179</v>
       </c>
@@ -3124,13 +3124,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="50" t="s">
         <v>196</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -3144,7 +3144,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="9" t="s">
         <v>211</v>
       </c>
@@ -3152,21 +3152,21 @@
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="50" t="s">
         <v>149</v>
       </c>
       <c r="B35" t="s">
@@ -3174,13 +3174,13 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="53"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="50" t="s">
         <v>150</v>
       </c>
       <c r="B37" t="s">
@@ -3188,7 +3188,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="53"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="9" t="s">
         <v>75</v>
       </c>
@@ -3242,7 +3242,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="53" t="s">
+      <c r="A45" s="50" t="s">
         <v>146</v>
       </c>
       <c r="B45" t="s">
@@ -3250,7 +3250,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="53"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="9" t="s">
         <v>145</v>
       </c>
@@ -3384,11 +3384,11 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="55"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
@@ -3423,27 +3423,27 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="50" t="s">
+      <c r="A68" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
     </row>
     <row r="69" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="48" t="s">
+      <c r="A70" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
     </row>
@@ -3457,9 +3457,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="A2:A3"/>
@@ -3475,6 +3472,9 @@
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3571,13 +3571,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3618,12 +3618,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>689</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C4DD3B-DC3A-46EE-A706-256B1B65848A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D404E810-F888-4375-8F83-ACC963D240BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="4" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="706">
   <si>
     <t>Название</t>
   </si>
@@ -2166,6 +2166,12 @@
   </si>
   <si>
     <t>result\t2</t>
+  </si>
+  <si>
+    <t>Год начала подготовки</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -2489,15 +2495,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2507,8 +2504,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2840,7 +2846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -2855,20 +2861,20 @@
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
@@ -2885,7 +2891,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
+      <c r="A3" s="53"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -2932,7 +2938,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="54" t="s">
         <v>115</v>
       </c>
       <c r="B8" t="s">
@@ -2941,13 +2947,13 @@
       <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="54" t="s">
         <v>165</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -2955,13 +2961,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="23" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="54" t="s">
         <v>131</v>
       </c>
       <c r="B12" t="s">
@@ -2969,7 +2975,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="9" t="s">
         <v>674</v>
       </c>
@@ -3052,7 +3058,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="54" t="s">
         <v>677</v>
       </c>
       <c r="B24" t="s">
@@ -3063,7 +3069,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="9" t="s">
         <v>678</v>
       </c>
@@ -3072,7 +3078,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="54" t="s">
         <v>186</v>
       </c>
       <c r="B26" t="s">
@@ -3086,7 +3092,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="50"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="9" t="s">
         <v>679</v>
       </c>
@@ -3098,7 +3104,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="54" t="s">
         <v>178</v>
       </c>
       <c r="B28" t="s">
@@ -3112,7 +3118,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="9" t="s">
         <v>179</v>
       </c>
@@ -3124,13 +3130,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="9" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="54" t="s">
         <v>196</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -3144,7 +3150,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="9" t="s">
         <v>211</v>
       </c>
@@ -3152,21 +3158,21 @@
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="52"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="54" t="s">
         <v>149</v>
       </c>
       <c r="B35" t="s">
@@ -3174,13 +3180,13 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="50"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="54" t="s">
         <v>150</v>
       </c>
       <c r="B37" t="s">
@@ -3188,7 +3194,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="9" t="s">
         <v>75</v>
       </c>
@@ -3242,7 +3248,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="54" t="s">
         <v>146</v>
       </c>
       <c r="B45" t="s">
@@ -3250,7 +3256,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="9" t="s">
         <v>145</v>
       </c>
@@ -3423,27 +3429,27 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="49"/>
-      <c r="C68" s="49"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
     </row>
     <row r="69" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
     </row>
@@ -3457,6 +3463,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="A2:A3"/>
@@ -3471,10 +3481,6 @@
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3571,13 +3577,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3618,12 +3624,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="50" t="s">
         <v>689</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -10741,9 +10747,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -11105,49 +11111,57 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
+        <v>704</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
         <v>692</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B29" s="34" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B30" s="39" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B31" s="34" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B32" s="38" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B33" s="34" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B34" s="38" t="s">
         <v>154</v>
       </c>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D404E810-F888-4375-8F83-ACC963D240BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CDBD03-6721-4EEB-B698-2C07C898B3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="4" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29892" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="712">
   <si>
     <t>Название</t>
   </si>
@@ -740,9 +740,6 @@
     <t>Предлог перед выводом статистики по курсу определённого номера</t>
   </si>
   <si>
-    <t>Сourses №</t>
-  </si>
-  <si>
     <t>Предлог перед выводом статистики по всем курсам</t>
   </si>
   <si>
@@ -2162,16 +2159,37 @@
     <t>postgraduate</t>
   </si>
   <si>
+    <t>Год начала подготовки</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Полное название компетенции</t>
+  </si>
+  <si>
+    <t>Competence full name</t>
+  </si>
+  <si>
+    <t>Полное название индикатора</t>
+  </si>
+  <si>
+    <t>Indicator full name</t>
+  </si>
+  <si>
+    <t>Разделитель для вывода полного названия компетенций и индикаторов</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Сourses</t>
+  </si>
+  <si>
     <t>plans\t2</t>
   </si>
   <si>
     <t>result\t2</t>
-  </si>
-  <si>
-    <t>Год начала подготовки</t>
-  </si>
-  <si>
-    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -2844,10 +2862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2887,7 +2905,7 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2902,7 +2920,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2918,7 +2936,7 @@
         <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2931,7 +2949,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -2977,7 +2995,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="54"/>
       <c r="B13" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -3014,15 +3032,15 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
@@ -3030,28 +3048,28 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -3059,22 +3077,22 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="54" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>591</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>591</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="54"/>
       <c r="B25" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -3094,13 +3112,13 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="54"/>
       <c r="B27" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>680</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -3176,7 +3194,7 @@
         <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -3190,7 +3208,7 @@
         <v>150</v>
       </c>
       <c r="B37" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -3201,7 +3219,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B39" s="5">
         <v>5</v>
@@ -3279,7 +3297,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B49" s="5">
         <v>3</v>
@@ -3287,7 +3305,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>117</v>
@@ -3303,79 +3321,79 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>92</v>
+        <v>707</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>296</v>
+        <v>215</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>297</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B58" s="5">
-        <v>6</v>
+        <v>295</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="B59" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" s="30">
-        <v>1E-3</v>
+        <v>95</v>
+      </c>
+      <c r="B60" s="5">
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B61" s="30">
         <v>1E-3</v>
@@ -3383,81 +3401,89 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="30">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B63" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="55" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>74</v>
-      </c>
+      <c r="B64" s="55"/>
+      <c r="C64" s="55"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" t="s">
-        <v>613</v>
+        <v>129</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>612</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="51" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="52"/>
-      <c r="C68" s="52"/>
-    </row>
-    <row r="69" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="48" t="s">
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+    </row>
+    <row r="70" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-    </row>
-    <row r="70" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="B70" s="49"/>
-      <c r="C70" s="49"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="19" t="s">
+    <row r="71" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B72" s="14" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3465,14 +3491,14 @@
   <mergeCells count="18">
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A68:C68"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -3593,7 +3619,7 @@
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -3625,7 +3651,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
@@ -3633,30 +3659,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -3688,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
@@ -3698,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3706,12 +3732,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3727,7 +3753,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3735,7 +3761,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3759,7 +3785,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3767,7 +3793,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3775,7 +3801,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3791,7 +3817,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3815,7 +3841,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3823,7 +3849,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3831,7 +3857,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3839,7 +3865,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3847,7 +3873,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3855,7 +3881,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3895,7 +3921,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3903,7 +3929,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3935,7 +3961,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3943,7 +3969,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3951,7 +3977,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3959,7 +3985,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3975,7 +4001,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3983,7 +4009,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3991,7 +4017,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3999,7 +4025,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -4007,7 +4033,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -4015,7 +4041,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -4023,7 +4049,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4031,7 +4057,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4039,7 +4065,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4047,7 +4073,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4055,7 +4081,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4063,7 +4089,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4071,7 +4097,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4079,7 +4105,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -4087,7 +4113,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4095,7 +4121,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4103,7 +4129,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4111,7 +4137,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4119,7 +4145,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4127,7 +4153,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4135,7 +4161,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4143,7 +4169,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -4151,7 +4177,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4191,7 +4217,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4199,7 +4225,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4207,7 +4233,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -4215,7 +4241,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -4223,7 +4249,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -4231,7 +4257,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4239,7 +4265,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -4247,7 +4273,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -4255,7 +4281,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -4263,7 +4289,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -4271,7 +4297,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -4279,7 +4305,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -4287,7 +4313,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -4295,7 +4321,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -4303,7 +4329,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -4311,7 +4337,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -4319,7 +4345,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4327,7 +4353,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -4335,7 +4361,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4343,7 +4369,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -4351,7 +4377,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -4359,7 +4385,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4375,7 +4401,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4383,7 +4409,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -4391,7 +4417,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -4399,7 +4425,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -4407,7 +4433,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -4415,7 +4441,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4423,7 +4449,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -4431,7 +4457,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4439,7 +4465,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -4447,7 +4473,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -4455,7 +4481,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4463,7 +4489,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4471,7 +4497,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4479,7 +4505,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -4487,7 +4513,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4495,7 +4521,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -4503,7 +4529,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4511,7 +4537,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4519,7 +4545,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4527,7 +4553,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4535,7 +4561,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4543,7 +4569,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4551,7 +4577,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -4559,7 +4585,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -4567,7 +4593,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -4575,7 +4601,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4583,7 +4609,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -4591,7 +4617,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -4599,7 +4625,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4607,7 +4633,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4615,7 +4641,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4623,7 +4649,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4631,7 +4657,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4639,7 +4665,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -4647,7 +4673,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -4655,7 +4681,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4663,7 +4689,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4671,7 +4697,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4679,7 +4705,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4687,7 +4713,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4695,7 +4721,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -4703,7 +4729,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -4711,7 +4737,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -4719,7 +4745,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -4727,7 +4753,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -4735,7 +4761,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -4743,7 +4769,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -4751,7 +4777,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -4759,7 +4785,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -4767,7 +4793,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -4775,7 +4801,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -4783,7 +4809,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -4791,7 +4817,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -4799,7 +4825,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -4807,7 +4833,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -4815,7 +4841,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -4823,7 +4849,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -4831,7 +4857,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -4839,7 +4865,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4847,7 +4873,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -4855,7 +4881,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -4866,7 +4892,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -4874,7 +4900,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -4882,7 +4908,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -4890,7 +4916,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -4898,7 +4924,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -4906,7 +4932,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -4914,7 +4940,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -4922,7 +4948,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -4930,7 +4956,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -4938,7 +4964,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -4946,7 +4972,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -4954,7 +4980,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -4962,7 +4988,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -4970,7 +4996,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -4978,7 +5004,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -4986,7 +5012,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -4994,7 +5020,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -5002,7 +5028,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -5010,7 +5036,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -5026,7 +5052,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -5034,7 +5060,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -5042,7 +5068,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -5050,7 +5076,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -5058,7 +5084,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -5066,7 +5092,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -5074,7 +5100,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -5082,7 +5108,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -5090,7 +5116,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -5098,7 +5124,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -5106,7 +5132,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -5114,7 +5140,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -5130,7 +5156,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -5138,7 +5164,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -5146,7 +5172,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -5154,7 +5180,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -5162,7 +5188,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -5170,7 +5196,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -5178,7 +5204,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -5186,7 +5212,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -5194,7 +5220,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -5202,7 +5228,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -5210,7 +5236,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -5218,7 +5244,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -5226,7 +5252,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -5234,7 +5260,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -5242,7 +5268,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -5250,7 +5276,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -5258,7 +5284,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -5266,7 +5292,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -5274,7 +5300,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -5282,7 +5308,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -5290,7 +5316,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -5298,7 +5324,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -5306,7 +5332,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -5314,7 +5340,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -5322,7 +5348,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -5330,7 +5356,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -5338,7 +5364,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -5346,7 +5372,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -5354,7 +5380,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -5362,7 +5388,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -5370,7 +5396,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -5378,7 +5404,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -5386,7 +5412,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -5402,7 +5428,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -5410,7 +5436,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -5418,7 +5444,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -5434,7 +5460,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -5442,7 +5468,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -5450,7 +5476,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -5458,7 +5484,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -5466,7 +5492,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -5474,7 +5500,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -5482,7 +5508,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -5490,7 +5516,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -5498,7 +5524,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -5506,7 +5532,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -5514,7 +5540,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -5522,7 +5548,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -5530,7 +5556,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -5538,7 +5564,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -5546,7 +5572,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -5554,7 +5580,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -5565,7 +5591,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -5573,7 +5599,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -5581,7 +5607,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -5589,7 +5615,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -5597,7 +5623,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -5605,7 +5631,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -5613,7 +5639,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -5621,7 +5647,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -5629,7 +5655,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -5637,7 +5663,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -5645,7 +5671,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -5653,7 +5679,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -5661,7 +5687,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -5669,7 +5695,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -5677,7 +5703,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -5685,7 +5711,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -5693,7 +5719,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -5701,7 +5727,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -5709,7 +5735,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -5717,7 +5743,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -5725,7 +5751,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -5733,7 +5759,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -5741,7 +5767,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -5749,7 +5775,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -5757,7 +5783,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -5765,7 +5791,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -5773,7 +5799,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -5781,7 +5807,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -5789,7 +5815,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -5797,7 +5823,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -5805,7 +5831,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -5813,7 +5839,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -5821,7 +5847,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -5829,7 +5855,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -5837,7 +5863,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -5845,7 +5871,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -5853,7 +5879,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -5861,7 +5887,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -5869,7 +5895,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -5877,7 +5903,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -5885,7 +5911,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -5893,7 +5919,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -5901,7 +5927,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -5909,7 +5935,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -5917,7 +5943,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -5925,7 +5951,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -5933,7 +5959,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -5941,7 +5967,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -5949,7 +5975,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -5957,7 +5983,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -5965,7 +5991,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -5973,7 +5999,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -5981,7 +6007,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -5997,7 +6023,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -6005,7 +6031,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -6013,7 +6039,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -6021,7 +6047,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -6029,7 +6055,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -6037,7 +6063,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -6045,7 +6071,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -6053,7 +6079,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -6061,7 +6087,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -6069,7 +6095,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -6077,7 +6103,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -6085,7 +6111,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -6093,7 +6119,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -6101,7 +6127,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -6109,7 +6135,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -6117,7 +6143,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -6125,7 +6151,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -6133,7 +6159,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -6141,7 +6167,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -6149,7 +6175,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -6157,7 +6183,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -6165,7 +6191,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -6173,7 +6199,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -6181,7 +6207,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -6197,7 +6223,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -6205,7 +6231,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -6213,7 +6239,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -6221,7 +6247,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -6232,7 +6258,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -6240,7 +6266,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -6248,7 +6274,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -6259,7 +6285,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -6267,7 +6293,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -6275,7 +6301,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -6283,7 +6309,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -6291,7 +6317,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -6299,7 +6325,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -6307,7 +6333,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -6315,7 +6341,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -6323,7 +6349,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -6331,7 +6357,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -6339,7 +6365,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -6347,7 +6373,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -6355,7 +6381,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -6363,7 +6389,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -6379,7 +6405,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -6387,7 +6413,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -6395,7 +6421,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -6403,7 +6429,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -6419,7 +6445,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -6435,7 +6461,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -6443,7 +6469,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -6451,7 +6477,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -6459,7 +6485,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -6475,7 +6501,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -6483,7 +6509,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -6491,7 +6517,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -6499,7 +6525,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -6507,7 +6533,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -6515,7 +6541,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -6523,7 +6549,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -6531,7 +6557,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -6539,7 +6565,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -6547,7 +6573,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -6555,7 +6581,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -6563,7 +6589,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -6587,7 +6613,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -6595,7 +6621,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -6603,7 +6629,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -6611,7 +6637,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -6619,7 +6645,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -6627,7 +6653,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -6635,7 +6661,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -6643,7 +6669,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B369">
         <v>0</v>
@@ -6651,7 +6677,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -6659,7 +6685,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -6670,7 +6696,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -6678,7 +6704,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -6686,7 +6712,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -6694,7 +6720,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -6702,7 +6728,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -6710,7 +6736,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -6718,7 +6744,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -6726,7 +6752,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -6734,7 +6760,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -6742,7 +6768,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -6750,7 +6776,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -6774,7 +6800,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -6782,7 +6808,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -6790,7 +6816,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -6798,7 +6824,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -6806,7 +6832,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -6814,7 +6840,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -6822,7 +6848,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -6830,7 +6856,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B392">
         <v>1</v>
@@ -6838,7 +6864,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -6846,7 +6872,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -6854,7 +6880,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -6862,7 +6888,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -6870,7 +6896,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -6878,7 +6904,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -6886,7 +6912,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -6894,7 +6920,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -6902,7 +6928,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -6910,7 +6936,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -6918,7 +6944,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -6926,7 +6952,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -6934,7 +6960,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -6942,7 +6968,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -6950,7 +6976,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -6958,7 +6984,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B408">
         <v>1</v>
@@ -6966,7 +6992,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B409">
         <v>1</v>
@@ -6974,7 +7000,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -6982,7 +7008,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -6990,7 +7016,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -6998,7 +7024,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -7006,7 +7032,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -7014,7 +7040,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -7022,7 +7048,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -7030,7 +7056,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -7038,7 +7064,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -7046,7 +7072,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -7054,7 +7080,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -7062,7 +7088,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -7070,7 +7096,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -7078,7 +7104,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B423">
         <v>0</v>
@@ -7086,7 +7112,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -7094,7 +7120,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B425">
         <v>0</v>
@@ -7102,7 +7128,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -7110,7 +7136,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -7118,7 +7144,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -7126,7 +7152,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -7134,7 +7160,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -7142,7 +7168,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B431">
         <v>0</v>
@@ -7150,7 +7176,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B432">
         <v>0</v>
@@ -7158,7 +7184,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -7166,7 +7192,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -7201,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
@@ -7211,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -7219,7 +7245,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -7227,12 +7253,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -7248,7 +7274,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7256,7 +7282,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7280,7 +7306,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -7288,7 +7314,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -7296,7 +7322,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -7312,7 +7338,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -7336,7 +7362,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7344,7 +7370,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7352,7 +7378,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7360,7 +7386,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -7368,7 +7394,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -7376,7 +7402,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -7416,7 +7442,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -7424,7 +7450,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -7456,7 +7482,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -7464,7 +7490,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -7472,7 +7498,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -7480,7 +7506,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -7496,7 +7522,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -7504,7 +7530,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -7512,7 +7538,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -7520,7 +7546,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -7528,7 +7554,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -7536,7 +7562,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -7544,7 +7570,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -7552,7 +7578,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -7560,7 +7586,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -7568,7 +7594,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -7576,7 +7602,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7584,7 +7610,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -7592,7 +7618,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -7600,7 +7626,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -7608,7 +7634,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -7616,7 +7642,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -7624,7 +7650,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -7632,7 +7658,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -7640,7 +7666,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7648,7 +7674,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -7656,7 +7682,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -7664,7 +7690,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7672,7 +7698,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7712,7 +7738,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -7720,7 +7746,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -7728,7 +7754,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -7736,7 +7762,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -7744,7 +7770,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -7752,7 +7778,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -7760,7 +7786,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -7768,7 +7794,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -7776,7 +7802,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -7784,7 +7810,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -7792,7 +7818,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -7800,7 +7826,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -7808,7 +7834,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -7816,7 +7842,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -7824,7 +7850,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -7832,7 +7858,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -7840,7 +7866,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -7848,7 +7874,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -7856,7 +7882,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -7864,7 +7890,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -7872,7 +7898,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -7880,7 +7906,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -7896,7 +7922,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -7904,7 +7930,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -7912,7 +7938,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -7920,7 +7946,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -7928,7 +7954,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -7936,7 +7962,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -7944,7 +7970,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -7952,7 +7978,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -7960,7 +7986,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -7968,7 +7994,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -7976,7 +8002,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -7984,7 +8010,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -7992,7 +8018,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -8000,7 +8026,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -8008,7 +8034,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -8016,7 +8042,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -8024,7 +8050,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -8032,7 +8058,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -8040,7 +8066,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -8048,7 +8074,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -8056,7 +8082,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -8064,7 +8090,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -8072,7 +8098,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -8080,7 +8106,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -8088,7 +8114,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -8096,7 +8122,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -8104,7 +8130,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -8112,7 +8138,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -8120,7 +8146,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -8128,7 +8154,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -8136,7 +8162,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -8144,7 +8170,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -8152,7 +8178,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -8160,7 +8186,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -8168,7 +8194,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -8176,7 +8202,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -8184,7 +8210,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -8192,7 +8218,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -8200,7 +8226,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -8208,7 +8234,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -8216,7 +8242,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -8224,7 +8250,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -8232,7 +8258,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -8240,7 +8266,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -8248,7 +8274,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -8256,7 +8282,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -8264,7 +8290,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -8272,7 +8298,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -8280,7 +8306,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -8288,7 +8314,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -8296,7 +8322,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -8304,7 +8330,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -8312,7 +8338,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -8320,7 +8346,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -8328,7 +8354,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -8336,7 +8362,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -8344,7 +8370,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -8352,7 +8378,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -8360,7 +8386,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -8368,7 +8394,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -8376,7 +8402,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -8387,7 +8413,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -8395,7 +8421,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -8403,7 +8429,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -8411,7 +8437,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -8419,7 +8445,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -8427,7 +8453,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -8435,7 +8461,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -8443,7 +8469,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -8451,7 +8477,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -8459,7 +8485,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -8467,7 +8493,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -8475,7 +8501,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -8483,7 +8509,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -8491,7 +8517,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -8499,7 +8525,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -8507,7 +8533,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -8515,7 +8541,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -8523,7 +8549,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -8531,7 +8557,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -8547,7 +8573,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -8555,7 +8581,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -8563,7 +8589,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -8571,7 +8597,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -8579,7 +8605,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -8587,7 +8613,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -8595,7 +8621,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -8603,7 +8629,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -8611,7 +8637,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -8619,7 +8645,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -8627,7 +8653,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -8635,7 +8661,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -8651,7 +8677,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -8659,7 +8685,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -8667,7 +8693,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B184">
         <v>2</v>
@@ -8675,7 +8701,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -8683,7 +8709,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -8691,7 +8717,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -8699,7 +8725,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -8707,7 +8733,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -8715,7 +8741,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -8723,7 +8749,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -8731,7 +8757,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -8739,7 +8765,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -8747,7 +8773,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -8755,7 +8781,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -8763,7 +8789,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B196">
         <v>2</v>
@@ -8771,7 +8797,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -8779,7 +8805,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -8787,7 +8813,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -8795,7 +8821,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -8803,7 +8829,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B201">
         <v>2</v>
@@ -8811,7 +8837,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B202">
         <v>2</v>
@@ -8819,7 +8845,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -8827,7 +8853,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -8835,7 +8861,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -8843,7 +8869,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -8851,7 +8877,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -8859,7 +8885,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -8867,7 +8893,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -8875,7 +8901,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -8883,7 +8909,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -8891,7 +8917,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -8899,7 +8925,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -8907,7 +8933,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -8923,7 +8949,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -8931,7 +8957,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -8939,7 +8965,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -8955,7 +8981,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -8963,7 +8989,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -8971,7 +8997,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -8979,7 +9005,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -8987,7 +9013,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -8995,7 +9021,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -9003,7 +9029,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -9011,7 +9037,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -9019,7 +9045,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -9027,7 +9053,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -9035,7 +9061,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -9043,7 +9069,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -9051,7 +9077,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -9059,7 +9085,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -9067,7 +9093,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -9075,7 +9101,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -9086,7 +9112,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -9094,7 +9120,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -9102,7 +9128,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -9110,7 +9136,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -9118,7 +9144,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -9126,7 +9152,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -9134,7 +9160,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B242">
         <v>2</v>
@@ -9142,7 +9168,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -9150,7 +9176,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -9158,7 +9184,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -9166,7 +9192,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -9174,7 +9200,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -9182,7 +9208,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -9190,7 +9216,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -9198,7 +9224,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -9206,7 +9232,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -9214,7 +9240,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -9222,7 +9248,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -9230,7 +9256,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -9238,7 +9264,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B255">
         <v>2</v>
@@ -9246,7 +9272,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -9254,7 +9280,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B257">
         <v>2</v>
@@ -9262,7 +9288,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B258">
         <v>2</v>
@@ -9270,7 +9296,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B259